--- a/RA_Spectra.xlsx
+++ b/RA_Spectra.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miraliu/Desktop/PostDocCode/Multiexp_Simulations_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EFCC81-90F2-504C-82B0-87E2C0EBA581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30746345-2F7C-4349-BB3A-C147AF136D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="500" windowWidth="38400" windowHeight="20460"/>
+    <workbookView xWindow="38400" yWindow="2780" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpectralPlots" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" fullCalcOnLoad="true"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -79,6 +79,18 @@
   <si>
     <t>threepeak test 2</t>
   </si>
+  <si>
+    <t>example 2peak simpleCVNNLS lambda 2</t>
+  </si>
+  <si>
+    <t>example 2peak simpleCVNNLS lambda 8</t>
+  </si>
+  <si>
+    <t>example 3peak simpleCVNNLS lambda 8</t>
+  </si>
+  <si>
+    <t>example 3peak simpleCVNNLS lambda 2</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -114,15 +126,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,328 +467,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3844B0-E6A7-2347-B8AB-DDFFDAAF3289}">
-  <dimension ref="A1:KX5"/>
+  <dimension ref="A1:KX9"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="KR1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:LH10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="8.7109375" customWidth="true"/>
-    <col min="10" max="10" width="13.7109375" customWidth="true"/>
-    <col min="11" max="11" width="16.7109375" customWidth="true"/>
-    <col min="17" max="17" width="15.7109375" customWidth="true"/>
-    <col min="18" max="18" width="14.7109375" customWidth="true"/>
-    <col min="19" max="19" width="14.7109375" customWidth="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true"/>
-    <col min="24" max="24" width="15.7109375" customWidth="true"/>
-    <col min="25" max="25" width="15.7109375" customWidth="true"/>
-    <col min="30" max="30" width="16.7109375" customWidth="true"/>
-    <col min="33" max="33" width="16.7109375" customWidth="true"/>
-    <col min="82" max="82" width="16.7109375" customWidth="true"/>
-    <col min="85" max="85" width="15.7109375" customWidth="true"/>
-    <col min="86" max="86" width="16.7109375" customWidth="true"/>
-    <col min="87" max="87" width="15.7109375" customWidth="true"/>
-    <col min="88" max="88" width="16.7109375" customWidth="true"/>
-    <col min="93" max="93" width="15.7109375" customWidth="true"/>
-    <col min="94" max="94" width="16.7109375" customWidth="true"/>
-    <col min="108" max="108" width="16.7109375" customWidth="true"/>
-    <col min="109" max="109" width="16.7109375" customWidth="true"/>
-    <col min="111" max="111" width="15.7109375" customWidth="true"/>
-    <col min="141" max="141" width="15.7109375" customWidth="true"/>
-    <col min="142" max="142" width="16.7109375" customWidth="true"/>
-    <col min="149" max="149" width="15.7109375" customWidth="true"/>
-    <col min="150" max="150" width="14.7109375" customWidth="true"/>
-    <col min="151" max="151" width="15.7109375" customWidth="true"/>
-    <col min="161" max="161" width="15.7109375" customWidth="true"/>
-    <col min="162" max="162" width="15.7109375" customWidth="true"/>
-    <col min="164" max="164" width="15.7109375" customWidth="true"/>
-    <col min="176" max="176" width="14.7109375" customWidth="true"/>
-    <col min="177" max="177" width="14.7109375" customWidth="true"/>
-    <col min="180" max="180" width="16.7109375" customWidth="true"/>
-    <col min="184" max="184" width="15.7109375" customWidth="true"/>
-    <col min="190" max="190" width="14.7109375" customWidth="true"/>
-    <col min="194" max="194" width="15.7109375" customWidth="true"/>
-    <col min="198" max="198" width="14.7109375" customWidth="true"/>
-    <col min="199" max="199" width="15.7109375" customWidth="true"/>
-    <col min="205" max="205" width="14.7109375" customWidth="true"/>
-    <col min="206" max="206" width="15.7109375" customWidth="true"/>
-    <col min="213" max="213" width="16.7109375" customWidth="true"/>
-    <col min="219" max="219" width="15.7109375" customWidth="true"/>
-    <col min="220" max="220" width="16.7109375" customWidth="true"/>
-    <col min="227" max="227" width="16.7109375" customWidth="true"/>
-    <col min="233" max="233" width="16.7109375" customWidth="true"/>
-    <col min="238" max="238" width="15.7109375" customWidth="true"/>
-    <col min="246" max="246" width="16.7109375" customWidth="true"/>
-    <col min="247" max="247" width="16.7109375" customWidth="true"/>
-    <col min="248" max="248" width="16.7109375" customWidth="true"/>
-    <col min="249" max="249" width="16.7109375" customWidth="true"/>
-    <col min="254" max="254" width="15.7109375" customWidth="true"/>
-    <col min="257" max="257" width="14.7109375" customWidth="true"/>
-    <col min="258" max="258" width="15.7109375" customWidth="true"/>
-    <col min="261" max="261" width="15.7109375" customWidth="true"/>
-    <col min="264" max="264" width="15.7109375" customWidth="true"/>
-    <col min="266" max="266" width="15.7109375" customWidth="true"/>
-    <col min="277" max="277" width="15.7109375" customWidth="true"/>
-    <col min="278" max="278" width="15.7109375" customWidth="true"/>
-    <col min="295" max="295" width="16.7109375" customWidth="true"/>
-    <col min="305" max="305" width="15.7109375" customWidth="true"/>
-    <col min="306" max="306" width="16.7109375" customWidth="true"/>
-    <col min="307" max="307" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
-    <col min="12" max="12" width="16.7109375" customWidth="true"/>
-    <col min="13" max="13" width="15.7109375" customWidth="true"/>
-    <col min="14" max="14" width="15.7109375" customWidth="true"/>
-    <col min="15" max="15" width="15.7109375" customWidth="true"/>
-    <col min="16" max="16" width="15.7109375" customWidth="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true"/>
-    <col min="22" max="22" width="15.7109375" customWidth="true"/>
-    <col min="23" max="23" width="15.7109375" customWidth="true"/>
-    <col min="26" max="26" width="15.7109375" customWidth="true"/>
-    <col min="27" max="27" width="15.7109375" customWidth="true"/>
-    <col min="28" max="28" width="16.7109375" customWidth="true"/>
-    <col min="29" max="29" width="16.7109375" customWidth="true"/>
-    <col min="31" max="31" width="16.7109375" customWidth="true"/>
-    <col min="32" max="32" width="16.7109375" customWidth="true"/>
-    <col min="34" max="34" width="15.7109375" customWidth="true"/>
-    <col min="35" max="35" width="16.7109375" customWidth="true"/>
-    <col min="36" max="36" width="2.7109375" customWidth="true"/>
-    <col min="37" max="37" width="2.7109375" customWidth="true"/>
-    <col min="38" max="38" width="2.7109375" customWidth="true"/>
-    <col min="39" max="39" width="2.7109375" customWidth="true"/>
-    <col min="40" max="40" width="2.7109375" customWidth="true"/>
-    <col min="41" max="41" width="16.7109375" customWidth="true"/>
-    <col min="42" max="42" width="16.7109375" customWidth="true"/>
-    <col min="43" max="43" width="15.7109375" customWidth="true"/>
-    <col min="44" max="44" width="16.7109375" customWidth="true"/>
-    <col min="45" max="45" width="15.7109375" customWidth="true"/>
-    <col min="46" max="46" width="15.7109375" customWidth="true"/>
-    <col min="47" max="47" width="15.7109375" customWidth="true"/>
-    <col min="48" max="48" width="15.7109375" customWidth="true"/>
-    <col min="49" max="49" width="15.7109375" customWidth="true"/>
-    <col min="50" max="50" width="14.7109375" customWidth="true"/>
-    <col min="51" max="51" width="15.7109375" customWidth="true"/>
-    <col min="52" max="52" width="15.7109375" customWidth="true"/>
-    <col min="53" max="53" width="15.7109375" customWidth="true"/>
-    <col min="54" max="54" width="15.7109375" customWidth="true"/>
-    <col min="55" max="55" width="15.7109375" customWidth="true"/>
-    <col min="56" max="56" width="15.7109375" customWidth="true"/>
-    <col min="57" max="57" width="15.7109375" customWidth="true"/>
-    <col min="58" max="58" width="15.7109375" customWidth="true"/>
-    <col min="59" max="59" width="15.7109375" customWidth="true"/>
-    <col min="60" max="60" width="15.7109375" customWidth="true"/>
-    <col min="61" max="61" width="15.7109375" customWidth="true"/>
-    <col min="62" max="62" width="15.7109375" customWidth="true"/>
-    <col min="63" max="63" width="15.7109375" customWidth="true"/>
-    <col min="64" max="64" width="15.7109375" customWidth="true"/>
-    <col min="65" max="65" width="16.7109375" customWidth="true"/>
-    <col min="66" max="66" width="16.7109375" customWidth="true"/>
-    <col min="67" max="67" width="16.7109375" customWidth="true"/>
-    <col min="68" max="68" width="16.7109375" customWidth="true"/>
-    <col min="69" max="69" width="2.7109375" customWidth="true"/>
-    <col min="70" max="70" width="2.7109375" customWidth="true"/>
-    <col min="71" max="71" width="2.7109375" customWidth="true"/>
-    <col min="72" max="72" width="2.7109375" customWidth="true"/>
-    <col min="73" max="73" width="2.7109375" customWidth="true"/>
-    <col min="74" max="74" width="2.7109375" customWidth="true"/>
-    <col min="75" max="75" width="2.7109375" customWidth="true"/>
-    <col min="76" max="76" width="2.7109375" customWidth="true"/>
-    <col min="77" max="77" width="2.7109375" customWidth="true"/>
-    <col min="78" max="78" width="2.7109375" customWidth="true"/>
-    <col min="79" max="79" width="2.7109375" customWidth="true"/>
-    <col min="80" max="80" width="2.7109375" customWidth="true"/>
-    <col min="81" max="81" width="2.7109375" customWidth="true"/>
-    <col min="83" max="83" width="16.7109375" customWidth="true"/>
-    <col min="84" max="84" width="16.7109375" customWidth="true"/>
-    <col min="89" max="89" width="16.7109375" customWidth="true"/>
-    <col min="90" max="90" width="16.7109375" customWidth="true"/>
-    <col min="91" max="91" width="16.7109375" customWidth="true"/>
-    <col min="92" max="92" width="16.7109375" customWidth="true"/>
-    <col min="95" max="95" width="16.7109375" customWidth="true"/>
-    <col min="96" max="96" width="16.7109375" customWidth="true"/>
-    <col min="97" max="97" width="16.7109375" customWidth="true"/>
-    <col min="98" max="98" width="16.7109375" customWidth="true"/>
-    <col min="99" max="99" width="16.7109375" customWidth="true"/>
-    <col min="100" max="100" width="16.7109375" customWidth="true"/>
-    <col min="101" max="101" width="16.7109375" customWidth="true"/>
-    <col min="102" max="102" width="16.7109375" customWidth="true"/>
-    <col min="103" max="103" width="16.7109375" customWidth="true"/>
-    <col min="104" max="104" width="16.7109375" customWidth="true"/>
-    <col min="105" max="105" width="16.7109375" customWidth="true"/>
-    <col min="106" max="106" width="16.7109375" customWidth="true"/>
-    <col min="107" max="107" width="16.7109375" customWidth="true"/>
-    <col min="110" max="110" width="16.7109375" customWidth="true"/>
-    <col min="112" max="112" width="15.7109375" customWidth="true"/>
-    <col min="113" max="113" width="15.7109375" customWidth="true"/>
-    <col min="114" max="114" width="15.7109375" customWidth="true"/>
-    <col min="115" max="115" width="14.7109375" customWidth="true"/>
-    <col min="116" max="116" width="14.7109375" customWidth="true"/>
-    <col min="117" max="117" width="14.7109375" customWidth="true"/>
-    <col min="118" max="118" width="14.7109375" customWidth="true"/>
-    <col min="119" max="119" width="14.7109375" customWidth="true"/>
-    <col min="120" max="120" width="14.7109375" customWidth="true"/>
-    <col min="121" max="121" width="14.7109375" customWidth="true"/>
-    <col min="122" max="122" width="14.7109375" customWidth="true"/>
-    <col min="123" max="123" width="14.7109375" customWidth="true"/>
-    <col min="124" max="124" width="14.7109375" customWidth="true"/>
-    <col min="125" max="125" width="14.7109375" customWidth="true"/>
-    <col min="126" max="126" width="14.7109375" customWidth="true"/>
-    <col min="127" max="127" width="14.7109375" customWidth="true"/>
-    <col min="128" max="128" width="14.7109375" customWidth="true"/>
-    <col min="129" max="129" width="13.7109375" customWidth="true"/>
-    <col min="130" max="130" width="14.7109375" customWidth="true"/>
-    <col min="131" max="131" width="15.7109375" customWidth="true"/>
-    <col min="132" max="132" width="13.7109375" customWidth="true"/>
-    <col min="133" max="133" width="15.7109375" customWidth="true"/>
-    <col min="134" max="134" width="15.7109375" customWidth="true"/>
-    <col min="135" max="135" width="15.7109375" customWidth="true"/>
-    <col min="136" max="136" width="15.7109375" customWidth="true"/>
-    <col min="137" max="137" width="16.7109375" customWidth="true"/>
-    <col min="138" max="138" width="16.7109375" customWidth="true"/>
-    <col min="139" max="139" width="2.7109375" customWidth="true"/>
-    <col min="140" max="140" width="2.7109375" customWidth="true"/>
-    <col min="143" max="143" width="16.7109375" customWidth="true"/>
-    <col min="144" max="144" width="16.7109375" customWidth="true"/>
-    <col min="145" max="145" width="16.7109375" customWidth="true"/>
-    <col min="146" max="146" width="16.7109375" customWidth="true"/>
-    <col min="147" max="147" width="16.7109375" customWidth="true"/>
-    <col min="148" max="148" width="16.7109375" customWidth="true"/>
-    <col min="152" max="152" width="15.7109375" customWidth="true"/>
-    <col min="153" max="153" width="15.7109375" customWidth="true"/>
-    <col min="154" max="154" width="15.7109375" customWidth="true"/>
-    <col min="155" max="155" width="16.7109375" customWidth="true"/>
-    <col min="156" max="156" width="16.7109375" customWidth="true"/>
-    <col min="157" max="157" width="16.7109375" customWidth="true"/>
-    <col min="158" max="158" width="16.7109375" customWidth="true"/>
-    <col min="159" max="159" width="16.7109375" customWidth="true"/>
-    <col min="160" max="160" width="15.7109375" customWidth="true"/>
-    <col min="163" max="163" width="15.7109375" customWidth="true"/>
-    <col min="165" max="165" width="15.7109375" customWidth="true"/>
-    <col min="166" max="166" width="15.7109375" customWidth="true"/>
-    <col min="167" max="167" width="15.7109375" customWidth="true"/>
-    <col min="168" max="168" width="15.7109375" customWidth="true"/>
-    <col min="169" max="169" width="15.7109375" customWidth="true"/>
-    <col min="170" max="170" width="15.7109375" customWidth="true"/>
-    <col min="171" max="171" width="14.7109375" customWidth="true"/>
-    <col min="172" max="172" width="14.7109375" customWidth="true"/>
-    <col min="173" max="173" width="14.7109375" customWidth="true"/>
-    <col min="174" max="174" width="14.7109375" customWidth="true"/>
-    <col min="175" max="175" width="14.7109375" customWidth="true"/>
-    <col min="178" max="178" width="14.7109375" customWidth="true"/>
-    <col min="179" max="179" width="14.7109375" customWidth="true"/>
-    <col min="181" max="181" width="16.7109375" customWidth="true"/>
-    <col min="182" max="182" width="16.7109375" customWidth="true"/>
-    <col min="183" max="183" width="16.7109375" customWidth="true"/>
-    <col min="185" max="185" width="15.7109375" customWidth="true"/>
-    <col min="186" max="186" width="15.7109375" customWidth="true"/>
-    <col min="187" max="187" width="15.7109375" customWidth="true"/>
-    <col min="188" max="188" width="15.7109375" customWidth="true"/>
-    <col min="189" max="189" width="15.7109375" customWidth="true"/>
-    <col min="191" max="191" width="14.7109375" customWidth="true"/>
-    <col min="192" max="192" width="14.7109375" customWidth="true"/>
-    <col min="193" max="193" width="14.7109375" customWidth="true"/>
-    <col min="195" max="195" width="15.7109375" customWidth="true"/>
-    <col min="196" max="196" width="15.7109375" customWidth="true"/>
-    <col min="197" max="197" width="15.7109375" customWidth="true"/>
-    <col min="200" max="200" width="15.7109375" customWidth="true"/>
-    <col min="201" max="201" width="15.7109375" customWidth="true"/>
-    <col min="202" max="202" width="15.7109375" customWidth="true"/>
-    <col min="203" max="203" width="15.7109375" customWidth="true"/>
-    <col min="204" max="204" width="15.7109375" customWidth="true"/>
-    <col min="207" max="207" width="15.7109375" customWidth="true"/>
-    <col min="208" max="208" width="15.7109375" customWidth="true"/>
-    <col min="209" max="209" width="15.7109375" customWidth="true"/>
-    <col min="210" max="210" width="15.7109375" customWidth="true"/>
-    <col min="211" max="211" width="15.7109375" customWidth="true"/>
-    <col min="212" max="212" width="15.7109375" customWidth="true"/>
-    <col min="214" max="214" width="16.7109375" customWidth="true"/>
-    <col min="215" max="215" width="16.7109375" customWidth="true"/>
-    <col min="216" max="216" width="16.7109375" customWidth="true"/>
-    <col min="217" max="217" width="16.7109375" customWidth="true"/>
-    <col min="218" max="218" width="16.7109375" customWidth="true"/>
-    <col min="221" max="221" width="16.7109375" customWidth="true"/>
-    <col min="222" max="222" width="16.7109375" customWidth="true"/>
-    <col min="223" max="223" width="16.7109375" customWidth="true"/>
-    <col min="224" max="224" width="16.7109375" customWidth="true"/>
-    <col min="225" max="225" width="16.7109375" customWidth="true"/>
-    <col min="226" max="226" width="16.7109375" customWidth="true"/>
-    <col min="228" max="228" width="15.7109375" customWidth="true"/>
-    <col min="229" max="229" width="15.7109375" customWidth="true"/>
-    <col min="230" max="230" width="15.7109375" customWidth="true"/>
-    <col min="231" max="231" width="15.7109375" customWidth="true"/>
-    <col min="232" max="232" width="15.7109375" customWidth="true"/>
-    <col min="234" max="234" width="16.7109375" customWidth="true"/>
-    <col min="235" max="235" width="16.7109375" customWidth="true"/>
-    <col min="236" max="236" width="16.7109375" customWidth="true"/>
-    <col min="237" max="237" width="16.7109375" customWidth="true"/>
-    <col min="239" max="239" width="16.7109375" customWidth="true"/>
-    <col min="240" max="240" width="16.7109375" customWidth="true"/>
-    <col min="241" max="241" width="15.7109375" customWidth="true"/>
-    <col min="242" max="242" width="16.7109375" customWidth="true"/>
-    <col min="243" max="243" width="16.7109375" customWidth="true"/>
-    <col min="244" max="244" width="15.7109375" customWidth="true"/>
-    <col min="245" max="245" width="16.7109375" customWidth="true"/>
-    <col min="250" max="250" width="16.7109375" customWidth="true"/>
-    <col min="251" max="251" width="15.7109375" customWidth="true"/>
-    <col min="252" max="252" width="16.7109375" customWidth="true"/>
-    <col min="253" max="253" width="16.7109375" customWidth="true"/>
-    <col min="255" max="255" width="15.7109375" customWidth="true"/>
-    <col min="256" max="256" width="15.7109375" customWidth="true"/>
-    <col min="259" max="259" width="15.7109375" customWidth="true"/>
-    <col min="260" max="260" width="15.7109375" customWidth="true"/>
-    <col min="262" max="262" width="15.7109375" customWidth="true"/>
-    <col min="263" max="263" width="15.7109375" customWidth="true"/>
-    <col min="265" max="265" width="14.7109375" customWidth="true"/>
-    <col min="267" max="267" width="15.7109375" customWidth="true"/>
-    <col min="268" max="268" width="15.7109375" customWidth="true"/>
-    <col min="269" max="269" width="15.7109375" customWidth="true"/>
-    <col min="270" max="270" width="15.7109375" customWidth="true"/>
-    <col min="271" max="271" width="15.7109375" customWidth="true"/>
-    <col min="272" max="272" width="15.7109375" customWidth="true"/>
-    <col min="273" max="273" width="15.7109375" customWidth="true"/>
-    <col min="274" max="274" width="15.7109375" customWidth="true"/>
-    <col min="275" max="275" width="15.7109375" customWidth="true"/>
-    <col min="276" max="276" width="15.7109375" customWidth="true"/>
-    <col min="279" max="279" width="15.7109375" customWidth="true"/>
-    <col min="280" max="280" width="15.7109375" customWidth="true"/>
-    <col min="281" max="281" width="15.7109375" customWidth="true"/>
-    <col min="282" max="282" width="15.7109375" customWidth="true"/>
-    <col min="283" max="283" width="15.7109375" customWidth="true"/>
-    <col min="284" max="284" width="15.7109375" customWidth="true"/>
-    <col min="285" max="285" width="15.7109375" customWidth="true"/>
-    <col min="286" max="286" width="15.7109375" customWidth="true"/>
-    <col min="287" max="287" width="15.7109375" customWidth="true"/>
-    <col min="288" max="288" width="15.7109375" customWidth="true"/>
-    <col min="289" max="289" width="15.7109375" customWidth="true"/>
-    <col min="290" max="290" width="15.7109375" customWidth="true"/>
-    <col min="291" max="291" width="15.7109375" customWidth="true"/>
-    <col min="292" max="292" width="15.7109375" customWidth="true"/>
-    <col min="293" max="293" width="15.7109375" customWidth="true"/>
-    <col min="294" max="294" width="15.7109375" customWidth="true"/>
-    <col min="296" max="296" width="16.7109375" customWidth="true"/>
-    <col min="297" max="297" width="16.7109375" customWidth="true"/>
-    <col min="298" max="298" width="16.7109375" customWidth="true"/>
-    <col min="299" max="299" width="16.7109375" customWidth="true"/>
-    <col min="300" max="300" width="16.7109375" customWidth="true"/>
-    <col min="301" max="301" width="16.7109375" customWidth="true"/>
-    <col min="302" max="302" width="16.7109375" customWidth="true"/>
-    <col min="303" max="303" width="16.7109375" customWidth="true"/>
-    <col min="304" max="304" width="16.7109375" customWidth="true"/>
-    <col min="308" max="308" width="16.7109375" customWidth="true"/>
-    <col min="309" max="309" width="15.7109375" customWidth="true"/>
-    <col min="310" max="310" width="16.7109375" customWidth="true"/>
-    <col min="311" max="311" width="2.6640625" customWidth="true"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
+    <col min="26" max="35" width="16.6640625" customWidth="1"/>
+    <col min="36" max="40" width="2.6640625" customWidth="1"/>
+    <col min="41" max="42" width="16.6640625" customWidth="1"/>
+    <col min="43" max="43" width="15.6640625" customWidth="1"/>
+    <col min="44" max="44" width="16.6640625" customWidth="1"/>
+    <col min="45" max="49" width="15.6640625" customWidth="1"/>
+    <col min="50" max="50" width="14.6640625" customWidth="1"/>
+    <col min="51" max="64" width="15.6640625" customWidth="1"/>
+    <col min="65" max="68" width="16.6640625" customWidth="1"/>
+    <col min="69" max="81" width="2.6640625" customWidth="1"/>
+    <col min="82" max="84" width="16.6640625" customWidth="1"/>
+    <col min="85" max="85" width="15.6640625" customWidth="1"/>
+    <col min="86" max="86" width="16.6640625" customWidth="1"/>
+    <col min="87" max="87" width="15.6640625" customWidth="1"/>
+    <col min="88" max="92" width="16.6640625" customWidth="1"/>
+    <col min="93" max="93" width="15.6640625" customWidth="1"/>
+    <col min="94" max="110" width="16.6640625" customWidth="1"/>
+    <col min="111" max="114" width="15.6640625" customWidth="1"/>
+    <col min="115" max="128" width="14.6640625" customWidth="1"/>
+    <col min="129" max="129" width="13.6640625" customWidth="1"/>
+    <col min="130" max="130" width="14.6640625" customWidth="1"/>
+    <col min="131" max="131" width="15.6640625" customWidth="1"/>
+    <col min="132" max="132" width="13.6640625" customWidth="1"/>
+    <col min="133" max="136" width="15.6640625" customWidth="1"/>
+    <col min="137" max="138" width="16.6640625" customWidth="1"/>
+    <col min="139" max="140" width="2.6640625" customWidth="1"/>
+    <col min="141" max="141" width="15.6640625" customWidth="1"/>
+    <col min="142" max="148" width="16.6640625" customWidth="1"/>
+    <col min="149" max="149" width="15.6640625" customWidth="1"/>
+    <col min="150" max="150" width="14.6640625" customWidth="1"/>
+    <col min="151" max="154" width="15.6640625" customWidth="1"/>
+    <col min="155" max="159" width="16.6640625" customWidth="1"/>
+    <col min="160" max="163" width="15.6640625" customWidth="1"/>
+    <col min="164" max="166" width="16.6640625" customWidth="1"/>
+    <col min="167" max="172" width="15.6640625" customWidth="1"/>
+    <col min="173" max="179" width="14.6640625" customWidth="1"/>
+    <col min="180" max="183" width="16.6640625" customWidth="1"/>
+    <col min="184" max="188" width="15.6640625" customWidth="1"/>
+    <col min="189" max="190" width="16.6640625" customWidth="1"/>
+    <col min="191" max="197" width="15.6640625" customWidth="1"/>
+    <col min="198" max="198" width="14.6640625" customWidth="1"/>
+    <col min="199" max="206" width="15.6640625" customWidth="1"/>
+    <col min="207" max="210" width="16.6640625" customWidth="1"/>
+    <col min="211" max="212" width="15.6640625" customWidth="1"/>
+    <col min="213" max="218" width="16.6640625" customWidth="1"/>
+    <col min="219" max="219" width="15.6640625" customWidth="1"/>
+    <col min="220" max="227" width="16.6640625" customWidth="1"/>
+    <col min="228" max="232" width="15.6640625" customWidth="1"/>
+    <col min="233" max="237" width="16.6640625" customWidth="1"/>
+    <col min="238" max="238" width="15.6640625" customWidth="1"/>
+    <col min="239" max="253" width="16.6640625" customWidth="1"/>
+    <col min="254" max="293" width="15.6640625" customWidth="1"/>
+    <col min="294" max="304" width="16.6640625" customWidth="1"/>
+    <col min="305" max="305" width="15.6640625" customWidth="1"/>
+    <col min="306" max="310" width="16.6640625" customWidth="1"/>
+    <col min="311" max="311" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:310" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:310" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:310" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:310" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3606,939 +3371,4668 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:310" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0">
-        <v>0.029455024203444934</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="B5">
+        <v>2.9455024203444934E-2</v>
+      </c>
+      <c r="C5">
         <v>0.73556985829792931</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>0.23497511749862568</v>
       </c>
-      <c r="E5" s="0">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>165.29770173282733</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>5.398931782602026</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>0.84571725952695997</v>
       </c>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0.99445407888438919</v>
       </c>
-      <c r="K5" s="0">
-        <v>0.00038413001779749579</v>
-      </c>
-      <c r="L5" s="0">
-        <v>0.00075341091386878928</v>
-      </c>
-      <c r="M5" s="0">
-        <v>0.0010953629816776458</v>
-      </c>
-      <c r="N5" s="0">
-        <v>0.0013998349583586552</v>
-      </c>
-      <c r="O5" s="0">
-        <v>0.0016589503170959764</v>
-      </c>
-      <c r="P5" s="0">
-        <v>0.0018670396975223684</v>
-      </c>
-      <c r="Q5" s="0">
-        <v>0.0020205583127564852</v>
-      </c>
-      <c r="R5" s="0">
-        <v>0.0021179871396274871</v>
-      </c>
-      <c r="S5" s="0">
-        <v>0.0021597166704060877</v>
-      </c>
-      <c r="T5" s="0">
-        <v>0.0021479119803661214</v>
-      </c>
-      <c r="U5" s="0">
-        <v>0.002086357846124323</v>
-      </c>
-      <c r="V5" s="0">
-        <v>0.0019802826353172991</v>
-      </c>
-      <c r="W5" s="0">
-        <v>0.0018361596791239851</v>
-      </c>
-      <c r="X5" s="0">
-        <v>0.0016614848357603248</v>
-      </c>
-      <c r="Y5" s="0">
-        <v>0.0014645289556654104</v>
-      </c>
-      <c r="Z5" s="0">
-        <v>0.0012540639679455099</v>
-      </c>
-      <c r="AA5" s="0">
-        <v>0.0010390613229941329</v>
-      </c>
-      <c r="AB5" s="0">
-        <v>0.00082836154828320151</v>
-      </c>
-      <c r="AC5" s="0">
-        <v>0.0006303137033089861</v>
-      </c>
-      <c r="AD5" s="0">
-        <v>0.0004523835557288805</v>
-      </c>
-      <c r="AE5" s="0">
-        <v>0.00030072934395725446</v>
-      </c>
-      <c r="AF5" s="0">
-        <v>0.00017974404197968656</v>
-      </c>
-      <c r="AG5" s="0">
-        <v>9.1563099934166578e-05</v>
-      </c>
-      <c r="AH5" s="0">
-        <v>3.553669909658022e-05</v>
-      </c>
-      <c r="AI5" s="0">
-        <v>7.6656322566785988e-06</v>
-      </c>
-      <c r="AJ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="0">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="0">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CX5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="0">
-        <v>0</v>
-      </c>
-      <c r="CZ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DC5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DD5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DE5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DF5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DG5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DI5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DL5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DN5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DO5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DP5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DT5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DU5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DV5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DW5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DX5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DY5" s="0">
-        <v>0</v>
-      </c>
-      <c r="DZ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EA5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EB5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EC5" s="0">
-        <v>0</v>
-      </c>
-      <c r="ED5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EE5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EF5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EG5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EH5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EI5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EJ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EK5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EL5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EM5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EN5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EO5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EP5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EQ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="ER5" s="0">
-        <v>0</v>
-      </c>
-      <c r="ES5" s="0">
-        <v>0</v>
-      </c>
-      <c r="ET5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EU5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EV5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EW5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EX5" s="0">
-        <v>0</v>
-      </c>
-      <c r="EY5" s="0">
-        <v>1.3759086040150404e-05</v>
-      </c>
-      <c r="EZ5" s="0">
-        <v>6.9386880583418374e-05</v>
-      </c>
-      <c r="FA5" s="0">
-        <v>0.0001886198152605511</v>
-      </c>
-      <c r="FB5" s="0">
-        <v>0.0003875029973973551</v>
-      </c>
-      <c r="FC5" s="0">
-        <v>0.00067703291542631444</v>
-      </c>
-      <c r="FD5" s="0">
-        <v>0.001063761532508224</v>
-      </c>
-      <c r="FE5" s="0">
-        <v>0.0015503624137274347</v>
-      </c>
-      <c r="FF5" s="0">
-        <v>0.0021361596217096741</v>
-      </c>
-      <c r="FG5" s="0">
-        <v>0.0028176201983046152</v>
-      </c>
-      <c r="FH5" s="0">
-        <v>0.0035888111259734876</v>
-      </c>
-      <c r="FI5" s="0">
-        <v>0.0044418217316669097</v>
-      </c>
-      <c r="FJ5" s="0">
-        <v>0.0053671525582461707</v>
-      </c>
-      <c r="FK5" s="0">
-        <v>0.0063540717839115262</v>
-      </c>
-      <c r="FL5" s="0">
-        <v>0.0073909403187017823</v>
-      </c>
-      <c r="FM5" s="0">
-        <v>0.0084655067490091232</v>
-      </c>
-      <c r="FN5" s="0">
-        <v>0.0095651733363279982</v>
-      </c>
-      <c r="FO5" s="0">
-        <v>0.010677234305275124</v>
-      </c>
-      <c r="FP5" s="0">
-        <v>0.011789087678454551</v>
-      </c>
-      <c r="FQ5" s="0">
-        <v>0.012888421932196477</v>
-      </c>
-      <c r="FR5" s="0">
-        <v>0.013963378757796501</v>
-      </c>
-      <c r="FS5" s="0">
-        <v>0.015002693217864679</v>
-      </c>
-      <c r="FT5" s="0">
-        <v>0.015995812587024004</v>
-      </c>
-      <c r="FU5" s="0">
-        <v>0.016932995160752518</v>
-      </c>
-      <c r="FV5" s="0">
-        <v>0.017805390305931392</v>
-      </c>
-      <c r="FW5" s="0">
-        <v>0.018605101011944344</v>
-      </c>
-      <c r="FX5" s="0">
-        <v>0.019325230182279364</v>
-      </c>
-      <c r="FY5" s="0">
-        <v>0.019959911883826491</v>
-      </c>
-      <c r="FZ5" s="0">
-        <v>0.020504328744763337</v>
-      </c>
-      <c r="GA5" s="0">
-        <v>0.020954716662391959</v>
-      </c>
-      <c r="GB5" s="0">
-        <v>0.02130835794985558</v>
-      </c>
-      <c r="GC5" s="0">
-        <v>0.021563564015637443</v>
-      </c>
-      <c r="GD5" s="0">
-        <v>0.02171964863243846</v>
-      </c>
-      <c r="GE5" s="0">
-        <v>0.021776892812751195</v>
-      </c>
-      <c r="GF5" s="0">
-        <v>0.021736502267493438</v>
-      </c>
-      <c r="GG5" s="0">
-        <v>0.021600558381724682</v>
-      </c>
-      <c r="GH5" s="0">
-        <v>0.021371963598022202</v>
-      </c>
-      <c r="GI5" s="0">
-        <v>0.021054382053809224</v>
-      </c>
-      <c r="GJ5" s="0">
-        <v>0.020652176274060834</v>
-      </c>
-      <c r="GK5" s="0">
-        <v>0.020170340675608502</v>
-      </c>
-      <c r="GL5" s="0">
-        <v>0.019614432593950064</v>
-      </c>
-      <c r="GM5" s="0">
-        <v>0.018990501498264659</v>
-      </c>
-      <c r="GN5" s="0">
-        <v>0.018305017015432912</v>
-      </c>
-      <c r="GO5" s="0">
-        <v>0.017564796339458337</v>
-      </c>
-      <c r="GP5" s="0">
-        <v>0.016776931558947682</v>
-      </c>
-      <c r="GQ5" s="0">
-        <v>0.01594871739239339</v>
-      </c>
-      <c r="GR5" s="0">
-        <v>0.015087579779051353</v>
-      </c>
-      <c r="GS5" s="0">
-        <v>0.014201005732351182</v>
-      </c>
-      <c r="GT5" s="0">
-        <v>0.013296474823125449</v>
-      </c>
-      <c r="GU5" s="0">
-        <v>0.012381392621598934</v>
-      </c>
-      <c r="GV5" s="0">
-        <v>0.011463026390123846</v>
-      </c>
-      <c r="GW5" s="0">
-        <v>0.010548443283154825</v>
-      </c>
-      <c r="GX5" s="0">
-        <v>0.0096444512769879535</v>
-      </c>
-      <c r="GY5" s="0">
-        <v>0.0087575430193883134</v>
-      </c>
-      <c r="GZ5" s="0">
-        <v>0.0078938427584370387</v>
-      </c>
-      <c r="HA5" s="0">
-        <v>0.0070590564807667695</v>
-      </c>
-      <c r="HB5" s="0">
-        <v>0.0062584253618387983</v>
-      </c>
-      <c r="HC5" s="0">
-        <v>0.0054966826050517744</v>
-      </c>
-      <c r="HD5" s="0">
-        <v>0.0047780137222571207</v>
-      </c>
-      <c r="HE5" s="0">
-        <v>0.0041060202856793831</v>
-      </c>
-      <c r="HF5" s="0">
-        <v>0.0034836871602811409</v>
-      </c>
-      <c r="HG5" s="0">
-        <v>0.0029133532062470559</v>
-      </c>
-      <c r="HH5" s="0">
-        <v>0.0023966854234578764</v>
-      </c>
-      <c r="HI5" s="0">
-        <v>0.001934656493545805</v>
-      </c>
-      <c r="HJ5" s="0">
-        <v>0.0015275256603258947</v>
-      </c>
-      <c r="HK5" s="0">
-        <v>0.0011748228760376264</v>
-      </c>
-      <c r="HL5" s="0">
-        <v>0.00087533612885728996</v>
-      </c>
-      <c r="HM5" s="0">
-        <v>0.00062710185650211145</v>
-      </c>
-      <c r="HN5" s="0">
-        <v>0.00042739834138633273</v>
-      </c>
-      <c r="HO5" s="0">
-        <v>0.00027274197465037837</v>
-      </c>
-      <c r="HP5" s="0">
-        <v>0.00015888626940823586</v>
-      </c>
-      <c r="HQ5" s="0">
-        <v>8.0823497685264726e-05</v>
-      </c>
-      <c r="HR5" s="0">
-        <v>3.2788820688848096e-05</v>
-      </c>
-      <c r="HS5" s="0">
-        <v>8.2667782064793276e-06</v>
-      </c>
-      <c r="HT5" s="0">
-        <v>0</v>
-      </c>
-      <c r="HU5" s="0">
-        <v>0</v>
-      </c>
-      <c r="HV5" s="0">
-        <v>0</v>
-      </c>
-      <c r="HW5" s="0">
-        <v>0</v>
-      </c>
-      <c r="HX5" s="0">
-        <v>0</v>
-      </c>
-      <c r="HY5" s="0">
-        <v>0</v>
-      </c>
-      <c r="HZ5" s="0">
-        <v>0</v>
-      </c>
-      <c r="IA5" s="0">
-        <v>0</v>
-      </c>
-      <c r="IB5" s="0">
-        <v>0</v>
-      </c>
-      <c r="IC5" s="0">
-        <v>0</v>
-      </c>
-      <c r="ID5" s="0">
-        <v>0</v>
-      </c>
-      <c r="IE5" s="0">
-        <v>1.577528657749444e-06</v>
-      </c>
-      <c r="IF5" s="0">
-        <v>8.1060241727051532e-06</v>
-      </c>
-      <c r="IG5" s="0">
-        <v>2.2469363701605926e-05</v>
-      </c>
-      <c r="IH5" s="0">
-        <v>4.7087343794527804e-05</v>
-      </c>
-      <c r="II5" s="0">
-        <v>8.3941427447037904e-05</v>
-      </c>
-      <c r="IJ5" s="0">
-        <v>0.00013460065398437717</v>
-      </c>
-      <c r="IK5" s="0">
-        <v>0.00020024761268270161</v>
-      </c>
-      <c r="IL5" s="0">
-        <v>0.00028170438580341322</v>
-      </c>
-      <c r="IM5" s="0">
-        <v>0.00037945837154273429</v>
-      </c>
-      <c r="IN5" s="0">
-        <v>0.00049368790225474263</v>
-      </c>
-      <c r="IO5" s="0">
-        <v>0.00062428757816893521</v>
-      </c>
-      <c r="IP5" s="0">
-        <v>0.00077089324167138118</v>
-      </c>
-      <c r="IQ5" s="0">
-        <v>0.00093290652203339443</v>
-      </c>
-      <c r="IR5" s="0">
-        <v>0.001109518885234732</v>
-      </c>
-      <c r="IS5" s="0">
-        <v>0.0012997351282242619</v>
-      </c>
-      <c r="IT5" s="0">
-        <v>0.0015023962615759144</v>
-      </c>
-      <c r="IU5" s="0">
-        <v>0.0017162017290185602</v>
-      </c>
-      <c r="IV5" s="0">
-        <v>0.0019397309167340706</v>
-      </c>
-      <c r="IW5" s="0">
-        <v>0.0021714639096188956</v>
-      </c>
-      <c r="IX5" s="0">
-        <v>0.0024098014558821042</v>
-      </c>
-      <c r="IY5" s="0">
-        <v>0.0026530841054005026</v>
-      </c>
-      <c r="IZ5" s="0">
-        <v>0.0028996104911622623</v>
-      </c>
-      <c r="JA5" s="0">
-        <v>0.0031476547269005534</v>
-      </c>
-      <c r="JB5" s="0">
-        <v>0.0033954828976435559</v>
-      </c>
-      <c r="JC5" s="0">
-        <v>0.0036413686233835747</v>
-      </c>
-      <c r="JD5" s="0">
-        <v>0.0038836076793950574</v>
-      </c>
-      <c r="JE5" s="0">
-        <v>0.0041205316599061742</v>
-      </c>
-      <c r="JF5" s="0">
-        <v>0.0043505206748524882</v>
-      </c>
-      <c r="JG5" s="0">
-        <v>0.0045720150723123796</v>
-      </c>
-      <c r="JH5" s="0">
-        <v>0.0047835261819447117</v>
-      </c>
-      <c r="JI5" s="0">
-        <v>0.0049836460773202002</v>
-      </c>
-      <c r="JJ5" s="0">
-        <v>0.0051710563574608763</v>
-      </c>
-      <c r="JK5" s="0">
-        <v>0.0053445359501794656</v>
-      </c>
-      <c r="JL5" s="0">
-        <v>0.0055029679419449362</v>
-      </c>
-      <c r="JM5" s="0">
-        <v>0.0056453454409946717</v>
-      </c>
-      <c r="JN5" s="0">
-        <v>0.0057707764822714919</v>
-      </c>
-      <c r="JO5" s="0">
-        <v>0.0058784879844881793</v>
-      </c>
-      <c r="JP5" s="0">
-        <v>0.0059678287712172911</v>
-      </c>
-      <c r="JQ5" s="0">
-        <v>0.0060382716693736021</v>
-      </c>
-      <c r="JR5" s="0">
-        <v>0.0060894146998047823</v>
-      </c>
-      <c r="JS5" s="0">
-        <v>0.0061209813759371574</v>
-      </c>
-      <c r="JT5" s="0">
-        <v>0.0061328201275421476</v>
-      </c>
-      <c r="JU5" s="0">
-        <v>0.0061249028676986219</v>
-      </c>
-      <c r="JV5" s="0">
-        <v>0.0060973227219329748</v>
-      </c>
-      <c r="JW5" s="0">
-        <v>0.0060502909393253075</v>
-      </c>
-      <c r="JX5" s="0">
-        <v>0.0059841330060818347</v>
-      </c>
-      <c r="JY5" s="0">
-        <v>0.005899283982694961</v>
-      </c>
-      <c r="JZ5" s="0">
-        <v>0.0057962830863473079</v>
-      </c>
-      <c r="KA5" s="0">
-        <v>0.0056757675406694632</v>
-      </c>
-      <c r="KB5" s="0">
-        <v>0.0055384657153368221</v>
-      </c>
-      <c r="KC5" s="0">
-        <v>0.0053851895782933553</v>
-      </c>
-      <c r="KD5" s="0">
-        <v>0.0052168264836238189</v>
-      </c>
-      <c r="KE5" s="0">
-        <v>0.0050343303182638155</v>
-      </c>
-      <c r="KF5" s="0">
-        <v>0.0048387120308447974</v>
-      </c>
-      <c r="KG5" s="0">
-        <v>0.0046310295660204927</v>
-      </c>
-      <c r="KH5" s="0">
-        <v>0.004412377227618015</v>
-      </c>
-      <c r="KI5" s="0">
-        <v>0.0041838744939032921</v>
-      </c>
-      <c r="KJ5" s="0">
-        <v>0.0039466543081501833</v>
-      </c>
-      <c r="KK5" s="0">
-        <v>0.0037018508675599211</v>
-      </c>
-      <c r="KL5" s="0">
-        <v>0.0034505869333943213</v>
-      </c>
-      <c r="KM5" s="0">
-        <v>0.0031939606849669595</v>
-      </c>
-      <c r="KN5" s="0">
-        <v>0.00293303213988304</v>
-      </c>
-      <c r="KO5" s="0">
-        <v>0.0026688091626346005</v>
-      </c>
-      <c r="KP5" s="0">
-        <v>0.0024022330833455997</v>
-      </c>
-      <c r="KQ5" s="0">
-        <v>0.0021341639481237697</v>
-      </c>
-      <c r="KR5" s="0">
-        <v>0.0018653654221157758</v>
-      </c>
-      <c r="KS5" s="0">
-        <v>0.0015964893659806965</v>
-      </c>
-      <c r="KT5" s="0">
-        <v>0.0013280601060977437</v>
-      </c>
-      <c r="KU5" s="0">
-        <v>0.0010604584184084221</v>
-      </c>
-      <c r="KV5" s="0">
-        <v>0.00079390524536340355</v>
-      </c>
-      <c r="KW5" s="0">
-        <v>0.0005284451650026359</v>
-      </c>
-      <c r="KX5" s="0">
-        <v>0.00026392963074465387</v>
+      <c r="K5">
+        <v>3.8413001779749579E-4</v>
+      </c>
+      <c r="L5">
+        <v>7.5341091386878928E-4</v>
+      </c>
+      <c r="M5">
+        <v>1.0953629816776458E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.3998349583586552E-3</v>
+      </c>
+      <c r="O5">
+        <v>1.6589503170959764E-3</v>
+      </c>
+      <c r="P5">
+        <v>1.8670396975223684E-3</v>
+      </c>
+      <c r="Q5">
+        <v>2.0205583127564852E-3</v>
+      </c>
+      <c r="R5">
+        <v>2.1179871396274871E-3</v>
+      </c>
+      <c r="S5">
+        <v>2.1597166704060877E-3</v>
+      </c>
+      <c r="T5">
+        <v>2.1479119803661214E-3</v>
+      </c>
+      <c r="U5">
+        <v>2.086357846124323E-3</v>
+      </c>
+      <c r="V5">
+        <v>1.9802826353172991E-3</v>
+      </c>
+      <c r="W5">
+        <v>1.8361596791239851E-3</v>
+      </c>
+      <c r="X5">
+        <v>1.6614848357603248E-3</v>
+      </c>
+      <c r="Y5">
+        <v>1.4645289556654104E-3</v>
+      </c>
+      <c r="Z5">
+        <v>1.2540639679455099E-3</v>
+      </c>
+      <c r="AA5">
+        <v>1.0390613229941329E-3</v>
+      </c>
+      <c r="AB5">
+        <v>8.2836154828320151E-4</v>
+      </c>
+      <c r="AC5">
+        <v>6.303137033089861E-4</v>
+      </c>
+      <c r="AD5">
+        <v>4.523835557288805E-4</v>
+      </c>
+      <c r="AE5">
+        <v>3.0072934395725446E-4</v>
+      </c>
+      <c r="AF5">
+        <v>1.7974404197968656E-4</v>
+      </c>
+      <c r="AG5">
+        <v>9.1563099934166578E-5</v>
+      </c>
+      <c r="AH5">
+        <v>3.553669909658022E-5</v>
+      </c>
+      <c r="AI5">
+        <v>7.6656322566785988E-6</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5">
+        <v>0</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DV5">
+        <v>0</v>
+      </c>
+      <c r="DW5">
+        <v>0</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DY5">
+        <v>0</v>
+      </c>
+      <c r="DZ5">
+        <v>0</v>
+      </c>
+      <c r="EA5">
+        <v>0</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EG5">
+        <v>0</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
+      </c>
+      <c r="EJ5">
+        <v>0</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
+      <c r="EL5">
+        <v>0</v>
+      </c>
+      <c r="EM5">
+        <v>0</v>
+      </c>
+      <c r="EN5">
+        <v>0</v>
+      </c>
+      <c r="EO5">
+        <v>0</v>
+      </c>
+      <c r="EP5">
+        <v>0</v>
+      </c>
+      <c r="EQ5">
+        <v>0</v>
+      </c>
+      <c r="ER5">
+        <v>0</v>
+      </c>
+      <c r="ES5">
+        <v>0</v>
+      </c>
+      <c r="ET5">
+        <v>0</v>
+      </c>
+      <c r="EU5">
+        <v>0</v>
+      </c>
+      <c r="EV5">
+        <v>0</v>
+      </c>
+      <c r="EW5">
+        <v>0</v>
+      </c>
+      <c r="EX5">
+        <v>0</v>
+      </c>
+      <c r="EY5">
+        <v>1.3759086040150404E-5</v>
+      </c>
+      <c r="EZ5">
+        <v>6.9386880583418374E-5</v>
+      </c>
+      <c r="FA5">
+        <v>1.886198152605511E-4</v>
+      </c>
+      <c r="FB5">
+        <v>3.875029973973551E-4</v>
+      </c>
+      <c r="FC5">
+        <v>6.7703291542631444E-4</v>
+      </c>
+      <c r="FD5">
+        <v>1.063761532508224E-3</v>
+      </c>
+      <c r="FE5">
+        <v>1.5503624137274347E-3</v>
+      </c>
+      <c r="FF5">
+        <v>2.1361596217096741E-3</v>
+      </c>
+      <c r="FG5">
+        <v>2.8176201983046152E-3</v>
+      </c>
+      <c r="FH5">
+        <v>3.5888111259734876E-3</v>
+      </c>
+      <c r="FI5">
+        <v>4.4418217316669097E-3</v>
+      </c>
+      <c r="FJ5">
+        <v>5.3671525582461707E-3</v>
+      </c>
+      <c r="FK5">
+        <v>6.3540717839115262E-3</v>
+      </c>
+      <c r="FL5">
+        <v>7.3909403187017823E-3</v>
+      </c>
+      <c r="FM5">
+        <v>8.4655067490091232E-3</v>
+      </c>
+      <c r="FN5">
+        <v>9.5651733363279982E-3</v>
+      </c>
+      <c r="FO5">
+        <v>1.0677234305275124E-2</v>
+      </c>
+      <c r="FP5">
+        <v>1.1789087678454551E-2</v>
+      </c>
+      <c r="FQ5">
+        <v>1.2888421932196477E-2</v>
+      </c>
+      <c r="FR5">
+        <v>1.3963378757796501E-2</v>
+      </c>
+      <c r="FS5">
+        <v>1.5002693217864679E-2</v>
+      </c>
+      <c r="FT5">
+        <v>1.5995812587024004E-2</v>
+      </c>
+      <c r="FU5">
+        <v>1.6932995160752518E-2</v>
+      </c>
+      <c r="FV5">
+        <v>1.7805390305931392E-2</v>
+      </c>
+      <c r="FW5">
+        <v>1.8605101011944344E-2</v>
+      </c>
+      <c r="FX5">
+        <v>1.9325230182279364E-2</v>
+      </c>
+      <c r="FY5">
+        <v>1.9959911883826491E-2</v>
+      </c>
+      <c r="FZ5">
+        <v>2.0504328744763337E-2</v>
+      </c>
+      <c r="GA5">
+        <v>2.0954716662391959E-2</v>
+      </c>
+      <c r="GB5">
+        <v>2.130835794985558E-2</v>
+      </c>
+      <c r="GC5">
+        <v>2.1563564015637443E-2</v>
+      </c>
+      <c r="GD5">
+        <v>2.171964863243846E-2</v>
+      </c>
+      <c r="GE5">
+        <v>2.1776892812751195E-2</v>
+      </c>
+      <c r="GF5">
+        <v>2.1736502267493438E-2</v>
+      </c>
+      <c r="GG5">
+        <v>2.1600558381724682E-2</v>
+      </c>
+      <c r="GH5">
+        <v>2.1371963598022202E-2</v>
+      </c>
+      <c r="GI5">
+        <v>2.1054382053809224E-2</v>
+      </c>
+      <c r="GJ5">
+        <v>2.0652176274060834E-2</v>
+      </c>
+      <c r="GK5">
+        <v>2.0170340675608502E-2</v>
+      </c>
+      <c r="GL5">
+        <v>1.9614432593950064E-2</v>
+      </c>
+      <c r="GM5">
+        <v>1.8990501498264659E-2</v>
+      </c>
+      <c r="GN5">
+        <v>1.8305017015432912E-2</v>
+      </c>
+      <c r="GO5">
+        <v>1.7564796339458337E-2</v>
+      </c>
+      <c r="GP5">
+        <v>1.6776931558947682E-2</v>
+      </c>
+      <c r="GQ5">
+        <v>1.594871739239339E-2</v>
+      </c>
+      <c r="GR5">
+        <v>1.5087579779051353E-2</v>
+      </c>
+      <c r="GS5">
+        <v>1.4201005732351182E-2</v>
+      </c>
+      <c r="GT5">
+        <v>1.3296474823125449E-2</v>
+      </c>
+      <c r="GU5">
+        <v>1.2381392621598934E-2</v>
+      </c>
+      <c r="GV5">
+        <v>1.1463026390123846E-2</v>
+      </c>
+      <c r="GW5">
+        <v>1.0548443283154825E-2</v>
+      </c>
+      <c r="GX5">
+        <v>9.6444512769879535E-3</v>
+      </c>
+      <c r="GY5">
+        <v>8.7575430193883134E-3</v>
+      </c>
+      <c r="GZ5">
+        <v>7.8938427584370387E-3</v>
+      </c>
+      <c r="HA5">
+        <v>7.0590564807667695E-3</v>
+      </c>
+      <c r="HB5">
+        <v>6.2584253618387983E-3</v>
+      </c>
+      <c r="HC5">
+        <v>5.4966826050517744E-3</v>
+      </c>
+      <c r="HD5">
+        <v>4.7780137222571207E-3</v>
+      </c>
+      <c r="HE5">
+        <v>4.1060202856793831E-3</v>
+      </c>
+      <c r="HF5">
+        <v>3.4836871602811409E-3</v>
+      </c>
+      <c r="HG5">
+        <v>2.9133532062470559E-3</v>
+      </c>
+      <c r="HH5">
+        <v>2.3966854234578764E-3</v>
+      </c>
+      <c r="HI5">
+        <v>1.934656493545805E-3</v>
+      </c>
+      <c r="HJ5">
+        <v>1.5275256603258947E-3</v>
+      </c>
+      <c r="HK5">
+        <v>1.1748228760376264E-3</v>
+      </c>
+      <c r="HL5">
+        <v>8.7533612885728996E-4</v>
+      </c>
+      <c r="HM5">
+        <v>6.2710185650211145E-4</v>
+      </c>
+      <c r="HN5">
+        <v>4.2739834138633273E-4</v>
+      </c>
+      <c r="HO5">
+        <v>2.7274197465037837E-4</v>
+      </c>
+      <c r="HP5">
+        <v>1.5888626940823586E-4</v>
+      </c>
+      <c r="HQ5">
+        <v>8.0823497685264726E-5</v>
+      </c>
+      <c r="HR5">
+        <v>3.2788820688848096E-5</v>
+      </c>
+      <c r="HS5">
+        <v>8.2667782064793276E-6</v>
+      </c>
+      <c r="HT5">
+        <v>0</v>
+      </c>
+      <c r="HU5">
+        <v>0</v>
+      </c>
+      <c r="HV5">
+        <v>0</v>
+      </c>
+      <c r="HW5">
+        <v>0</v>
+      </c>
+      <c r="HX5">
+        <v>0</v>
+      </c>
+      <c r="HY5">
+        <v>0</v>
+      </c>
+      <c r="HZ5">
+        <v>0</v>
+      </c>
+      <c r="IA5">
+        <v>0</v>
+      </c>
+      <c r="IB5">
+        <v>0</v>
+      </c>
+      <c r="IC5">
+        <v>0</v>
+      </c>
+      <c r="ID5">
+        <v>0</v>
+      </c>
+      <c r="IE5">
+        <v>1.577528657749444E-6</v>
+      </c>
+      <c r="IF5">
+        <v>8.1060241727051532E-6</v>
+      </c>
+      <c r="IG5">
+        <v>2.2469363701605926E-5</v>
+      </c>
+      <c r="IH5">
+        <v>4.7087343794527804E-5</v>
+      </c>
+      <c r="II5">
+        <v>8.3941427447037904E-5</v>
+      </c>
+      <c r="IJ5">
+        <v>1.3460065398437717E-4</v>
+      </c>
+      <c r="IK5">
+        <v>2.0024761268270161E-4</v>
+      </c>
+      <c r="IL5">
+        <v>2.8170438580341322E-4</v>
+      </c>
+      <c r="IM5">
+        <v>3.7945837154273429E-4</v>
+      </c>
+      <c r="IN5">
+        <v>4.9368790225474263E-4</v>
+      </c>
+      <c r="IO5">
+        <v>6.2428757816893521E-4</v>
+      </c>
+      <c r="IP5">
+        <v>7.7089324167138118E-4</v>
+      </c>
+      <c r="IQ5">
+        <v>9.3290652203339443E-4</v>
+      </c>
+      <c r="IR5">
+        <v>1.109518885234732E-3</v>
+      </c>
+      <c r="IS5">
+        <v>1.2997351282242619E-3</v>
+      </c>
+      <c r="IT5">
+        <v>1.5023962615759144E-3</v>
+      </c>
+      <c r="IU5">
+        <v>1.7162017290185602E-3</v>
+      </c>
+      <c r="IV5">
+        <v>1.9397309167340706E-3</v>
+      </c>
+      <c r="IW5">
+        <v>2.1714639096188956E-3</v>
+      </c>
+      <c r="IX5">
+        <v>2.4098014558821042E-3</v>
+      </c>
+      <c r="IY5">
+        <v>2.6530841054005026E-3</v>
+      </c>
+      <c r="IZ5">
+        <v>2.8996104911622623E-3</v>
+      </c>
+      <c r="JA5">
+        <v>3.1476547269005534E-3</v>
+      </c>
+      <c r="JB5">
+        <v>3.3954828976435559E-3</v>
+      </c>
+      <c r="JC5">
+        <v>3.6413686233835747E-3</v>
+      </c>
+      <c r="JD5">
+        <v>3.8836076793950574E-3</v>
+      </c>
+      <c r="JE5">
+        <v>4.1205316599061742E-3</v>
+      </c>
+      <c r="JF5">
+        <v>4.3505206748524882E-3</v>
+      </c>
+      <c r="JG5">
+        <v>4.5720150723123796E-3</v>
+      </c>
+      <c r="JH5">
+        <v>4.7835261819447117E-3</v>
+      </c>
+      <c r="JI5">
+        <v>4.9836460773202002E-3</v>
+      </c>
+      <c r="JJ5">
+        <v>5.1710563574608763E-3</v>
+      </c>
+      <c r="JK5">
+        <v>5.3445359501794656E-3</v>
+      </c>
+      <c r="JL5">
+        <v>5.5029679419449362E-3</v>
+      </c>
+      <c r="JM5">
+        <v>5.6453454409946717E-3</v>
+      </c>
+      <c r="JN5">
+        <v>5.7707764822714919E-3</v>
+      </c>
+      <c r="JO5">
+        <v>5.8784879844881793E-3</v>
+      </c>
+      <c r="JP5">
+        <v>5.9678287712172911E-3</v>
+      </c>
+      <c r="JQ5">
+        <v>6.0382716693736021E-3</v>
+      </c>
+      <c r="JR5">
+        <v>6.0894146998047823E-3</v>
+      </c>
+      <c r="JS5">
+        <v>6.1209813759371574E-3</v>
+      </c>
+      <c r="JT5">
+        <v>6.1328201275421476E-3</v>
+      </c>
+      <c r="JU5">
+        <v>6.1249028676986219E-3</v>
+      </c>
+      <c r="JV5">
+        <v>6.0973227219329748E-3</v>
+      </c>
+      <c r="JW5">
+        <v>6.0502909393253075E-3</v>
+      </c>
+      <c r="JX5">
+        <v>5.9841330060818347E-3</v>
+      </c>
+      <c r="JY5">
+        <v>5.899283982694961E-3</v>
+      </c>
+      <c r="JZ5">
+        <v>5.7962830863473079E-3</v>
+      </c>
+      <c r="KA5">
+        <v>5.6757675406694632E-3</v>
+      </c>
+      <c r="KB5">
+        <v>5.5384657153368221E-3</v>
+      </c>
+      <c r="KC5">
+        <v>5.3851895782933553E-3</v>
+      </c>
+      <c r="KD5">
+        <v>5.2168264836238189E-3</v>
+      </c>
+      <c r="KE5">
+        <v>5.0343303182638155E-3</v>
+      </c>
+      <c r="KF5">
+        <v>4.8387120308447974E-3</v>
+      </c>
+      <c r="KG5">
+        <v>4.6310295660204927E-3</v>
+      </c>
+      <c r="KH5">
+        <v>4.412377227618015E-3</v>
+      </c>
+      <c r="KI5">
+        <v>4.1838744939032921E-3</v>
+      </c>
+      <c r="KJ5">
+        <v>3.9466543081501833E-3</v>
+      </c>
+      <c r="KK5">
+        <v>3.7018508675599211E-3</v>
+      </c>
+      <c r="KL5">
+        <v>3.4505869333943213E-3</v>
+      </c>
+      <c r="KM5">
+        <v>3.1939606849669595E-3</v>
+      </c>
+      <c r="KN5">
+        <v>2.93303213988304E-3</v>
+      </c>
+      <c r="KO5">
+        <v>2.6688091626346005E-3</v>
+      </c>
+      <c r="KP5">
+        <v>2.4022330833455997E-3</v>
+      </c>
+      <c r="KQ5">
+        <v>2.1341639481237697E-3</v>
+      </c>
+      <c r="KR5">
+        <v>1.8653654221157758E-3</v>
+      </c>
+      <c r="KS5">
+        <v>1.5964893659806965E-3</v>
+      </c>
+      <c r="KT5">
+        <v>1.3280601060977437E-3</v>
+      </c>
+      <c r="KU5">
+        <v>1.0604584184084221E-3</v>
+      </c>
+      <c r="KV5">
+        <v>7.9390524536340355E-4</v>
+      </c>
+      <c r="KW5">
+        <v>5.284451650026359E-4</v>
+      </c>
+      <c r="KX5">
+        <v>2.6392963074465387E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:310" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.12653426553159378</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.86785810727788415</v>
+      </c>
+      <c r="E6">
+        <v>5.6076271905219303E-3</v>
+      </c>
+      <c r="F6">
+        <v>181.15642447513716</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.698815731574522</v>
+      </c>
+      <c r="I6">
+        <v>0.4915842196877841</v>
+      </c>
+      <c r="J6">
+        <v>0.98915258714597054</v>
+      </c>
+      <c r="K6">
+        <v>5.2467164137305154E-3</v>
+      </c>
+      <c r="L6">
+        <v>9.8260016221973778E-3</v>
+      </c>
+      <c r="M6">
+        <v>1.3309912175412135E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.547886919484971E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.6289907623339168E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.5844311339733363E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.4354648432213421E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.2111221775464271E-2</v>
+      </c>
+      <c r="S6">
+        <v>9.4479508977746759E-3</v>
+      </c>
+      <c r="T6">
+        <v>6.7077019552551241E-3</v>
+      </c>
+      <c r="U6">
+        <v>4.207083452738662E-3</v>
+      </c>
+      <c r="V6">
+        <v>2.2007261654316003E-3</v>
+      </c>
+      <c r="W6">
+        <v>8.4506652287045744E-4</v>
+      </c>
+      <c r="X6">
+        <v>1.6165351800942208E-4</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="DW6">
+        <v>0</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6">
+        <v>0</v>
+      </c>
+      <c r="DZ6">
+        <v>0</v>
+      </c>
+      <c r="EA6">
+        <v>0</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>0</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6">
+        <v>0</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="EM6">
+        <v>0</v>
+      </c>
+      <c r="EN6">
+        <v>0</v>
+      </c>
+      <c r="EO6">
+        <v>0</v>
+      </c>
+      <c r="EP6">
+        <v>0</v>
+      </c>
+      <c r="EQ6">
+        <v>0</v>
+      </c>
+      <c r="ER6">
+        <v>0</v>
+      </c>
+      <c r="ES6">
+        <v>0</v>
+      </c>
+      <c r="ET6">
+        <v>0</v>
+      </c>
+      <c r="EU6">
+        <v>0</v>
+      </c>
+      <c r="EV6">
+        <v>0</v>
+      </c>
+      <c r="EW6">
+        <v>0</v>
+      </c>
+      <c r="EX6">
+        <v>0</v>
+      </c>
+      <c r="EY6">
+        <v>0</v>
+      </c>
+      <c r="EZ6">
+        <v>0</v>
+      </c>
+      <c r="FA6">
+        <v>0</v>
+      </c>
+      <c r="FB6">
+        <v>0</v>
+      </c>
+      <c r="FC6">
+        <v>0</v>
+      </c>
+      <c r="FD6">
+        <v>0</v>
+      </c>
+      <c r="FE6">
+        <v>0</v>
+      </c>
+      <c r="FF6">
+        <v>0</v>
+      </c>
+      <c r="FG6">
+        <v>0</v>
+      </c>
+      <c r="FH6">
+        <v>0</v>
+      </c>
+      <c r="FI6">
+        <v>0</v>
+      </c>
+      <c r="FJ6">
+        <v>0</v>
+      </c>
+      <c r="FK6">
+        <v>0</v>
+      </c>
+      <c r="FL6">
+        <v>0</v>
+      </c>
+      <c r="FM6">
+        <v>0</v>
+      </c>
+      <c r="FN6">
+        <v>0</v>
+      </c>
+      <c r="FO6">
+        <v>0</v>
+      </c>
+      <c r="FP6">
+        <v>0</v>
+      </c>
+      <c r="FQ6">
+        <v>0</v>
+      </c>
+      <c r="FR6">
+        <v>0</v>
+      </c>
+      <c r="FS6">
+        <v>0</v>
+      </c>
+      <c r="FT6">
+        <v>0</v>
+      </c>
+      <c r="FU6">
+        <v>0</v>
+      </c>
+      <c r="FV6">
+        <v>0</v>
+      </c>
+      <c r="FW6">
+        <v>0</v>
+      </c>
+      <c r="FX6">
+        <v>0</v>
+      </c>
+      <c r="FY6">
+        <v>0</v>
+      </c>
+      <c r="FZ6">
+        <v>0</v>
+      </c>
+      <c r="GA6">
+        <v>0</v>
+      </c>
+      <c r="GB6">
+        <v>0</v>
+      </c>
+      <c r="GC6">
+        <v>0</v>
+      </c>
+      <c r="GD6">
+        <v>0</v>
+      </c>
+      <c r="GE6">
+        <v>0</v>
+      </c>
+      <c r="GF6">
+        <v>0</v>
+      </c>
+      <c r="GG6">
+        <v>2.3624200264699808E-4</v>
+      </c>
+      <c r="GH6">
+        <v>8.9807323571632265E-4</v>
+      </c>
+      <c r="GI6">
+        <v>2.0987553705605275E-3</v>
+      </c>
+      <c r="GJ6">
+        <v>3.8876100247739773E-3</v>
+      </c>
+      <c r="GK6">
+        <v>6.2612698547774969E-3</v>
+      </c>
+      <c r="GL6">
+        <v>9.1740469977235062E-3</v>
+      </c>
+      <c r="GM6">
+        <v>1.2547432578868204E-2</v>
+      </c>
+      <c r="GN6">
+        <v>1.6278742856436216E-2</v>
+      </c>
+      <c r="GO6">
+        <v>2.0248929326169514E-2</v>
+      </c>
+      <c r="GP6">
+        <v>2.4329571748092752E-2</v>
+      </c>
+      <c r="GQ6">
+        <v>2.838907458521648E-2</v>
+      </c>
+      <c r="GR6">
+        <v>3.2298088755334471E-2</v>
+      </c>
+      <c r="GS6">
+        <v>3.5934181890883599E-2</v>
+      </c>
+      <c r="GT6">
+        <v>3.9185781476851915E-2</v>
+      </c>
+      <c r="GU6">
+        <v>4.1955416292443981E-2</v>
+      </c>
+      <c r="GV6">
+        <v>4.4162282518785699E-2</v>
+      </c>
+      <c r="GW6">
+        <v>4.5744161693122336E-2</v>
+      </c>
+      <c r="GX6">
+        <v>4.6658718391056432E-2</v>
+      </c>
+      <c r="GY6">
+        <v>4.6884206104242078E-2</v>
+      </c>
+      <c r="GZ6">
+        <v>4.6419610253949146E-2</v>
+      </c>
+      <c r="HA6">
+        <v>4.5284257643830282E-2</v>
+      </c>
+      <c r="HB6">
+        <v>4.3516921911286172E-2</v>
+      </c>
+      <c r="HC6">
+        <v>4.1174454689606781E-2</v>
+      </c>
+      <c r="HD6">
+        <v>3.8329972246475212E-2</v>
+      </c>
+      <c r="HE6">
+        <v>3.5070627322656762E-2</v>
+      </c>
+      <c r="HF6">
+        <v>3.1494995762193514E-2</v>
+      </c>
+      <c r="HG6">
+        <v>2.7710107306832963E-2</v>
+      </c>
+      <c r="HH6">
+        <v>2.3828149627547517E-2</v>
+      </c>
+      <c r="HI6">
+        <v>1.9962874289790225E-2</v>
+      </c>
+      <c r="HJ6">
+        <v>1.6225732901620805E-2</v>
+      </c>
+      <c r="HK6">
+        <v>1.2721771180115268E-2</v>
+      </c>
+      <c r="HL6">
+        <v>9.5453080966700753E-3</v>
+      </c>
+      <c r="HM6">
+        <v>6.775426631043956E-3</v>
+      </c>
+      <c r="HN6">
+        <v>4.4713019823489231E-3</v>
+      </c>
+      <c r="HO6">
+        <v>2.6673923577319328E-3</v>
+      </c>
+      <c r="HP6">
+        <v>1.368516691147435E-3</v>
+      </c>
+      <c r="HQ6">
+        <v>5.4484284026004364E-4</v>
+      </c>
+      <c r="HR6">
+        <v>1.2680897387827035E-4</v>
+      </c>
+      <c r="HS6">
+        <v>0</v>
+      </c>
+      <c r="HT6">
+        <v>0</v>
+      </c>
+      <c r="HU6">
+        <v>0</v>
+      </c>
+      <c r="HV6">
+        <v>0</v>
+      </c>
+      <c r="HW6">
+        <v>0</v>
+      </c>
+      <c r="HX6">
+        <v>0</v>
+      </c>
+      <c r="HY6">
+        <v>0</v>
+      </c>
+      <c r="HZ6">
+        <v>0</v>
+      </c>
+      <c r="IA6">
+        <v>0</v>
+      </c>
+      <c r="IB6">
+        <v>0</v>
+      </c>
+      <c r="IC6">
+        <v>0</v>
+      </c>
+      <c r="ID6">
+        <v>0</v>
+      </c>
+      <c r="IE6">
+        <v>0</v>
+      </c>
+      <c r="IF6">
+        <v>0</v>
+      </c>
+      <c r="IG6">
+        <v>0</v>
+      </c>
+      <c r="IH6">
+        <v>0</v>
+      </c>
+      <c r="II6">
+        <v>0</v>
+      </c>
+      <c r="IJ6">
+        <v>0</v>
+      </c>
+      <c r="IK6">
+        <v>0</v>
+      </c>
+      <c r="IL6">
+        <v>0</v>
+      </c>
+      <c r="IM6">
+        <v>0</v>
+      </c>
+      <c r="IN6">
+        <v>0</v>
+      </c>
+      <c r="IO6">
+        <v>0</v>
+      </c>
+      <c r="IP6">
+        <v>0</v>
+      </c>
+      <c r="IQ6">
+        <v>0</v>
+      </c>
+      <c r="IR6">
+        <v>0</v>
+      </c>
+      <c r="IS6">
+        <v>0</v>
+      </c>
+      <c r="IT6">
+        <v>0</v>
+      </c>
+      <c r="IU6">
+        <v>0</v>
+      </c>
+      <c r="IV6">
+        <v>0</v>
+      </c>
+      <c r="IW6">
+        <v>0</v>
+      </c>
+      <c r="IX6">
+        <v>0</v>
+      </c>
+      <c r="IY6">
+        <v>0</v>
+      </c>
+      <c r="IZ6">
+        <v>0</v>
+      </c>
+      <c r="JA6">
+        <v>0</v>
+      </c>
+      <c r="JB6">
+        <v>0</v>
+      </c>
+      <c r="JC6">
+        <v>0</v>
+      </c>
+      <c r="JD6">
+        <v>0</v>
+      </c>
+      <c r="JE6">
+        <v>0</v>
+      </c>
+      <c r="JF6">
+        <v>0</v>
+      </c>
+      <c r="JG6">
+        <v>0</v>
+      </c>
+      <c r="JH6">
+        <v>0</v>
+      </c>
+      <c r="JI6">
+        <v>0</v>
+      </c>
+      <c r="JJ6">
+        <v>0</v>
+      </c>
+      <c r="JK6">
+        <v>0</v>
+      </c>
+      <c r="JL6">
+        <v>0</v>
+      </c>
+      <c r="JM6">
+        <v>0</v>
+      </c>
+      <c r="JN6">
+        <v>0</v>
+      </c>
+      <c r="JO6">
+        <v>0</v>
+      </c>
+      <c r="JP6">
+        <v>0</v>
+      </c>
+      <c r="JQ6">
+        <v>0</v>
+      </c>
+      <c r="JR6">
+        <v>0</v>
+      </c>
+      <c r="JS6">
+        <v>0</v>
+      </c>
+      <c r="JT6">
+        <v>0</v>
+      </c>
+      <c r="JU6">
+        <v>0</v>
+      </c>
+      <c r="JV6">
+        <v>0</v>
+      </c>
+      <c r="JW6">
+        <v>0</v>
+      </c>
+      <c r="JX6">
+        <v>0</v>
+      </c>
+      <c r="JY6">
+        <v>0</v>
+      </c>
+      <c r="JZ6">
+        <v>0</v>
+      </c>
+      <c r="KA6">
+        <v>0</v>
+      </c>
+      <c r="KB6">
+        <v>0</v>
+      </c>
+      <c r="KC6">
+        <v>0</v>
+      </c>
+      <c r="KD6">
+        <v>0</v>
+      </c>
+      <c r="KE6">
+        <v>0</v>
+      </c>
+      <c r="KF6">
+        <v>0</v>
+      </c>
+      <c r="KG6">
+        <v>0</v>
+      </c>
+      <c r="KH6">
+        <v>0</v>
+      </c>
+      <c r="KI6">
+        <v>0</v>
+      </c>
+      <c r="KJ6">
+        <v>0</v>
+      </c>
+      <c r="KK6">
+        <v>0</v>
+      </c>
+      <c r="KL6">
+        <v>0</v>
+      </c>
+      <c r="KM6">
+        <v>0</v>
+      </c>
+      <c r="KN6">
+        <v>2.9746589251008677E-5</v>
+      </c>
+      <c r="KO6">
+        <v>1.0968341008451431E-4</v>
+      </c>
+      <c r="KP6">
+        <v>2.4033986003612202E-4</v>
+      </c>
+      <c r="KQ6">
+        <v>4.0703363577241448E-4</v>
+      </c>
+      <c r="KR6">
+        <v>5.8458767582454608E-4</v>
+      </c>
+      <c r="KS6">
+        <v>7.4205832602017036E-4</v>
+      </c>
+      <c r="KT6">
+        <v>8.4747165847558301E-4</v>
+      </c>
+      <c r="KU6">
+        <v>8.7256498135749206E-4</v>
+      </c>
+      <c r="KV6">
+        <v>7.9753068217217234E-4</v>
+      </c>
+      <c r="KW6">
+        <v>6.1575965193159726E-4</v>
+      </c>
+      <c r="KX6">
+        <v>3.3858164103940365E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:310" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.12537730546489051</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.87462269453510944</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>169.76476131818686</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.6622232627160765</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.98887800428040207</v>
+      </c>
+      <c r="K7">
+        <v>2.1893715301061619E-3</v>
+      </c>
+      <c r="L7">
+        <v>4.2557386153699236E-3</v>
+      </c>
+      <c r="M7">
+        <v>6.103866470993328E-3</v>
+      </c>
+      <c r="N7">
+        <v>7.664147943828417E-3</v>
+      </c>
+      <c r="O7">
+        <v>8.8904184261486795E-3</v>
+      </c>
+      <c r="P7">
+        <v>9.7577286449837906E-3</v>
+      </c>
+      <c r="Q7">
+        <v>1.0260076319289158E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.0408097735161492E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.0226720346365461E-2</v>
+      </c>
+      <c r="T7">
+        <v>9.752777563655687E-3</v>
+      </c>
+      <c r="U7">
+        <v>9.0325869518186382E-3</v>
+      </c>
+      <c r="V7">
+        <v>8.1194931080739163E-3</v>
+      </c>
+      <c r="W7">
+        <v>7.0713765495182034E-3</v>
+      </c>
+      <c r="X7">
+        <v>5.9481299907169312E-3</v>
+      </c>
+      <c r="Y7">
+        <v>4.8091034453932886E-3</v>
+      </c>
+      <c r="Z7">
+        <v>3.7105196384685044E-3</v>
+      </c>
+      <c r="AA7">
+        <v>2.7028612665006909E-3</v>
+      </c>
+      <c r="AB7">
+        <v>1.8282316958698266E-3</v>
+      </c>
+      <c r="AC7">
+        <v>1.1176907388712543E-3</v>
+      </c>
+      <c r="AD7">
+        <v>5.8856719820324767E-4</v>
+      </c>
+      <c r="AE7">
+        <v>2.4174992014625767E-4</v>
+      </c>
+      <c r="AF7">
+        <v>5.8959145998035238E-5</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7">
+        <v>0</v>
+      </c>
+      <c r="DT7">
+        <v>0</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7">
+        <v>0</v>
+      </c>
+      <c r="DW7">
+        <v>0</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
+      </c>
+      <c r="DY7">
+        <v>0</v>
+      </c>
+      <c r="DZ7">
+        <v>0</v>
+      </c>
+      <c r="EA7">
+        <v>0</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+      <c r="EJ7">
+        <v>0</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
+      </c>
+      <c r="EL7">
+        <v>0</v>
+      </c>
+      <c r="EM7">
+        <v>0</v>
+      </c>
+      <c r="EN7">
+        <v>0</v>
+      </c>
+      <c r="EO7">
+        <v>0</v>
+      </c>
+      <c r="EP7">
+        <v>0</v>
+      </c>
+      <c r="EQ7">
+        <v>0</v>
+      </c>
+      <c r="ER7">
+        <v>0</v>
+      </c>
+      <c r="ES7">
+        <v>0</v>
+      </c>
+      <c r="ET7">
+        <v>0</v>
+      </c>
+      <c r="EU7">
+        <v>0</v>
+      </c>
+      <c r="EV7">
+        <v>0</v>
+      </c>
+      <c r="EW7">
+        <v>0</v>
+      </c>
+      <c r="EX7">
+        <v>0</v>
+      </c>
+      <c r="EY7">
+        <v>0</v>
+      </c>
+      <c r="EZ7">
+        <v>0</v>
+      </c>
+      <c r="FA7">
+        <v>0</v>
+      </c>
+      <c r="FB7">
+        <v>0</v>
+      </c>
+      <c r="FC7">
+        <v>0</v>
+      </c>
+      <c r="FD7">
+        <v>0</v>
+      </c>
+      <c r="FE7">
+        <v>0</v>
+      </c>
+      <c r="FF7">
+        <v>0</v>
+      </c>
+      <c r="FG7">
+        <v>0</v>
+      </c>
+      <c r="FH7">
+        <v>0</v>
+      </c>
+      <c r="FI7">
+        <v>0</v>
+      </c>
+      <c r="FJ7">
+        <v>0</v>
+      </c>
+      <c r="FK7">
+        <v>0</v>
+      </c>
+      <c r="FL7">
+        <v>0</v>
+      </c>
+      <c r="FM7">
+        <v>0</v>
+      </c>
+      <c r="FN7">
+        <v>0</v>
+      </c>
+      <c r="FO7">
+        <v>0</v>
+      </c>
+      <c r="FP7">
+        <v>0</v>
+      </c>
+      <c r="FQ7">
+        <v>0</v>
+      </c>
+      <c r="FR7">
+        <v>0</v>
+      </c>
+      <c r="FS7">
+        <v>0</v>
+      </c>
+      <c r="FT7">
+        <v>0</v>
+      </c>
+      <c r="FU7">
+        <v>0</v>
+      </c>
+      <c r="FV7">
+        <v>0</v>
+      </c>
+      <c r="FW7">
+        <v>0</v>
+      </c>
+      <c r="FX7">
+        <v>3.9419380690794633E-5</v>
+      </c>
+      <c r="FY7">
+        <v>1.7158257513982635E-4</v>
+      </c>
+      <c r="FZ7">
+        <v>4.3676528482224439E-4</v>
+      </c>
+      <c r="GA7">
+        <v>8.6353992148252676E-4</v>
+      </c>
+      <c r="GB7">
+        <v>1.4700614293729701E-3</v>
+      </c>
+      <c r="GC7">
+        <v>2.2652928421731285E-3</v>
+      </c>
+      <c r="GD7">
+        <v>3.2501700910675759E-3</v>
+      </c>
+      <c r="GE7">
+        <v>4.4187057411631085E-3</v>
+      </c>
+      <c r="GF7">
+        <v>5.7590314919591448E-3</v>
+      </c>
+      <c r="GG7">
+        <v>7.2543794332741579E-3</v>
+      </c>
+      <c r="GH7">
+        <v>8.8840022002500598E-3</v>
+      </c>
+      <c r="GI7">
+        <v>1.0624032319213316E-2</v>
+      </c>
+      <c r="GJ7">
+        <v>1.2448281179722187E-2</v>
+      </c>
+      <c r="GK7">
+        <v>1.4328978206571689E-2</v>
+      </c>
+      <c r="GL7">
+        <v>1.6237450938408497E-2</v>
+      </c>
+      <c r="GM7">
+        <v>1.8144746846519753E-2</v>
+      </c>
+      <c r="GN7">
+        <v>2.0022197847944012E-2</v>
+      </c>
+      <c r="GO7">
+        <v>2.1841928580999103E-2</v>
+      </c>
+      <c r="GP7">
+        <v>2.357730961836783E-2</v>
+      </c>
+      <c r="GQ7">
+        <v>2.5203356892813056E-2</v>
+      </c>
+      <c r="GR7">
+        <v>2.6697078703240208E-2</v>
+      </c>
+      <c r="GS7">
+        <v>2.8037771754064668E-2</v>
+      </c>
+      <c r="GT7">
+        <v>2.920726775859352E-2</v>
+      </c>
+      <c r="GU7">
+        <v>3.0190132207359617E-2</v>
+      </c>
+      <c r="GV7">
+        <v>3.0973816965052362E-2</v>
+      </c>
+      <c r="GW7">
+        <v>3.1548768414916252E-2</v>
+      </c>
+      <c r="GX7">
+        <v>3.1908492917311182E-2</v>
+      </c>
+      <c r="GY7">
+        <v>3.2049581389658091E-2</v>
+      </c>
+      <c r="GZ7">
+        <v>3.197169484837184E-2</v>
+      </c>
+      <c r="HA7">
+        <v>3.167751277977942E-2</v>
+      </c>
+      <c r="HB7">
+        <v>3.1172646226631538E-2</v>
+      </c>
+      <c r="HC7">
+        <v>3.04655174898593E-2</v>
+      </c>
+      <c r="HD7">
+        <v>2.9567208351943795E-2</v>
+      </c>
+      <c r="HE7">
+        <v>2.8491278728913647E-2</v>
+      </c>
+      <c r="HF7">
+        <v>2.7253557652837764E-2</v>
+      </c>
+      <c r="HG7">
+        <v>2.5871908476023647E-2</v>
+      </c>
+      <c r="HH7">
+        <v>2.4365970172264047E-2</v>
+      </c>
+      <c r="HI7">
+        <v>2.2756876589701925E-2</v>
+      </c>
+      <c r="HJ7">
+        <v>2.1066955484518039E-2</v>
+      </c>
+      <c r="HK7">
+        <v>1.931940913500315E-2</v>
+      </c>
+      <c r="HL7">
+        <v>1.7537978301976346E-2</v>
+      </c>
+      <c r="HM7">
+        <v>1.5746591264270894E-2</v>
+      </c>
+      <c r="HN7">
+        <v>1.3968999617446775E-2</v>
+      </c>
+      <c r="HO7">
+        <v>1.222840248031829E-2</v>
+      </c>
+      <c r="HP7">
+        <v>1.0547060707615593E-2</v>
+      </c>
+      <c r="HQ7">
+        <v>8.9459026584345347E-3</v>
+      </c>
+      <c r="HR7">
+        <v>7.4441230193653717E-3</v>
+      </c>
+      <c r="HS7">
+        <v>6.0587761286172081E-3</v>
+      </c>
+      <c r="HT7">
+        <v>4.8043651933490604E-3</v>
+      </c>
+      <c r="HU7">
+        <v>3.6924287370505597E-3</v>
+      </c>
+      <c r="HV7">
+        <v>2.731125557442662E-3</v>
+      </c>
+      <c r="HW7">
+        <v>1.9248194182393667E-3</v>
+      </c>
+      <c r="HX7">
+        <v>1.2736646404596537E-3</v>
+      </c>
+      <c r="HY7">
+        <v>7.7319370102844876E-4</v>
+      </c>
+      <c r="HZ7">
+        <v>4.1390788836640066E-4</v>
+      </c>
+      <c r="IA7">
+        <v>1.8087200673893011E-4</v>
+      </c>
+      <c r="IB7">
+        <v>5.3314063500580633E-5</v>
+      </c>
+      <c r="IC7">
+        <v>4.2308162036344233E-6</v>
+      </c>
+      <c r="ID7">
+        <v>0</v>
+      </c>
+      <c r="IE7">
+        <v>0</v>
+      </c>
+      <c r="IF7">
+        <v>0</v>
+      </c>
+      <c r="IG7">
+        <v>0</v>
+      </c>
+      <c r="IH7">
+        <v>0</v>
+      </c>
+      <c r="II7">
+        <v>0</v>
+      </c>
+      <c r="IJ7">
+        <v>0</v>
+      </c>
+      <c r="IK7">
+        <v>0</v>
+      </c>
+      <c r="IL7">
+        <v>0</v>
+      </c>
+      <c r="IM7">
+        <v>0</v>
+      </c>
+      <c r="IN7">
+        <v>0</v>
+      </c>
+      <c r="IO7">
+        <v>0</v>
+      </c>
+      <c r="IP7">
+        <v>0</v>
+      </c>
+      <c r="IQ7">
+        <v>0</v>
+      </c>
+      <c r="IR7">
+        <v>0</v>
+      </c>
+      <c r="IS7">
+        <v>0</v>
+      </c>
+      <c r="IT7">
+        <v>0</v>
+      </c>
+      <c r="IU7">
+        <v>0</v>
+      </c>
+      <c r="IV7">
+        <v>0</v>
+      </c>
+      <c r="IW7">
+        <v>0</v>
+      </c>
+      <c r="IX7">
+        <v>0</v>
+      </c>
+      <c r="IY7">
+        <v>0</v>
+      </c>
+      <c r="IZ7">
+        <v>0</v>
+      </c>
+      <c r="JA7">
+        <v>0</v>
+      </c>
+      <c r="JB7">
+        <v>0</v>
+      </c>
+      <c r="JC7">
+        <v>0</v>
+      </c>
+      <c r="JD7">
+        <v>0</v>
+      </c>
+      <c r="JE7">
+        <v>0</v>
+      </c>
+      <c r="JF7">
+        <v>0</v>
+      </c>
+      <c r="JG7">
+        <v>0</v>
+      </c>
+      <c r="JH7">
+        <v>0</v>
+      </c>
+      <c r="JI7">
+        <v>0</v>
+      </c>
+      <c r="JJ7">
+        <v>0</v>
+      </c>
+      <c r="JK7">
+        <v>0</v>
+      </c>
+      <c r="JL7">
+        <v>0</v>
+      </c>
+      <c r="JM7">
+        <v>0</v>
+      </c>
+      <c r="JN7">
+        <v>0</v>
+      </c>
+      <c r="JO7">
+        <v>0</v>
+      </c>
+      <c r="JP7">
+        <v>0</v>
+      </c>
+      <c r="JQ7">
+        <v>0</v>
+      </c>
+      <c r="JR7">
+        <v>0</v>
+      </c>
+      <c r="JS7">
+        <v>0</v>
+      </c>
+      <c r="JT7">
+        <v>0</v>
+      </c>
+      <c r="JU7">
+        <v>0</v>
+      </c>
+      <c r="JV7">
+        <v>0</v>
+      </c>
+      <c r="JW7">
+        <v>0</v>
+      </c>
+      <c r="JX7">
+        <v>0</v>
+      </c>
+      <c r="JY7">
+        <v>0</v>
+      </c>
+      <c r="JZ7">
+        <v>0</v>
+      </c>
+      <c r="KA7">
+        <v>0</v>
+      </c>
+      <c r="KB7">
+        <v>0</v>
+      </c>
+      <c r="KC7">
+        <v>0</v>
+      </c>
+      <c r="KD7">
+        <v>0</v>
+      </c>
+      <c r="KE7">
+        <v>0</v>
+      </c>
+      <c r="KF7">
+        <v>0</v>
+      </c>
+      <c r="KG7">
+        <v>0</v>
+      </c>
+      <c r="KH7">
+        <v>0</v>
+      </c>
+      <c r="KI7">
+        <v>0</v>
+      </c>
+      <c r="KJ7">
+        <v>0</v>
+      </c>
+      <c r="KK7">
+        <v>0</v>
+      </c>
+      <c r="KL7">
+        <v>0</v>
+      </c>
+      <c r="KM7">
+        <v>0</v>
+      </c>
+      <c r="KN7">
+        <v>0</v>
+      </c>
+      <c r="KO7">
+        <v>0</v>
+      </c>
+      <c r="KP7">
+        <v>0</v>
+      </c>
+      <c r="KQ7">
+        <v>0</v>
+      </c>
+      <c r="KR7">
+        <v>0</v>
+      </c>
+      <c r="KS7">
+        <v>0</v>
+      </c>
+      <c r="KT7">
+        <v>0</v>
+      </c>
+      <c r="KU7">
+        <v>0</v>
+      </c>
+      <c r="KV7">
+        <v>0</v>
+      </c>
+      <c r="KW7">
+        <v>0</v>
+      </c>
+      <c r="KX7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:310" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2.9455021597196991E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.73557011482211099</v>
+      </c>
+      <c r="D8">
+        <v>0.23497486358069219</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>165.29763601079313</v>
+      </c>
+      <c r="G8">
+        <v>5.3989299034897495</v>
+      </c>
+      <c r="H8">
+        <v>0.84571636998431876</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.99445407858623636</v>
+      </c>
+      <c r="K8">
+        <v>3.8412854162159997E-4</v>
+      </c>
+      <c r="L8">
+        <v>7.5340807149338674E-4</v>
+      </c>
+      <c r="M8">
+        <v>1.095358971226365E-3</v>
+      </c>
+      <c r="N8">
+        <v>1.3998300446134968E-3</v>
+      </c>
+      <c r="O8">
+        <v>1.6589448105378865E-3</v>
+      </c>
+      <c r="P8">
+        <v>1.8670339341077243E-3</v>
+      </c>
+      <c r="Q8">
+        <v>2.0205526346540209E-3</v>
+      </c>
+      <c r="R8">
+        <v>2.1179818771583296E-3</v>
+      </c>
+      <c r="S8">
+        <v>2.1597121254487185E-3</v>
+      </c>
+      <c r="T8">
+        <v>2.1479084115070073E-3</v>
+      </c>
+      <c r="U8">
+        <v>2.0863554558547721E-3</v>
+      </c>
+      <c r="V8">
+        <v>1.9802815595964889E-3</v>
+      </c>
+      <c r="W8">
+        <v>1.8361599796484459E-3</v>
+      </c>
+      <c r="X8">
+        <v>1.6614864952996695E-3</v>
+      </c>
+      <c r="Y8">
+        <v>1.4645318768443374E-3</v>
+      </c>
+      <c r="Z8">
+        <v>1.2540679758717449E-3</v>
+      </c>
+      <c r="AA8">
+        <v>1.0390661721515996E-3</v>
+      </c>
+      <c r="AB8">
+        <v>8.2836693412892046E-4</v>
+      </c>
+      <c r="AC8">
+        <v>6.3031927903096929E-4</v>
+      </c>
+      <c r="AD8">
+        <v>4.5238895464058275E-4</v>
+      </c>
+      <c r="AE8">
+        <v>3.0073420802171843E-4</v>
+      </c>
+      <c r="AF8">
+        <v>1.7974805697335507E-4</v>
+      </c>
+      <c r="AG8">
+        <v>9.1566037776207981E-5</v>
+      </c>
+      <c r="AH8">
+        <v>3.5538467884634625E-5</v>
+      </c>
+      <c r="AI8">
+        <v>7.666334563797838E-6</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>0</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>0</v>
+      </c>
+      <c r="DY8">
+        <v>0</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EA8">
+        <v>0</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>0</v>
+      </c>
+      <c r="EG8">
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <v>0</v>
+      </c>
+      <c r="EI8">
+        <v>0</v>
+      </c>
+      <c r="EJ8">
+        <v>0</v>
+      </c>
+      <c r="EK8">
+        <v>0</v>
+      </c>
+      <c r="EL8">
+        <v>0</v>
+      </c>
+      <c r="EM8">
+        <v>0</v>
+      </c>
+      <c r="EN8">
+        <v>0</v>
+      </c>
+      <c r="EO8">
+        <v>0</v>
+      </c>
+      <c r="EP8">
+        <v>0</v>
+      </c>
+      <c r="EQ8">
+        <v>0</v>
+      </c>
+      <c r="ER8">
+        <v>0</v>
+      </c>
+      <c r="ES8">
+        <v>0</v>
+      </c>
+      <c r="ET8">
+        <v>0</v>
+      </c>
+      <c r="EU8">
+        <v>0</v>
+      </c>
+      <c r="EV8">
+        <v>0</v>
+      </c>
+      <c r="EW8">
+        <v>0</v>
+      </c>
+      <c r="EX8">
+        <v>0</v>
+      </c>
+      <c r="EY8">
+        <v>1.3760810167899973E-5</v>
+      </c>
+      <c r="EZ8">
+        <v>6.9391444920182375E-5</v>
+      </c>
+      <c r="FA8">
+        <v>1.8862783090668346E-4</v>
+      </c>
+      <c r="FB8">
+        <v>3.8751466319629832E-4</v>
+      </c>
+      <c r="FC8">
+        <v>6.770481009367856E-4</v>
+      </c>
+      <c r="FD8">
+        <v>1.0637798518058205E-3</v>
+      </c>
+      <c r="FE8">
+        <v>1.5503832906069472E-3</v>
+      </c>
+      <c r="FF8">
+        <v>2.1361823468489805E-3</v>
+      </c>
+      <c r="FG8">
+        <v>2.8176439789368716E-3</v>
+      </c>
+      <c r="FH8">
+        <v>3.5888351286027785E-3</v>
+      </c>
+      <c r="FI8">
+        <v>4.4418451183460654E-3</v>
+      </c>
+      <c r="FJ8">
+        <v>5.367174516920971E-3</v>
+      </c>
+      <c r="FK8">
+        <v>6.3540915533187381E-3</v>
+      </c>
+      <c r="FL8">
+        <v>7.3909572082913625E-3</v>
+      </c>
+      <c r="FM8">
+        <v>8.4655201543428846E-3</v>
+      </c>
+      <c r="FN8">
+        <v>9.5651827503891677E-3</v>
+      </c>
+      <c r="FO8">
+        <v>1.0677239326104331E-2</v>
+      </c>
+      <c r="FP8">
+        <v>1.178908801350838E-2</v>
+      </c>
+      <c r="FQ8">
+        <v>1.2888417399806087E-2</v>
+      </c>
+      <c r="FR8">
+        <v>1.3963369286083736E-2</v>
+      </c>
+      <c r="FS8">
+        <v>1.5002678841454002E-2</v>
+      </c>
+      <c r="FT8">
+        <v>1.5995793441868866E-2</v>
+      </c>
+      <c r="FU8">
+        <v>1.6932971477375481E-2</v>
+      </c>
+      <c r="FV8">
+        <v>1.7805362401358105E-2</v>
+      </c>
+      <c r="FW8">
+        <v>1.8605069280592374E-2</v>
+      </c>
+      <c r="FX8">
+        <v>1.932519508604422E-2</v>
+      </c>
+      <c r="FY8">
+        <v>1.9959873941588876E-2</v>
+      </c>
+      <c r="FZ8">
+        <v>2.0504288521523722E-2</v>
+      </c>
+      <c r="GA8">
+        <v>2.0954674758221117E-2</v>
+      </c>
+      <c r="GB8">
+        <v>2.1308314988832733E-2</v>
+      </c>
+      <c r="GC8">
+        <v>2.1563520634931187E-2</v>
+      </c>
+      <c r="GD8">
+        <v>2.1719605471669814E-2</v>
+      </c>
+      <c r="GE8">
+        <v>2.1776850503762882E-2</v>
+      </c>
+      <c r="GF8">
+        <v>2.1736461424634871E-2</v>
+      </c>
+      <c r="GG8">
+        <v>2.1600519592748207E-2</v>
+      </c>
+      <c r="GH8">
+        <v>2.1371927415672797E-2</v>
+      </c>
+      <c r="GI8">
+        <v>2.1054348988177193E-2</v>
+      </c>
+      <c r="GJ8">
+        <v>2.0652146785755245E-2</v>
+      </c>
+      <c r="GK8">
+        <v>2.0170315169797687E-2</v>
+      </c>
+      <c r="GL8">
+        <v>1.9614411415305028E-2</v>
+      </c>
+      <c r="GM8">
+        <v>1.8990484926831329E-2</v>
+      </c>
+      <c r="GN8">
+        <v>1.8305005263450153E-2</v>
+      </c>
+      <c r="GO8">
+        <v>1.7564789549129923E-2</v>
+      </c>
+      <c r="GP8">
+        <v>1.677692980116878E-2</v>
+      </c>
+      <c r="GQ8">
+        <v>1.5948720666424585E-2</v>
+      </c>
+      <c r="GR8">
+        <v>1.5087588013127181E-2</v>
+      </c>
+      <c r="GS8">
+        <v>1.4201018785203835E-2</v>
+      </c>
+      <c r="GT8">
+        <v>1.329649248639911E-2</v>
+      </c>
+      <c r="GU8">
+        <v>1.238141462312542E-2</v>
+      </c>
+      <c r="GV8">
+        <v>1.1463052398026002E-2</v>
+      </c>
+      <c r="GW8">
+        <v>1.0548472910740649E-2</v>
+      </c>
+      <c r="GX8">
+        <v>9.6444840883950448E-3</v>
+      </c>
+      <c r="GY8">
+        <v>8.7575785359357058E-3</v>
+      </c>
+      <c r="GZ8">
+        <v>7.8938804656392136E-3</v>
+      </c>
+      <c r="HA8">
+        <v>7.0590958359628888E-3</v>
+      </c>
+      <c r="HB8">
+        <v>6.2584658023889369E-3</v>
+      </c>
+      <c r="HC8">
+        <v>5.4967235570508978E-3</v>
+      </c>
+      <c r="HD8">
+        <v>4.7780546097169673E-3</v>
+      </c>
+      <c r="HE8">
+        <v>4.1060605401280611E-3</v>
+      </c>
+      <c r="HF8">
+        <v>3.4837262307304403E-3</v>
+      </c>
+      <c r="HG8">
+        <v>2.9133905694776708E-3</v>
+      </c>
+      <c r="HH8">
+        <v>2.3967205945734245E-3</v>
+      </c>
+      <c r="HI8">
+        <v>1.9346890367473095E-3</v>
+      </c>
+      <c r="HJ8">
+        <v>1.5275551998594099E-3</v>
+      </c>
+      <c r="HK8">
+        <v>1.1748491072689901E-3</v>
+      </c>
+      <c r="HL8">
+        <v>8.7535882942933057E-4</v>
+      </c>
+      <c r="HM8">
+        <v>6.2712089753123401E-4</v>
+      </c>
+      <c r="HN8">
+        <v>4.2741369865711059E-4</v>
+      </c>
+      <c r="HO8">
+        <v>2.7275373976864335E-4</v>
+      </c>
+      <c r="HP8">
+        <v>1.5889466087493602E-4</v>
+      </c>
+      <c r="HQ8">
+        <v>8.0828871855476248E-5</v>
+      </c>
+      <c r="HR8">
+        <v>3.2791682582239786E-5</v>
+      </c>
+      <c r="HS8">
+        <v>8.267792137776296E-6</v>
+      </c>
+      <c r="HT8">
+        <v>0</v>
+      </c>
+      <c r="HU8">
+        <v>0</v>
+      </c>
+      <c r="HV8">
+        <v>0</v>
+      </c>
+      <c r="HW8">
+        <v>0</v>
+      </c>
+      <c r="HX8">
+        <v>0</v>
+      </c>
+      <c r="HY8">
+        <v>0</v>
+      </c>
+      <c r="HZ8">
+        <v>0</v>
+      </c>
+      <c r="IA8">
+        <v>0</v>
+      </c>
+      <c r="IB8">
+        <v>0</v>
+      </c>
+      <c r="IC8">
+        <v>0</v>
+      </c>
+      <c r="ID8">
+        <v>0</v>
+      </c>
+      <c r="IE8">
+        <v>1.5775349569064395E-6</v>
+      </c>
+      <c r="IF8">
+        <v>8.1060100303476868E-6</v>
+      </c>
+      <c r="IG8">
+        <v>2.2469275329468325E-5</v>
+      </c>
+      <c r="IH8">
+        <v>4.7087105947042519E-5</v>
+      </c>
+      <c r="II8">
+        <v>8.394094860982799E-5</v>
+      </c>
+      <c r="IJ8">
+        <v>1.3459983116278449E-4</v>
+      </c>
+      <c r="IK8">
+        <v>2.0024633579341649E-4</v>
+      </c>
+      <c r="IL8">
+        <v>2.8170254167367146E-4</v>
+      </c>
+      <c r="IM8">
+        <v>3.7945584752296875E-4</v>
+      </c>
+      <c r="IN8">
+        <v>4.9368458945165685E-4</v>
+      </c>
+      <c r="IO8">
+        <v>6.2428337430711124E-4</v>
+      </c>
+      <c r="IP8">
+        <v>7.7088805359273903E-4</v>
+      </c>
+      <c r="IQ8">
+        <v>9.3290026784457016E-4</v>
+      </c>
+      <c r="IR8">
+        <v>1.1095114961134779E-3</v>
+      </c>
+      <c r="IS8">
+        <v>1.299726549896847E-3</v>
+      </c>
+      <c r="IT8">
+        <v>1.5023864554782188E-3</v>
+      </c>
+      <c r="IU8">
+        <v>1.7161906731541603E-3</v>
+      </c>
+      <c r="IV8">
+        <v>1.939718606243358E-3</v>
+      </c>
+      <c r="IW8">
+        <v>2.1714503570737509E-3</v>
+      </c>
+      <c r="IX8">
+        <v>2.4097866913212244E-3</v>
+      </c>
+      <c r="IY8">
+        <v>2.6530681761207505E-3</v>
+      </c>
+      <c r="IZ8">
+        <v>2.8995934612819135E-3</v>
+      </c>
+      <c r="JA8">
+        <v>3.1476366767106299E-3</v>
+      </c>
+      <c r="JB8">
+        <v>3.3954639227634842E-3</v>
+      </c>
+      <c r="JC8">
+        <v>3.6413488337379047E-3</v>
+      </c>
+      <c r="JD8">
+        <v>3.8835871980279313E-3</v>
+      </c>
+      <c r="JE8">
+        <v>4.1205106216504845E-3</v>
+      </c>
+      <c r="JF8">
+        <v>4.3504992248705231E-3</v>
+      </c>
+      <c r="JG8">
+        <v>4.5719933645248902E-3</v>
+      </c>
+      <c r="JH8">
+        <v>4.7835043773653673E-3</v>
+      </c>
+      <c r="JI8">
+        <v>4.9836243423122513E-3</v>
+      </c>
+      <c r="JJ8">
+        <v>5.1710348619327193E-3</v>
+      </c>
+      <c r="JK8">
+        <v>5.3445148657357659E-3</v>
+      </c>
+      <c r="JL8">
+        <v>5.502947440009647E-3</v>
+      </c>
+      <c r="JM8">
+        <v>5.6453256909222409E-3</v>
+      </c>
+      <c r="JN8">
+        <v>5.770757649462251E-3</v>
+      </c>
+      <c r="JO8">
+        <v>5.8784702285237687E-3</v>
+      </c>
+      <c r="JP8">
+        <v>5.967812244031573E-3</v>
+      </c>
+      <c r="JQ8">
+        <v>6.0382565134742766E-3</v>
+      </c>
+      <c r="JR8">
+        <v>6.0894010465605847E-3</v>
+      </c>
+      <c r="JS8">
+        <v>6.1209693439453761E-3</v>
+      </c>
+      <c r="JT8">
+        <v>6.13280982109059E-3</v>
+      </c>
+      <c r="JU8">
+        <v>6.1248943753359148E-3</v>
+      </c>
+      <c r="JV8">
+        <v>6.0973161151607648E-3</v>
+      </c>
+      <c r="JW8">
+        <v>6.0502862714255003E-3</v>
+      </c>
+      <c r="JX8">
+        <v>5.9841303110916757E-3</v>
+      </c>
+      <c r="JY8">
+        <v>5.8992832745422691E-3</v>
+      </c>
+      <c r="JZ8">
+        <v>5.7962843581579439E-3</v>
+      </c>
+      <c r="KA8">
+        <v>5.6757707642585099E-3</v>
+      </c>
+      <c r="KB8">
+        <v>5.5384708408946388E-3</v>
+      </c>
+      <c r="KC8">
+        <v>5.3851965342773395E-3</v>
+      </c>
+      <c r="KD8">
+        <v>5.2168351768661185E-3</v>
+      </c>
+      <c r="KE8">
+        <v>5.0343406343050581E-3</v>
+      </c>
+      <c r="KF8">
+        <v>4.8387238345032613E-3</v>
+      </c>
+      <c r="KG8">
+        <v>4.6310427022059203E-3</v>
+      </c>
+      <c r="KH8">
+        <v>4.4123915223988168E-3</v>
+      </c>
+      <c r="KI8">
+        <v>4.1838897558352959E-3</v>
+      </c>
+      <c r="KJ8">
+        <v>3.9466703298749869E-3</v>
+      </c>
+      <c r="KK8">
+        <v>3.7018674276802104E-3</v>
+      </c>
+      <c r="KL8">
+        <v>3.4506037986333738E-3</v>
+      </c>
+      <c r="KM8">
+        <v>3.1939776126190529E-3</v>
+      </c>
+      <c r="KN8">
+        <v>2.9330488805610058E-3</v>
+      </c>
+      <c r="KO8">
+        <v>2.6688254633205656E-3</v>
+      </c>
+      <c r="KP8">
+        <v>2.4022486907505094E-3</v>
+      </c>
+      <c r="KQ8">
+        <v>2.1341786123609658E-3</v>
+      </c>
+      <c r="KR8">
+        <v>1.8653789006933526E-3</v>
+      </c>
+      <c r="KS8">
+        <v>1.5965014281173555E-3</v>
+      </c>
+      <c r="KT8">
+        <v>1.3280705373662589E-3</v>
+      </c>
+      <c r="KU8">
+        <v>1.0604670257105171E-3</v>
+      </c>
+      <c r="KV8">
+        <v>7.9391186223961901E-4</v>
+      </c>
+      <c r="KW8">
+        <v>5.2844965728038762E-4</v>
+      </c>
+      <c r="KX8">
+        <v>2.6393190252737761E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:310" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2.9431020438929013E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.69943442273789591</v>
+      </c>
+      <c r="D9">
+        <v>0.27113455682317494</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>175.95681923634072</v>
+      </c>
+      <c r="G9">
+        <v>5.6809631067523716</v>
+      </c>
+      <c r="H9">
+        <v>0.97598614993104549</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.994494881597484</v>
+      </c>
+      <c r="K9">
+        <v>7.701009404572904E-4</v>
+      </c>
+      <c r="L9">
+        <v>1.4827456092935715E-3</v>
+      </c>
+      <c r="M9">
+        <v>2.0934044532012232E-3</v>
+      </c>
+      <c r="N9">
+        <v>2.57030121082187E-3</v>
+      </c>
+      <c r="O9">
+        <v>2.894043800330706E-3</v>
+      </c>
+      <c r="P9">
+        <v>3.0570411419391318E-3</v>
+      </c>
+      <c r="Q9">
+        <v>3.062686949708438E-3</v>
+      </c>
+      <c r="R9">
+        <v>2.9242909960803514E-3</v>
+      </c>
+      <c r="S9">
+        <v>2.6637378836399336E-3</v>
+      </c>
+      <c r="T9">
+        <v>2.3098529581876991E-3</v>
+      </c>
+      <c r="U9">
+        <v>1.8964546713950699E-3</v>
+      </c>
+      <c r="V9">
+        <v>1.4600724560806101E-3</v>
+      </c>
+      <c r="W9">
+        <v>1.0373090181214214E-3</v>
+      </c>
+      <c r="X9">
+        <v>6.6182588150733761E-4</v>
+      </c>
+      <c r="Y9">
+        <v>3.6093105198171694E-4</v>
+      </c>
+      <c r="Z9">
+        <v>1.5174779458428287E-4</v>
+      </c>
+      <c r="AA9">
+        <v>3.6943755254266952E-5</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <v>0</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DV9">
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
+      </c>
+      <c r="DY9">
+        <v>0</v>
+      </c>
+      <c r="DZ9">
+        <v>0</v>
+      </c>
+      <c r="EA9">
+        <v>0</v>
+      </c>
+      <c r="EB9">
+        <v>0</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
+      </c>
+      <c r="EI9">
+        <v>0</v>
+      </c>
+      <c r="EJ9">
+        <v>0</v>
+      </c>
+      <c r="EK9">
+        <v>0</v>
+      </c>
+      <c r="EL9">
+        <v>0</v>
+      </c>
+      <c r="EM9">
+        <v>0</v>
+      </c>
+      <c r="EN9">
+        <v>0</v>
+      </c>
+      <c r="EO9">
+        <v>0</v>
+      </c>
+      <c r="EP9">
+        <v>0</v>
+      </c>
+      <c r="EQ9">
+        <v>0</v>
+      </c>
+      <c r="ER9">
+        <v>0</v>
+      </c>
+      <c r="ES9">
+        <v>0</v>
+      </c>
+      <c r="ET9">
+        <v>0</v>
+      </c>
+      <c r="EU9">
+        <v>0</v>
+      </c>
+      <c r="EV9">
+        <v>0</v>
+      </c>
+      <c r="EW9">
+        <v>0</v>
+      </c>
+      <c r="EX9">
+        <v>0</v>
+      </c>
+      <c r="EY9">
+        <v>0</v>
+      </c>
+      <c r="EZ9">
+        <v>0</v>
+      </c>
+      <c r="FA9">
+        <v>0</v>
+      </c>
+      <c r="FB9">
+        <v>0</v>
+      </c>
+      <c r="FC9">
+        <v>0</v>
+      </c>
+      <c r="FD9">
+        <v>0</v>
+      </c>
+      <c r="FE9">
+        <v>0</v>
+      </c>
+      <c r="FF9">
+        <v>0</v>
+      </c>
+      <c r="FG9">
+        <v>0</v>
+      </c>
+      <c r="FH9">
+        <v>3.4967640754736886E-5</v>
+      </c>
+      <c r="FI9">
+        <v>2.2648546019340008E-4</v>
+      </c>
+      <c r="FJ9">
+        <v>6.5712415329765043E-4</v>
+      </c>
+      <c r="FK9">
+        <v>1.3763274257156846E-3</v>
+      </c>
+      <c r="FL9">
+        <v>2.4058047266306655E-3</v>
+      </c>
+      <c r="FM9">
+        <v>3.7444501631264059E-3</v>
+      </c>
+      <c r="FN9">
+        <v>5.3728064550460503E-3</v>
+      </c>
+      <c r="FO9">
+        <v>7.2570932439919647E-3</v>
+      </c>
+      <c r="FP9">
+        <v>9.3528194254461298E-3</v>
+      </c>
+      <c r="FQ9">
+        <v>1.1607999432181266E-2</v>
+      </c>
+      <c r="FR9">
+        <v>1.3965993563730243E-2</v>
+      </c>
+      <c r="FS9">
+        <v>1.6367992534559717E-2</v>
+      </c>
+      <c r="FT9">
+        <v>1.8755166406897551E-2</v>
+      </c>
+      <c r="FU9">
+        <v>2.1070497987295628E-2</v>
+      </c>
+      <c r="FV9">
+        <v>2.326032060357347E-2</v>
+      </c>
+      <c r="FW9">
+        <v>2.5275579945551983E-2</v>
+      </c>
+      <c r="FX9">
+        <v>2.7072839353845576E-2</v>
+      </c>
+      <c r="FY9">
+        <v>2.8615047580932199E-2</v>
+      </c>
+      <c r="FZ9">
+        <v>2.9872087632799482E-2</v>
+      </c>
+      <c r="GA9">
+        <v>3.0821124832746283E-2</v>
+      </c>
+      <c r="GB9">
+        <v>3.1446771736454771E-2</v>
+      </c>
+      <c r="GC9">
+        <v>3.1741086974254339E-2</v>
+      </c>
+      <c r="GD9">
+        <v>3.170342450752537E-2</v>
+      </c>
+      <c r="GE9">
+        <v>3.1340149166281014E-2</v>
+      </c>
+      <c r="GF9">
+        <v>3.0664233688857401E-2</v>
+      </c>
+      <c r="GG9">
+        <v>2.9694751816920745E-2</v>
+      </c>
+      <c r="GH9">
+        <v>2.8456281314093283E-2</v>
+      </c>
+      <c r="GI9">
+        <v>2.6978230078660674E-2</v>
+      </c>
+      <c r="GJ9">
+        <v>2.5294097814105194E-2</v>
+      </c>
+      <c r="GK9">
+        <v>2.344068500946548E-2</v>
+      </c>
+      <c r="GL9">
+        <v>2.1457260268388161E-2</v>
+      </c>
+      <c r="GM9">
+        <v>1.9384696314623712E-2</v>
+      </c>
+      <c r="GN9">
+        <v>1.7264584295806521E-2</v>
+      </c>
+      <c r="GO9">
+        <v>1.5138335309594258E-2</v>
+      </c>
+      <c r="GP9">
+        <v>1.304627738933695E-2</v>
+      </c>
+      <c r="GQ9">
+        <v>1.1026755512873153E-2</v>
+      </c>
+      <c r="GR9">
+        <v>9.115241540047482E-3</v>
+      </c>
+      <c r="GS9">
+        <v>7.3434603441154787E-3</v>
+      </c>
+      <c r="GT9">
+        <v>5.7385377811240588E-3</v>
+      </c>
+      <c r="GU9">
+        <v>4.3221755411820455E-3</v>
+      </c>
+      <c r="GV9">
+        <v>3.1098573475994706E-3</v>
+      </c>
+      <c r="GW9">
+        <v>2.1100904153055749E-3</v>
+      </c>
+      <c r="GX9">
+        <v>1.3236855496746331E-3</v>
+      </c>
+      <c r="GY9">
+        <v>7.4307876163591665E-4</v>
+      </c>
+      <c r="GZ9">
+        <v>3.5169679526295393E-4</v>
+      </c>
+      <c r="HA9">
+        <v>1.233685103112807E-4</v>
+      </c>
+      <c r="HB9">
+        <v>2.1783634623016398E-5</v>
+      </c>
+      <c r="HC9">
+        <v>0</v>
+      </c>
+      <c r="HD9">
+        <v>0</v>
+      </c>
+      <c r="HE9">
+        <v>0</v>
+      </c>
+      <c r="HF9">
+        <v>0</v>
+      </c>
+      <c r="HG9">
+        <v>0</v>
+      </c>
+      <c r="HH9">
+        <v>0</v>
+      </c>
+      <c r="HI9">
+        <v>0</v>
+      </c>
+      <c r="HJ9">
+        <v>0</v>
+      </c>
+      <c r="HK9">
+        <v>0</v>
+      </c>
+      <c r="HL9">
+        <v>0</v>
+      </c>
+      <c r="HM9">
+        <v>0</v>
+      </c>
+      <c r="HN9">
+        <v>0</v>
+      </c>
+      <c r="HO9">
+        <v>0</v>
+      </c>
+      <c r="HP9">
+        <v>0</v>
+      </c>
+      <c r="HQ9">
+        <v>0</v>
+      </c>
+      <c r="HR9">
+        <v>0</v>
+      </c>
+      <c r="HS9">
+        <v>0</v>
+      </c>
+      <c r="HT9">
+        <v>0</v>
+      </c>
+      <c r="HU9">
+        <v>0</v>
+      </c>
+      <c r="HV9">
+        <v>0</v>
+      </c>
+      <c r="HW9">
+        <v>0</v>
+      </c>
+      <c r="HX9">
+        <v>0</v>
+      </c>
+      <c r="HY9">
+        <v>0</v>
+      </c>
+      <c r="HZ9">
+        <v>0</v>
+      </c>
+      <c r="IA9">
+        <v>0</v>
+      </c>
+      <c r="IB9">
+        <v>0</v>
+      </c>
+      <c r="IC9">
+        <v>0</v>
+      </c>
+      <c r="ID9">
+        <v>0</v>
+      </c>
+      <c r="IE9">
+        <v>0</v>
+      </c>
+      <c r="IF9">
+        <v>0</v>
+      </c>
+      <c r="IG9">
+        <v>0</v>
+      </c>
+      <c r="IH9">
+        <v>0</v>
+      </c>
+      <c r="II9">
+        <v>0</v>
+      </c>
+      <c r="IJ9">
+        <v>0</v>
+      </c>
+      <c r="IK9">
+        <v>0</v>
+      </c>
+      <c r="IL9">
+        <v>1.1996452192080726E-5</v>
+      </c>
+      <c r="IM9">
+        <v>5.4269145337529844E-5</v>
+      </c>
+      <c r="IN9">
+        <v>1.4080460951939735E-4</v>
+      </c>
+      <c r="IO9">
+        <v>2.8168878133884892E-4</v>
+      </c>
+      <c r="IP9">
+        <v>4.8349010982977678E-4</v>
+      </c>
+      <c r="IQ9">
+        <v>7.4963210435978283E-4</v>
+      </c>
+      <c r="IR9">
+        <v>1.0807544018425696E-3</v>
+      </c>
+      <c r="IS9">
+        <v>1.4750615053831825E-3</v>
+      </c>
+      <c r="IT9">
+        <v>1.9286584197932999E-3</v>
+      </c>
+      <c r="IU9">
+        <v>2.4358724810626961E-3</v>
+      </c>
+      <c r="IV9">
+        <v>2.9895607466766151E-3</v>
+      </c>
+      <c r="IW9">
+        <v>3.5814023814913238E-3</v>
+      </c>
+      <c r="IX9">
+        <v>4.2021755395910011E-3</v>
+      </c>
+      <c r="IY9">
+        <v>4.8420183060467071E-3</v>
+      </c>
+      <c r="IZ9">
+        <v>5.4906733236885184E-3</v>
+      </c>
+      <c r="JA9">
+        <v>6.1377157888256716E-3</v>
+      </c>
+      <c r="JB9">
+        <v>6.7727645562456786E-3</v>
+      </c>
+      <c r="JC9">
+        <v>7.3856761477568726E-3</v>
+      </c>
+      <c r="JD9">
+        <v>7.9667215099825019E-3</v>
+      </c>
+      <c r="JE9">
+        <v>8.5067454160571952E-3</v>
+      </c>
+      <c r="JF9">
+        <v>8.9973084523181784E-3</v>
+      </c>
+      <c r="JG9">
+        <v>9.4308115750332145E-3</v>
+      </c>
+      <c r="JH9">
+        <v>9.8006032636786134E-3</v>
+      </c>
+      <c r="JI9">
+        <v>1.0101069336315601E-2</v>
+      </c>
+      <c r="JJ9">
+        <v>1.0327705529228019E-2</v>
+      </c>
+      <c r="JK9">
+        <v>1.0477172977237869E-2</v>
+      </c>
+      <c r="JL9">
+        <v>1.0547336763043732E-2</v>
+      </c>
+      <c r="JM9">
+        <v>1.0537287733594742E-2</v>
+      </c>
+      <c r="JN9">
+        <v>1.044734780896628E-2</v>
+      </c>
+      <c r="JO9">
+        <v>1.0279059034512419E-2</v>
+      </c>
+      <c r="JP9">
+        <v>1.003515665030006E-2</v>
+      </c>
+      <c r="JQ9">
+        <v>9.7195264730429009E-3</v>
+      </c>
+      <c r="JR9">
+        <v>9.3371469050246465E-3</v>
+      </c>
+      <c r="JS9">
+        <v>8.8940159019014354E-3</v>
+      </c>
+      <c r="JT9">
+        <v>8.3970632468765294E-3</v>
+      </c>
+      <c r="JU9">
+        <v>7.8540484926144585E-3</v>
+      </c>
+      <c r="JV9">
+        <v>7.2734449444924378E-3</v>
+      </c>
+      <c r="JW9">
+        <v>6.6643100694387019E-3</v>
+      </c>
+      <c r="JX9">
+        <v>6.0361427237583393E-3</v>
+      </c>
+      <c r="JY9">
+        <v>5.3987276010698821E-3</v>
+      </c>
+      <c r="JZ9">
+        <v>4.7619673078476855E-3</v>
+      </c>
+      <c r="KA9">
+        <v>4.1357024791504804E-3</v>
+      </c>
+      <c r="KB9">
+        <v>3.5295203509944826E-3</v>
+      </c>
+      <c r="KC9">
+        <v>2.9525522085612358E-3</v>
+      </c>
+      <c r="KD9">
+        <v>2.4132601310922134E-3</v>
+      </c>
+      <c r="KE9">
+        <v>1.919213454975336E-3</v>
+      </c>
+      <c r="KF9">
+        <v>1.4768553762367785E-3</v>
+      </c>
+      <c r="KG9">
+        <v>1.0912601124827936E-3</v>
+      </c>
+      <c r="KH9">
+        <v>7.6588104234642622E-4</v>
+      </c>
+      <c r="KI9">
+        <v>5.0229023774258513E-4</v>
+      </c>
+      <c r="KJ9">
+        <v>2.999098007829829E-4</v>
+      </c>
+      <c r="KK9">
+        <v>1.5573541309824452E-4</v>
+      </c>
+      <c r="KL9">
+        <v>6.4052500616291927E-5</v>
+      </c>
+      <c r="KM9">
+        <v>1.6145411599459359E-5</v>
+      </c>
+      <c r="KN9">
+        <v>0</v>
+      </c>
+      <c r="KO9">
+        <v>0</v>
+      </c>
+      <c r="KP9">
+        <v>0</v>
+      </c>
+      <c r="KQ9">
+        <v>0</v>
+      </c>
+      <c r="KR9">
+        <v>0</v>
+      </c>
+      <c r="KS9">
+        <v>0</v>
+      </c>
+      <c r="KT9">
+        <v>0</v>
+      </c>
+      <c r="KU9">
+        <v>0</v>
+      </c>
+      <c r="KV9">
+        <v>0</v>
+      </c>
+      <c r="KW9">
+        <v>0</v>
+      </c>
+      <c r="KX9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/RA_Spectra.xlsx
+++ b/RA_Spectra.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30746345-2F7C-4349-BB3A-C147AF136D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2780" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="2780" windowWidth="38400" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="SpectralPlots" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -91,6 +91,12 @@
   <si>
     <t>example 3peak simpleCVNNLS lambda 2</t>
   </si>
+  <si>
+    <t>example 2peak simpleCVNNLS lambda 0.1</t>
+  </si>
+  <si>
+    <t>example 3peak simpleCVNNLS lambda 0.1</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,13 +132,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,83 +475,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3844B0-E6A7-2347-B8AB-DDFFDAAF3289}">
-  <dimension ref="A1:KX9"/>
+  <dimension ref="A1:KX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" customWidth="1"/>
-    <col min="26" max="35" width="16.6640625" customWidth="1"/>
-    <col min="36" max="40" width="2.6640625" customWidth="1"/>
-    <col min="41" max="42" width="16.6640625" customWidth="1"/>
-    <col min="43" max="43" width="15.6640625" customWidth="1"/>
-    <col min="44" max="44" width="16.6640625" customWidth="1"/>
-    <col min="45" max="49" width="15.6640625" customWidth="1"/>
-    <col min="50" max="50" width="14.6640625" customWidth="1"/>
-    <col min="51" max="64" width="15.6640625" customWidth="1"/>
-    <col min="65" max="68" width="16.6640625" customWidth="1"/>
-    <col min="69" max="81" width="2.6640625" customWidth="1"/>
-    <col min="82" max="84" width="16.6640625" customWidth="1"/>
-    <col min="85" max="85" width="15.6640625" customWidth="1"/>
-    <col min="86" max="86" width="16.6640625" customWidth="1"/>
-    <col min="87" max="87" width="15.6640625" customWidth="1"/>
-    <col min="88" max="92" width="16.6640625" customWidth="1"/>
-    <col min="93" max="93" width="15.6640625" customWidth="1"/>
-    <col min="94" max="110" width="16.6640625" customWidth="1"/>
-    <col min="111" max="114" width="15.6640625" customWidth="1"/>
-    <col min="115" max="128" width="14.6640625" customWidth="1"/>
-    <col min="129" max="129" width="13.6640625" customWidth="1"/>
-    <col min="130" max="130" width="14.6640625" customWidth="1"/>
-    <col min="131" max="131" width="15.6640625" customWidth="1"/>
-    <col min="132" max="132" width="13.6640625" customWidth="1"/>
-    <col min="133" max="136" width="15.6640625" customWidth="1"/>
-    <col min="137" max="138" width="16.6640625" customWidth="1"/>
-    <col min="139" max="140" width="2.6640625" customWidth="1"/>
-    <col min="141" max="141" width="15.6640625" customWidth="1"/>
-    <col min="142" max="148" width="16.6640625" customWidth="1"/>
-    <col min="149" max="149" width="15.6640625" customWidth="1"/>
-    <col min="150" max="150" width="14.6640625" customWidth="1"/>
-    <col min="151" max="154" width="15.6640625" customWidth="1"/>
-    <col min="155" max="159" width="16.6640625" customWidth="1"/>
-    <col min="160" max="163" width="15.6640625" customWidth="1"/>
-    <col min="164" max="166" width="16.6640625" customWidth="1"/>
-    <col min="167" max="172" width="15.6640625" customWidth="1"/>
-    <col min="173" max="179" width="14.6640625" customWidth="1"/>
-    <col min="180" max="183" width="16.6640625" customWidth="1"/>
-    <col min="184" max="188" width="15.6640625" customWidth="1"/>
-    <col min="189" max="190" width="16.6640625" customWidth="1"/>
-    <col min="191" max="197" width="15.6640625" customWidth="1"/>
-    <col min="198" max="198" width="14.6640625" customWidth="1"/>
-    <col min="199" max="206" width="15.6640625" customWidth="1"/>
-    <col min="207" max="210" width="16.6640625" customWidth="1"/>
-    <col min="211" max="212" width="15.6640625" customWidth="1"/>
-    <col min="213" max="218" width="16.6640625" customWidth="1"/>
-    <col min="219" max="219" width="15.6640625" customWidth="1"/>
-    <col min="220" max="227" width="16.6640625" customWidth="1"/>
-    <col min="228" max="232" width="15.6640625" customWidth="1"/>
-    <col min="233" max="237" width="16.6640625" customWidth="1"/>
-    <col min="238" max="238" width="15.6640625" customWidth="1"/>
-    <col min="239" max="253" width="16.6640625" customWidth="1"/>
-    <col min="254" max="293" width="15.6640625" customWidth="1"/>
-    <col min="294" max="304" width="16.6640625" customWidth="1"/>
-    <col min="305" max="305" width="15.6640625" customWidth="1"/>
-    <col min="306" max="310" width="16.6640625" customWidth="1"/>
-    <col min="311" max="311" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="11" max="11" width="16.7109375" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" customWidth="true"/>
+    <col min="23" max="23" width="16.7109375" customWidth="true"/>
+    <col min="25" max="25" width="15.7109375" customWidth="true"/>
+    <col min="26" max="26" width="16.7109375" customWidth="true"/>
+    <col min="36" max="36" width="2.7109375" customWidth="true"/>
+    <col min="41" max="41" width="16.7109375" customWidth="true"/>
+    <col min="43" max="43" width="15.7109375" customWidth="true"/>
+    <col min="44" max="44" width="16.7109375" customWidth="true"/>
+    <col min="45" max="45" width="15.7109375" customWidth="true"/>
+    <col min="50" max="50" width="14.7109375" customWidth="true"/>
+    <col min="51" max="51" width="15.7109375" customWidth="true"/>
+    <col min="65" max="65" width="16.7109375" customWidth="true"/>
+    <col min="69" max="69" width="2.7109375" customWidth="true"/>
+    <col min="82" max="82" width="16.7109375" customWidth="true"/>
+    <col min="85" max="85" width="15.7109375" customWidth="true"/>
+    <col min="86" max="86" width="16.7109375" customWidth="true"/>
+    <col min="87" max="87" width="15.7109375" customWidth="true"/>
+    <col min="88" max="88" width="16.7109375" customWidth="true"/>
+    <col min="93" max="93" width="15.7109375" customWidth="true"/>
+    <col min="94" max="94" width="16.7109375" customWidth="true"/>
+    <col min="111" max="111" width="15.7109375" customWidth="true"/>
+    <col min="115" max="115" width="14.7109375" customWidth="true"/>
+    <col min="129" max="129" width="13.7109375" customWidth="true"/>
+    <col min="130" max="130" width="14.7109375" customWidth="true"/>
+    <col min="131" max="131" width="15.7109375" customWidth="true"/>
+    <col min="132" max="132" width="13.7109375" customWidth="true"/>
+    <col min="133" max="133" width="15.7109375" customWidth="true"/>
+    <col min="137" max="137" width="16.7109375" customWidth="true"/>
+    <col min="139" max="139" width="2.7109375" customWidth="true"/>
+    <col min="141" max="141" width="15.7109375" customWidth="true"/>
+    <col min="142" max="142" width="16.7109375" customWidth="true"/>
+    <col min="149" max="149" width="15.7109375" customWidth="true"/>
+    <col min="150" max="150" width="14.7109375" customWidth="true"/>
+    <col min="151" max="151" width="15.7109375" customWidth="true"/>
+    <col min="155" max="155" width="16.7109375" customWidth="true"/>
+    <col min="160" max="160" width="15.7109375" customWidth="true"/>
+    <col min="164" max="164" width="16.7109375" customWidth="true"/>
+    <col min="167" max="167" width="15.7109375" customWidth="true"/>
+    <col min="173" max="173" width="14.7109375" customWidth="true"/>
+    <col min="180" max="180" width="16.7109375" customWidth="true"/>
+    <col min="184" max="184" width="15.7109375" customWidth="true"/>
+    <col min="189" max="189" width="16.7109375" customWidth="true"/>
+    <col min="191" max="191" width="15.7109375" customWidth="true"/>
+    <col min="198" max="198" width="14.7109375" customWidth="true"/>
+    <col min="199" max="199" width="16.7109375" customWidth="true"/>
+    <col min="207" max="207" width="16.7109375" customWidth="true"/>
+    <col min="211" max="211" width="15.7109375" customWidth="true"/>
+    <col min="213" max="213" width="16.7109375" customWidth="true"/>
+    <col min="219" max="219" width="15.7109375" customWidth="true"/>
+    <col min="220" max="220" width="16.7109375" customWidth="true"/>
+    <col min="228" max="228" width="15.7109375" customWidth="true"/>
+    <col min="233" max="233" width="16.7109375" customWidth="true"/>
+    <col min="238" max="238" width="15.7109375" customWidth="true"/>
+    <col min="239" max="239" width="16.7109375" customWidth="true"/>
+    <col min="254" max="254" width="15.7109375" customWidth="true"/>
+    <col min="294" max="294" width="16.7109375" customWidth="true"/>
+    <col min="305" max="305" width="15.7109375" customWidth="true"/>
+    <col min="306" max="306" width="16.7109375" customWidth="true"/>
+    <col min="311" max="311" width="2.6640625" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="13.7109375" customWidth="true"/>
+    <col min="12" max="12" width="16.7109375" customWidth="true"/>
+    <col min="14" max="14" width="15.7109375" customWidth="true"/>
+    <col min="15" max="15" width="15.7109375" customWidth="true"/>
+    <col min="16" max="16" width="15.7109375" customWidth="true"/>
+    <col min="17" max="17" width="15.7109375" customWidth="true"/>
+    <col min="18" max="18" width="15.7109375" customWidth="true"/>
+    <col min="19" max="19" width="15.7109375" customWidth="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true"/>
+    <col min="21" max="21" width="15.7109375" customWidth="true"/>
+    <col min="22" max="22" width="15.7109375" customWidth="true"/>
+    <col min="24" max="24" width="16.7109375" customWidth="true"/>
+    <col min="27" max="27" width="16.7109375" customWidth="true"/>
+    <col min="28" max="28" width="16.7109375" customWidth="true"/>
+    <col min="29" max="29" width="16.7109375" customWidth="true"/>
+    <col min="30" max="30" width="16.7109375" customWidth="true"/>
+    <col min="31" max="31" width="16.7109375" customWidth="true"/>
+    <col min="32" max="32" width="16.7109375" customWidth="true"/>
+    <col min="33" max="33" width="16.7109375" customWidth="true"/>
+    <col min="34" max="34" width="16.7109375" customWidth="true"/>
+    <col min="35" max="35" width="16.7109375" customWidth="true"/>
+    <col min="37" max="37" width="2.7109375" customWidth="true"/>
+    <col min="38" max="38" width="2.7109375" customWidth="true"/>
+    <col min="39" max="39" width="2.7109375" customWidth="true"/>
+    <col min="40" max="40" width="2.7109375" customWidth="true"/>
+    <col min="42" max="42" width="16.7109375" customWidth="true"/>
+    <col min="46" max="46" width="15.7109375" customWidth="true"/>
+    <col min="47" max="47" width="15.7109375" customWidth="true"/>
+    <col min="48" max="48" width="15.7109375" customWidth="true"/>
+    <col min="49" max="49" width="15.7109375" customWidth="true"/>
+    <col min="52" max="52" width="15.7109375" customWidth="true"/>
+    <col min="53" max="53" width="15.7109375" customWidth="true"/>
+    <col min="54" max="54" width="15.7109375" customWidth="true"/>
+    <col min="55" max="55" width="15.7109375" customWidth="true"/>
+    <col min="56" max="56" width="15.7109375" customWidth="true"/>
+    <col min="57" max="57" width="15.7109375" customWidth="true"/>
+    <col min="58" max="58" width="15.7109375" customWidth="true"/>
+    <col min="59" max="59" width="15.7109375" customWidth="true"/>
+    <col min="60" max="60" width="15.7109375" customWidth="true"/>
+    <col min="61" max="61" width="15.7109375" customWidth="true"/>
+    <col min="62" max="62" width="15.7109375" customWidth="true"/>
+    <col min="63" max="63" width="15.7109375" customWidth="true"/>
+    <col min="64" max="64" width="15.7109375" customWidth="true"/>
+    <col min="66" max="66" width="16.7109375" customWidth="true"/>
+    <col min="67" max="67" width="16.7109375" customWidth="true"/>
+    <col min="68" max="68" width="16.7109375" customWidth="true"/>
+    <col min="70" max="70" width="2.7109375" customWidth="true"/>
+    <col min="71" max="71" width="2.7109375" customWidth="true"/>
+    <col min="72" max="72" width="2.7109375" customWidth="true"/>
+    <col min="73" max="73" width="2.7109375" customWidth="true"/>
+    <col min="74" max="74" width="2.7109375" customWidth="true"/>
+    <col min="75" max="75" width="2.7109375" customWidth="true"/>
+    <col min="76" max="76" width="2.7109375" customWidth="true"/>
+    <col min="77" max="77" width="2.7109375" customWidth="true"/>
+    <col min="78" max="78" width="2.7109375" customWidth="true"/>
+    <col min="79" max="79" width="2.7109375" customWidth="true"/>
+    <col min="80" max="80" width="2.7109375" customWidth="true"/>
+    <col min="81" max="81" width="2.7109375" customWidth="true"/>
+    <col min="83" max="83" width="16.7109375" customWidth="true"/>
+    <col min="84" max="84" width="16.7109375" customWidth="true"/>
+    <col min="89" max="89" width="16.7109375" customWidth="true"/>
+    <col min="90" max="90" width="16.7109375" customWidth="true"/>
+    <col min="91" max="91" width="16.7109375" customWidth="true"/>
+    <col min="92" max="92" width="16.7109375" customWidth="true"/>
+    <col min="95" max="95" width="16.7109375" customWidth="true"/>
+    <col min="96" max="96" width="16.7109375" customWidth="true"/>
+    <col min="97" max="97" width="16.7109375" customWidth="true"/>
+    <col min="98" max="98" width="16.7109375" customWidth="true"/>
+    <col min="99" max="99" width="16.7109375" customWidth="true"/>
+    <col min="100" max="100" width="16.7109375" customWidth="true"/>
+    <col min="101" max="101" width="16.7109375" customWidth="true"/>
+    <col min="102" max="102" width="16.7109375" customWidth="true"/>
+    <col min="103" max="103" width="16.7109375" customWidth="true"/>
+    <col min="104" max="104" width="16.7109375" customWidth="true"/>
+    <col min="105" max="105" width="16.7109375" customWidth="true"/>
+    <col min="106" max="106" width="16.7109375" customWidth="true"/>
+    <col min="107" max="107" width="16.7109375" customWidth="true"/>
+    <col min="108" max="108" width="16.7109375" customWidth="true"/>
+    <col min="109" max="109" width="16.7109375" customWidth="true"/>
+    <col min="110" max="110" width="16.7109375" customWidth="true"/>
+    <col min="112" max="112" width="15.7109375" customWidth="true"/>
+    <col min="113" max="113" width="15.7109375" customWidth="true"/>
+    <col min="114" max="114" width="15.7109375" customWidth="true"/>
+    <col min="116" max="116" width="14.7109375" customWidth="true"/>
+    <col min="117" max="117" width="14.7109375" customWidth="true"/>
+    <col min="118" max="118" width="14.7109375" customWidth="true"/>
+    <col min="119" max="119" width="14.7109375" customWidth="true"/>
+    <col min="120" max="120" width="14.7109375" customWidth="true"/>
+    <col min="121" max="121" width="14.7109375" customWidth="true"/>
+    <col min="122" max="122" width="14.7109375" customWidth="true"/>
+    <col min="123" max="123" width="14.7109375" customWidth="true"/>
+    <col min="124" max="124" width="14.7109375" customWidth="true"/>
+    <col min="125" max="125" width="14.7109375" customWidth="true"/>
+    <col min="126" max="126" width="14.7109375" customWidth="true"/>
+    <col min="127" max="127" width="14.7109375" customWidth="true"/>
+    <col min="128" max="128" width="14.7109375" customWidth="true"/>
+    <col min="134" max="134" width="15.7109375" customWidth="true"/>
+    <col min="135" max="135" width="15.7109375" customWidth="true"/>
+    <col min="136" max="136" width="15.7109375" customWidth="true"/>
+    <col min="138" max="138" width="16.7109375" customWidth="true"/>
+    <col min="140" max="140" width="2.7109375" customWidth="true"/>
+    <col min="143" max="143" width="16.7109375" customWidth="true"/>
+    <col min="144" max="144" width="16.7109375" customWidth="true"/>
+    <col min="145" max="145" width="16.7109375" customWidth="true"/>
+    <col min="146" max="146" width="16.7109375" customWidth="true"/>
+    <col min="147" max="147" width="16.7109375" customWidth="true"/>
+    <col min="148" max="148" width="16.7109375" customWidth="true"/>
+    <col min="152" max="152" width="15.7109375" customWidth="true"/>
+    <col min="153" max="153" width="15.7109375" customWidth="true"/>
+    <col min="154" max="154" width="15.7109375" customWidth="true"/>
+    <col min="156" max="156" width="16.7109375" customWidth="true"/>
+    <col min="157" max="157" width="16.7109375" customWidth="true"/>
+    <col min="158" max="158" width="16.7109375" customWidth="true"/>
+    <col min="159" max="159" width="16.7109375" customWidth="true"/>
+    <col min="161" max="161" width="15.7109375" customWidth="true"/>
+    <col min="162" max="162" width="15.7109375" customWidth="true"/>
+    <col min="163" max="163" width="15.7109375" customWidth="true"/>
+    <col min="165" max="165" width="16.7109375" customWidth="true"/>
+    <col min="166" max="166" width="16.7109375" customWidth="true"/>
+    <col min="168" max="168" width="15.7109375" customWidth="true"/>
+    <col min="169" max="169" width="15.7109375" customWidth="true"/>
+    <col min="170" max="170" width="15.7109375" customWidth="true"/>
+    <col min="171" max="171" width="15.7109375" customWidth="true"/>
+    <col min="172" max="172" width="15.7109375" customWidth="true"/>
+    <col min="174" max="174" width="14.7109375" customWidth="true"/>
+    <col min="175" max="175" width="14.7109375" customWidth="true"/>
+    <col min="176" max="176" width="15.7109375" customWidth="true"/>
+    <col min="177" max="177" width="15.7109375" customWidth="true"/>
+    <col min="178" max="178" width="14.7109375" customWidth="true"/>
+    <col min="179" max="179" width="14.7109375" customWidth="true"/>
+    <col min="181" max="181" width="16.7109375" customWidth="true"/>
+    <col min="182" max="182" width="16.7109375" customWidth="true"/>
+    <col min="183" max="183" width="16.7109375" customWidth="true"/>
+    <col min="185" max="185" width="15.7109375" customWidth="true"/>
+    <col min="186" max="186" width="15.7109375" customWidth="true"/>
+    <col min="187" max="187" width="15.7109375" customWidth="true"/>
+    <col min="188" max="188" width="15.7109375" customWidth="true"/>
+    <col min="190" max="190" width="16.7109375" customWidth="true"/>
+    <col min="192" max="192" width="15.7109375" customWidth="true"/>
+    <col min="193" max="193" width="15.7109375" customWidth="true"/>
+    <col min="194" max="194" width="15.7109375" customWidth="true"/>
+    <col min="195" max="195" width="15.7109375" customWidth="true"/>
+    <col min="196" max="196" width="15.7109375" customWidth="true"/>
+    <col min="197" max="197" width="15.7109375" customWidth="true"/>
+    <col min="200" max="200" width="15.7109375" customWidth="true"/>
+    <col min="201" max="201" width="15.7109375" customWidth="true"/>
+    <col min="202" max="202" width="15.7109375" customWidth="true"/>
+    <col min="203" max="203" width="15.7109375" customWidth="true"/>
+    <col min="204" max="204" width="15.7109375" customWidth="true"/>
+    <col min="205" max="205" width="15.7109375" customWidth="true"/>
+    <col min="206" max="206" width="15.7109375" customWidth="true"/>
+    <col min="208" max="208" width="16.7109375" customWidth="true"/>
+    <col min="209" max="209" width="16.7109375" customWidth="true"/>
+    <col min="210" max="210" width="16.7109375" customWidth="true"/>
+    <col min="212" max="212" width="15.7109375" customWidth="true"/>
+    <col min="214" max="214" width="16.7109375" customWidth="true"/>
+    <col min="215" max="215" width="16.7109375" customWidth="true"/>
+    <col min="216" max="216" width="16.7109375" customWidth="true"/>
+    <col min="217" max="217" width="16.7109375" customWidth="true"/>
+    <col min="218" max="218" width="16.7109375" customWidth="true"/>
+    <col min="221" max="221" width="16.7109375" customWidth="true"/>
+    <col min="222" max="222" width="16.7109375" customWidth="true"/>
+    <col min="223" max="223" width="16.7109375" customWidth="true"/>
+    <col min="224" max="224" width="16.7109375" customWidth="true"/>
+    <col min="225" max="225" width="16.7109375" customWidth="true"/>
+    <col min="226" max="226" width="16.7109375" customWidth="true"/>
+    <col min="227" max="227" width="16.7109375" customWidth="true"/>
+    <col min="229" max="229" width="15.7109375" customWidth="true"/>
+    <col min="230" max="230" width="15.7109375" customWidth="true"/>
+    <col min="231" max="231" width="15.7109375" customWidth="true"/>
+    <col min="232" max="232" width="15.7109375" customWidth="true"/>
+    <col min="234" max="234" width="16.7109375" customWidth="true"/>
+    <col min="235" max="235" width="16.7109375" customWidth="true"/>
+    <col min="236" max="236" width="16.7109375" customWidth="true"/>
+    <col min="237" max="237" width="16.7109375" customWidth="true"/>
+    <col min="240" max="240" width="16.7109375" customWidth="true"/>
+    <col min="241" max="241" width="16.7109375" customWidth="true"/>
+    <col min="242" max="242" width="16.7109375" customWidth="true"/>
+    <col min="243" max="243" width="16.7109375" customWidth="true"/>
+    <col min="244" max="244" width="16.7109375" customWidth="true"/>
+    <col min="245" max="245" width="16.7109375" customWidth="true"/>
+    <col min="246" max="246" width="16.7109375" customWidth="true"/>
+    <col min="247" max="247" width="16.7109375" customWidth="true"/>
+    <col min="248" max="248" width="16.7109375" customWidth="true"/>
+    <col min="249" max="249" width="16.7109375" customWidth="true"/>
+    <col min="250" max="250" width="16.7109375" customWidth="true"/>
+    <col min="251" max="251" width="16.7109375" customWidth="true"/>
+    <col min="252" max="252" width="16.7109375" customWidth="true"/>
+    <col min="253" max="253" width="16.7109375" customWidth="true"/>
+    <col min="255" max="255" width="15.7109375" customWidth="true"/>
+    <col min="256" max="256" width="15.7109375" customWidth="true"/>
+    <col min="257" max="257" width="15.7109375" customWidth="true"/>
+    <col min="258" max="258" width="16.7109375" customWidth="true"/>
+    <col min="259" max="259" width="16.7109375" customWidth="true"/>
+    <col min="260" max="260" width="15.7109375" customWidth="true"/>
+    <col min="261" max="261" width="15.7109375" customWidth="true"/>
+    <col min="262" max="262" width="15.7109375" customWidth="true"/>
+    <col min="263" max="263" width="15.7109375" customWidth="true"/>
+    <col min="264" max="264" width="15.7109375" customWidth="true"/>
+    <col min="265" max="265" width="15.7109375" customWidth="true"/>
+    <col min="266" max="266" width="15.7109375" customWidth="true"/>
+    <col min="267" max="267" width="15.7109375" customWidth="true"/>
+    <col min="268" max="268" width="15.7109375" customWidth="true"/>
+    <col min="269" max="269" width="15.7109375" customWidth="true"/>
+    <col min="270" max="270" width="15.7109375" customWidth="true"/>
+    <col min="271" max="271" width="15.7109375" customWidth="true"/>
+    <col min="272" max="272" width="15.7109375" customWidth="true"/>
+    <col min="273" max="273" width="15.7109375" customWidth="true"/>
+    <col min="274" max="274" width="15.7109375" customWidth="true"/>
+    <col min="275" max="275" width="15.7109375" customWidth="true"/>
+    <col min="276" max="276" width="15.7109375" customWidth="true"/>
+    <col min="277" max="277" width="15.7109375" customWidth="true"/>
+    <col min="278" max="278" width="15.7109375" customWidth="true"/>
+    <col min="279" max="279" width="16.7109375" customWidth="true"/>
+    <col min="280" max="280" width="15.7109375" customWidth="true"/>
+    <col min="281" max="281" width="15.7109375" customWidth="true"/>
+    <col min="282" max="282" width="15.7109375" customWidth="true"/>
+    <col min="283" max="283" width="15.7109375" customWidth="true"/>
+    <col min="284" max="284" width="15.7109375" customWidth="true"/>
+    <col min="285" max="285" width="15.7109375" customWidth="true"/>
+    <col min="286" max="286" width="15.7109375" customWidth="true"/>
+    <col min="287" max="287" width="15.7109375" customWidth="true"/>
+    <col min="288" max="288" width="15.7109375" customWidth="true"/>
+    <col min="289" max="289" width="15.7109375" customWidth="true"/>
+    <col min="290" max="290" width="15.7109375" customWidth="true"/>
+    <col min="291" max="291" width="15.7109375" customWidth="true"/>
+    <col min="292" max="292" width="15.7109375" customWidth="true"/>
+    <col min="293" max="293" width="15.7109375" customWidth="true"/>
+    <col min="295" max="295" width="16.7109375" customWidth="true"/>
+    <col min="296" max="296" width="16.7109375" customWidth="true"/>
+    <col min="297" max="297" width="16.7109375" customWidth="true"/>
+    <col min="298" max="298" width="16.7109375" customWidth="true"/>
+    <col min="299" max="299" width="16.7109375" customWidth="true"/>
+    <col min="300" max="300" width="16.7109375" customWidth="true"/>
+    <col min="301" max="301" width="16.7109375" customWidth="true"/>
+    <col min="302" max="302" width="16.7109375" customWidth="true"/>
+    <col min="303" max="303" width="16.7109375" customWidth="true"/>
+    <col min="304" max="304" width="16.7109375" customWidth="true"/>
+    <col min="307" max="307" width="16.7109375" customWidth="true"/>
+    <col min="308" max="308" width="16.7109375" customWidth="true"/>
+    <col min="309" max="309" width="16.7109375" customWidth="true"/>
+    <col min="310" max="310" width="16.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:310" x14ac:dyDescent="0.2">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:310" x14ac:dyDescent="0.2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:310" x14ac:dyDescent="0.2">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2439,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:310" x14ac:dyDescent="0.2">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3371,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:310" x14ac:dyDescent="0.2">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4303,7 +4556,7 @@
         <v>2.6392963074465387E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:310" x14ac:dyDescent="0.2">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5235,7 +5488,7 @@
         <v>3.3858164103940365E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:310" x14ac:dyDescent="0.2">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6167,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:310" x14ac:dyDescent="0.2">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7099,7 +7352,7 @@
         <v>2.6393190252737761E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:310" x14ac:dyDescent="0.2">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -8028,6 +8281,1870 @@
         <v>0</v>
       </c>
       <c r="KX9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.12675810545779323</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.86112159764413421</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.012120296898072484</v>
+      </c>
+      <c r="F10" s="0">
+        <v>195.17763388595836</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0">
+        <v>3.7479852837183216</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0.46461231766229572</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0.98939023844903295</v>
+      </c>
+      <c r="K10" s="0">
+        <v>0.03448843240441702</v>
+      </c>
+      <c r="L10" s="0">
+        <v>0.045337098144543522</v>
+      </c>
+      <c r="M10" s="0">
+        <v>0.03347618180549617</v>
+      </c>
+      <c r="N10" s="0">
+        <v>0.013078157938102282</v>
+      </c>
+      <c r="O10" s="0">
+        <v>0</v>
+      </c>
+      <c r="P10" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0">
+        <v>0</v>
+      </c>
+      <c r="V10" s="0">
+        <v>0</v>
+      </c>
+      <c r="W10" s="0">
+        <v>0</v>
+      </c>
+      <c r="X10" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="0">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CW10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CX10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="0">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DU10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DV10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DX10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="0">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="ER10" s="0">
+        <v>0</v>
+      </c>
+      <c r="ES10" s="0">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EU10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EV10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EW10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EX10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EY10" s="0">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FD10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FQ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FR10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FS10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FT10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FU10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FV10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FW10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FX10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FY10" s="0">
+        <v>0</v>
+      </c>
+      <c r="FZ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GD10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="GQ10" s="0">
+        <v>0.00098809230720129011</v>
+      </c>
+      <c r="GR10" s="0">
+        <v>0.0084804312922657724</v>
+      </c>
+      <c r="GS10" s="0">
+        <v>0.023458996296595605</v>
+      </c>
+      <c r="GT10" s="0">
+        <v>0.044004291832995944</v>
+      </c>
+      <c r="GU10" s="0">
+        <v>0.066653260520984109</v>
+      </c>
+      <c r="GV10" s="0">
+        <v>0.087492533996116839</v>
+      </c>
+      <c r="GW10" s="0">
+        <v>0.10299747497853086</v>
+      </c>
+      <c r="GX10" s="0">
+        <v>0.11062774594495868</v>
+      </c>
+      <c r="GY10" s="0">
+        <v>0.10919037711803756</v>
+      </c>
+      <c r="GZ10" s="0">
+        <v>0.098981499658302288</v>
+      </c>
+      <c r="HA10" s="0">
+        <v>0.081718060087228164</v>
+      </c>
+      <c r="HB10" s="0">
+        <v>0.060270940316996098</v>
+      </c>
+      <c r="HC10" s="0">
+        <v>0.0382109755912056</v>
+      </c>
+      <c r="HD10" s="0">
+        <v>0.01917939165740545</v>
+      </c>
+      <c r="HE10" s="0">
+        <v>0.0060941742176133093</v>
+      </c>
+      <c r="HF10" s="0">
+        <v>0.00020383985372543929</v>
+      </c>
+      <c r="HG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HQ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HR10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HS10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HT10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HU10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HV10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HW10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HX10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HY10" s="0">
+        <v>0</v>
+      </c>
+      <c r="HZ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="ID10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="II10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IQ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IR10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IS10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IT10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IU10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IV10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IW10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IX10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IY10" s="0">
+        <v>0</v>
+      </c>
+      <c r="IZ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JD10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JQ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JR10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JS10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JT10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JU10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JV10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JW10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JX10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JY10" s="0">
+        <v>0</v>
+      </c>
+      <c r="JZ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KA10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KB10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KC10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KD10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KE10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KF10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KG10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KH10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KJ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KK10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KL10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KM10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KN10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KO10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KP10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KQ10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KR10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KS10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KT10" s="0">
+        <v>0</v>
+      </c>
+      <c r="KU10" s="0">
+        <v>0.0008530400704241175</v>
+      </c>
+      <c r="KV10" s="0">
+        <v>0.0029417316500904736</v>
+      </c>
+      <c r="KW10" s="0">
+        <v>0.0045606345227619379</v>
+      </c>
+      <c r="KX10" s="0">
+        <v>0.0037287247426960996</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.029172953736922063</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.67770210024818578</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.29312494601489225</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0">
+        <v>189.43733384893719</v>
+      </c>
+      <c r="G11" s="0">
+        <v>5.8691587778529772</v>
+      </c>
+      <c r="H11" s="0">
+        <v>1.0503542901456222</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0.99452262749450526</v>
+      </c>
+      <c r="K11" s="0">
+        <v>0.0028549741638439958</v>
+      </c>
+      <c r="L11" s="0">
+        <v>0.0050594188125148458</v>
+      </c>
+      <c r="M11" s="0">
+        <v>0.0061551041686401286</v>
+      </c>
+      <c r="N11" s="0">
+        <v>0.0059900572341421363</v>
+      </c>
+      <c r="O11" s="0">
+        <v>0.0047571845410361979</v>
+      </c>
+      <c r="P11" s="0">
+        <v>0.0029500566689755502</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>0.001228108397313993</v>
+      </c>
+      <c r="R11" s="0">
+        <v>0.0001832886720007142</v>
+      </c>
+      <c r="S11" s="0">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0">
+        <v>0</v>
+      </c>
+      <c r="V11" s="0">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0">
+        <v>0</v>
+      </c>
+      <c r="X11" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="0">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CT11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CX11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="0">
+        <v>0</v>
+      </c>
+      <c r="CZ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DU11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DV11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DX11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="0">
+        <v>0</v>
+      </c>
+      <c r="DZ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EA11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EB11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="0">
+        <v>0</v>
+      </c>
+      <c r="ED11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EE11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EF11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EG11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EH11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EI11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EJ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EK11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EL11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EN11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EO11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EP11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EQ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="ER11" s="0">
+        <v>0</v>
+      </c>
+      <c r="ES11" s="0">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EU11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EV11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EW11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EX11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EY11" s="0">
+        <v>0</v>
+      </c>
+      <c r="EZ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FA11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FC11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FD11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FE11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FJ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FQ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FR11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FS11" s="0">
+        <v>0</v>
+      </c>
+      <c r="FT11" s="0">
+        <v>0.0017210641356524079</v>
+      </c>
+      <c r="FU11" s="0">
+        <v>0.0069328483715579052</v>
+      </c>
+      <c r="FV11" s="0">
+        <v>0.015788077486314354</v>
+      </c>
+      <c r="FW11" s="0">
+        <v>0.027394261144711187</v>
+      </c>
+      <c r="FX11" s="0">
+        <v>0.040284045106715426</v>
+      </c>
+      <c r="FY11" s="0">
+        <v>0.052791657506426858</v>
+      </c>
+      <c r="FZ11" s="0">
+        <v>0.063342746188487314</v>
+      </c>
+      <c r="GA11" s="0">
+        <v>0.070664719076811183</v>
+      </c>
+      <c r="GB11" s="0">
+        <v>0.073924497476387102</v>
+      </c>
+      <c r="GC11" s="0">
+        <v>0.072800374061815623</v>
+      </c>
+      <c r="GD11" s="0">
+        <v>0.067494435048119958</v>
+      </c>
+      <c r="GE11" s="0">
+        <v>0.058691761591945502</v>
+      </c>
+      <c r="GF11" s="0">
+        <v>0.047472370712482392</v>
+      </c>
+      <c r="GG11" s="0">
+        <v>0.035181592767183766</v>
+      </c>
+      <c r="GH11" s="0">
+        <v>0.02326431252465307</v>
+      </c>
+      <c r="GI11" s="0">
+        <v>0.013068225830409175</v>
+      </c>
+      <c r="GJ11" s="0">
+        <v>0.0056209853658790061</v>
+      </c>
+      <c r="GK11" s="0">
+        <v>0.0013858285834039436</v>
+      </c>
+      <c r="GL11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GN11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GO11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GP11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GQ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GR11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GS11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GT11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GU11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GV11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GW11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GX11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GY11" s="0">
+        <v>0</v>
+      </c>
+      <c r="GZ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HA11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HB11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HC11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HD11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HE11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HF11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HG11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HH11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HI11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HJ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HK11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HL11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HN11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HO11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HP11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HQ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HR11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HS11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HT11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HU11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HV11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HW11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HX11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HY11" s="0">
+        <v>0</v>
+      </c>
+      <c r="HZ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IA11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IB11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IC11" s="0">
+        <v>0</v>
+      </c>
+      <c r="ID11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IE11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IF11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IG11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IH11" s="0">
+        <v>0</v>
+      </c>
+      <c r="II11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IJ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IK11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IL11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IN11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IO11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IP11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IQ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IR11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IS11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IT11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IU11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IV11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IW11" s="0">
+        <v>0</v>
+      </c>
+      <c r="IX11" s="0">
+        <v>1.6720809932419976e-05</v>
+      </c>
+      <c r="IY11" s="0">
+        <v>0.00065343442506500201</v>
+      </c>
+      <c r="IZ11" s="0">
+        <v>0.0021905958759228842</v>
+      </c>
+      <c r="JA11" s="0">
+        <v>0.0046610667059048903</v>
+      </c>
+      <c r="JB11" s="0">
+        <v>0.0079179981927950879</v>
+      </c>
+      <c r="JC11" s="0">
+        <v>0.011695321976689562</v>
+      </c>
+      <c r="JD11" s="0">
+        <v>0.015660815768491682</v>
+      </c>
+      <c r="JE11" s="0">
+        <v>0.019461730806866199</v>
+      </c>
+      <c r="JF11" s="0">
+        <v>0.022762985710536057</v>
+      </c>
+      <c r="JG11" s="0">
+        <v>0.025277948341309846</v>
+      </c>
+      <c r="JH11" s="0">
+        <v>0.026791843261147127</v>
+      </c>
+      <c r="JI11" s="0">
+        <v>0.02717783734869712</v>
+      </c>
+      <c r="JJ11" s="0">
+        <v>0.026405870148102556</v>
+      </c>
+      <c r="JK11" s="0">
+        <v>0.024544308579049059</v>
+      </c>
+      <c r="JL11" s="0">
+        <v>0.02175451776043218</v>
+      </c>
+      <c r="JM11" s="0">
+        <v>0.018278450912763835</v>
+      </c>
+      <c r="JN11" s="0">
+        <v>0.014419371632239074</v>
+      </c>
+      <c r="JO11" s="0">
+        <v>0.010515831298410017</v>
+      </c>
+      <c r="JP11" s="0">
+        <v>0.0069090330136741896</v>
+      </c>
+      <c r="JQ11" s="0">
+        <v>0.0039037213061689237</v>
+      </c>
+      <c r="JR11" s="0">
+        <v>0.0017227438861989754</v>
+      </c>
+      <c r="JS11" s="0">
+        <v>0.00045543805946873073</v>
+      </c>
+      <c r="JT11" s="0">
+        <v>0</v>
+      </c>
+      <c r="JU11" s="0">
+        <v>0</v>
+      </c>
+      <c r="JV11" s="0">
+        <v>0</v>
+      </c>
+      <c r="JW11" s="0">
+        <v>0</v>
+      </c>
+      <c r="JX11" s="0">
+        <v>0</v>
+      </c>
+      <c r="JY11" s="0">
+        <v>0</v>
+      </c>
+      <c r="JZ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KA11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KB11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KC11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KD11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KE11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KF11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KG11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KH11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KI11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KJ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KK11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KL11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KN11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KO11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KP11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KQ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KR11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KS11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KT11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KU11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KV11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KW11" s="0">
+        <v>0</v>
+      </c>
+      <c r="KX11" s="0">
         <v>0</v>
       </c>
     </row>

--- a/RA_Spectra.xlsx
+++ b/RA_Spectra.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>example 3peak simpleCVNNLS lambda 0.1</t>
+  </si>
+  <si>
+    <t>anomalous 3peak simpleCVNNLS lambda 8</t>
+  </si>
+  <si>
+    <t>anomalous 3peak simpleCVNNLS lambda pt1</t>
+  </si>
+  <si>
+    <t>ideal 3peak simpleCVNNLS lambda 8</t>
+  </si>
+  <si>
+    <t>ideal 3peak simpleCVNNLS lambda pt1</t>
   </si>
 </sst>
 </file>
@@ -475,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3844B0-E6A7-2347-B8AB-DDFFDAAF3289}">
-  <dimension ref="A1:KX11"/>
+  <dimension ref="A1:KX15"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -483,57 +495,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="true"/>
+    <col min="1" max="1" width="40.7109375" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="13.7109375" customWidth="true"/>
     <col min="11" max="11" width="16.7109375" customWidth="true"/>
-    <col min="13" max="13" width="15.7109375" customWidth="true"/>
+    <col min="13" max="13" width="16.7109375" customWidth="true"/>
     <col min="23" max="23" width="16.7109375" customWidth="true"/>
     <col min="25" max="25" width="15.7109375" customWidth="true"/>
     <col min="26" max="26" width="16.7109375" customWidth="true"/>
-    <col min="36" max="36" width="2.7109375" customWidth="true"/>
+    <col min="36" max="36" width="15.7109375" customWidth="true"/>
     <col min="41" max="41" width="16.7109375" customWidth="true"/>
-    <col min="43" max="43" width="15.7109375" customWidth="true"/>
+    <col min="43" max="43" width="16.7109375" customWidth="true"/>
     <col min="44" max="44" width="16.7109375" customWidth="true"/>
     <col min="45" max="45" width="15.7109375" customWidth="true"/>
-    <col min="50" max="50" width="14.7109375" customWidth="true"/>
-    <col min="51" max="51" width="15.7109375" customWidth="true"/>
+    <col min="50" max="50" width="16.7109375" customWidth="true"/>
+    <col min="51" max="51" width="16.7109375" customWidth="true"/>
     <col min="65" max="65" width="16.7109375" customWidth="true"/>
-    <col min="69" max="69" width="2.7109375" customWidth="true"/>
+    <col min="69" max="69" width="16.7109375" customWidth="true"/>
     <col min="82" max="82" width="16.7109375" customWidth="true"/>
     <col min="85" max="85" width="15.7109375" customWidth="true"/>
     <col min="86" max="86" width="16.7109375" customWidth="true"/>
     <col min="87" max="87" width="15.7109375" customWidth="true"/>
     <col min="88" max="88" width="16.7109375" customWidth="true"/>
-    <col min="93" max="93" width="15.7109375" customWidth="true"/>
+    <col min="93" max="93" width="16.7109375" customWidth="true"/>
     <col min="94" max="94" width="16.7109375" customWidth="true"/>
     <col min="111" max="111" width="15.7109375" customWidth="true"/>
-    <col min="115" max="115" width="14.7109375" customWidth="true"/>
-    <col min="129" max="129" width="13.7109375" customWidth="true"/>
-    <col min="130" max="130" width="14.7109375" customWidth="true"/>
+    <col min="115" max="115" width="15.7109375" customWidth="true"/>
+    <col min="129" max="129" width="15.7109375" customWidth="true"/>
+    <col min="130" max="130" width="15.7109375" customWidth="true"/>
     <col min="131" max="131" width="15.7109375" customWidth="true"/>
-    <col min="132" max="132" width="13.7109375" customWidth="true"/>
-    <col min="133" max="133" width="15.7109375" customWidth="true"/>
+    <col min="132" max="132" width="15.7109375" customWidth="true"/>
+    <col min="133" max="133" width="16.7109375" customWidth="true"/>
     <col min="137" max="137" width="16.7109375" customWidth="true"/>
-    <col min="139" max="139" width="2.7109375" customWidth="true"/>
+    <col min="139" max="139" width="15.7109375" customWidth="true"/>
     <col min="141" max="141" width="15.7109375" customWidth="true"/>
     <col min="142" max="142" width="16.7109375" customWidth="true"/>
-    <col min="149" max="149" width="15.7109375" customWidth="true"/>
-    <col min="150" max="150" width="14.7109375" customWidth="true"/>
-    <col min="151" max="151" width="15.7109375" customWidth="true"/>
+    <col min="149" max="149" width="16.7109375" customWidth="true"/>
+    <col min="150" max="150" width="16.7109375" customWidth="true"/>
+    <col min="151" max="151" width="16.7109375" customWidth="true"/>
     <col min="155" max="155" width="16.7109375" customWidth="true"/>
     <col min="160" max="160" width="15.7109375" customWidth="true"/>
     <col min="164" max="164" width="16.7109375" customWidth="true"/>
     <col min="167" max="167" width="15.7109375" customWidth="true"/>
     <col min="173" max="173" width="14.7109375" customWidth="true"/>
     <col min="180" max="180" width="16.7109375" customWidth="true"/>
-    <col min="184" max="184" width="15.7109375" customWidth="true"/>
+    <col min="184" max="184" width="16.7109375" customWidth="true"/>
     <col min="189" max="189" width="16.7109375" customWidth="true"/>
-    <col min="191" max="191" width="15.7109375" customWidth="true"/>
-    <col min="198" max="198" width="14.7109375" customWidth="true"/>
+    <col min="191" max="191" width="16.7109375" customWidth="true"/>
+    <col min="198" max="198" width="16.7109375" customWidth="true"/>
     <col min="199" max="199" width="16.7109375" customWidth="true"/>
     <col min="207" max="207" width="16.7109375" customWidth="true"/>
     <col min="211" max="211" width="15.7109375" customWidth="true"/>
@@ -546,7 +558,7 @@
     <col min="239" max="239" width="16.7109375" customWidth="true"/>
     <col min="254" max="254" width="15.7109375" customWidth="true"/>
     <col min="294" max="294" width="16.7109375" customWidth="true"/>
-    <col min="305" max="305" width="15.7109375" customWidth="true"/>
+    <col min="305" max="305" width="16.7109375" customWidth="true"/>
     <col min="306" max="306" width="16.7109375" customWidth="true"/>
     <col min="311" max="311" width="2.6640625" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
@@ -554,15 +566,15 @@
     <col min="9" max="9" width="13.7109375" customWidth="true"/>
     <col min="10" max="10" width="13.7109375" customWidth="true"/>
     <col min="12" max="12" width="16.7109375" customWidth="true"/>
-    <col min="14" max="14" width="15.7109375" customWidth="true"/>
-    <col min="15" max="15" width="15.7109375" customWidth="true"/>
-    <col min="16" max="16" width="15.7109375" customWidth="true"/>
-    <col min="17" max="17" width="15.7109375" customWidth="true"/>
-    <col min="18" max="18" width="15.7109375" customWidth="true"/>
-    <col min="19" max="19" width="15.7109375" customWidth="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true"/>
-    <col min="22" max="22" width="15.7109375" customWidth="true"/>
+    <col min="14" max="14" width="16.7109375" customWidth="true"/>
+    <col min="15" max="15" width="16.7109375" customWidth="true"/>
+    <col min="16" max="16" width="16.7109375" customWidth="true"/>
+    <col min="17" max="17" width="16.7109375" customWidth="true"/>
+    <col min="18" max="18" width="16.7109375" customWidth="true"/>
+    <col min="19" max="19" width="16.7109375" customWidth="true"/>
+    <col min="20" max="20" width="16.7109375" customWidth="true"/>
+    <col min="21" max="21" width="16.7109375" customWidth="true"/>
+    <col min="22" max="22" width="16.7109375" customWidth="true"/>
     <col min="24" max="24" width="16.7109375" customWidth="true"/>
     <col min="27" max="27" width="16.7109375" customWidth="true"/>
     <col min="28" max="28" width="16.7109375" customWidth="true"/>
@@ -573,43 +585,43 @@
     <col min="33" max="33" width="16.7109375" customWidth="true"/>
     <col min="34" max="34" width="16.7109375" customWidth="true"/>
     <col min="35" max="35" width="16.7109375" customWidth="true"/>
-    <col min="37" max="37" width="2.7109375" customWidth="true"/>
-    <col min="38" max="38" width="2.7109375" customWidth="true"/>
-    <col min="39" max="39" width="2.7109375" customWidth="true"/>
-    <col min="40" max="40" width="2.7109375" customWidth="true"/>
+    <col min="37" max="37" width="15.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15.7109375" customWidth="true"/>
+    <col min="39" max="39" width="16.7109375" customWidth="true"/>
+    <col min="40" max="40" width="16.7109375" customWidth="true"/>
     <col min="42" max="42" width="16.7109375" customWidth="true"/>
-    <col min="46" max="46" width="15.7109375" customWidth="true"/>
-    <col min="47" max="47" width="15.7109375" customWidth="true"/>
-    <col min="48" max="48" width="15.7109375" customWidth="true"/>
-    <col min="49" max="49" width="15.7109375" customWidth="true"/>
-    <col min="52" max="52" width="15.7109375" customWidth="true"/>
-    <col min="53" max="53" width="15.7109375" customWidth="true"/>
-    <col min="54" max="54" width="15.7109375" customWidth="true"/>
-    <col min="55" max="55" width="15.7109375" customWidth="true"/>
-    <col min="56" max="56" width="15.7109375" customWidth="true"/>
-    <col min="57" max="57" width="15.7109375" customWidth="true"/>
-    <col min="58" max="58" width="15.7109375" customWidth="true"/>
-    <col min="59" max="59" width="15.7109375" customWidth="true"/>
-    <col min="60" max="60" width="15.7109375" customWidth="true"/>
-    <col min="61" max="61" width="15.7109375" customWidth="true"/>
-    <col min="62" max="62" width="15.7109375" customWidth="true"/>
-    <col min="63" max="63" width="15.7109375" customWidth="true"/>
-    <col min="64" max="64" width="15.7109375" customWidth="true"/>
+    <col min="46" max="46" width="16.7109375" customWidth="true"/>
+    <col min="47" max="47" width="16.7109375" customWidth="true"/>
+    <col min="48" max="48" width="16.7109375" customWidth="true"/>
+    <col min="49" max="49" width="16.7109375" customWidth="true"/>
+    <col min="52" max="52" width="16.7109375" customWidth="true"/>
+    <col min="53" max="53" width="16.7109375" customWidth="true"/>
+    <col min="54" max="54" width="16.7109375" customWidth="true"/>
+    <col min="55" max="55" width="16.7109375" customWidth="true"/>
+    <col min="56" max="56" width="16.7109375" customWidth="true"/>
+    <col min="57" max="57" width="16.7109375" customWidth="true"/>
+    <col min="58" max="58" width="16.7109375" customWidth="true"/>
+    <col min="59" max="59" width="16.7109375" customWidth="true"/>
+    <col min="60" max="60" width="16.7109375" customWidth="true"/>
+    <col min="61" max="61" width="16.7109375" customWidth="true"/>
+    <col min="62" max="62" width="16.7109375" customWidth="true"/>
+    <col min="63" max="63" width="16.7109375" customWidth="true"/>
+    <col min="64" max="64" width="16.7109375" customWidth="true"/>
     <col min="66" max="66" width="16.7109375" customWidth="true"/>
     <col min="67" max="67" width="16.7109375" customWidth="true"/>
     <col min="68" max="68" width="16.7109375" customWidth="true"/>
-    <col min="70" max="70" width="2.7109375" customWidth="true"/>
-    <col min="71" max="71" width="2.7109375" customWidth="true"/>
-    <col min="72" max="72" width="2.7109375" customWidth="true"/>
-    <col min="73" max="73" width="2.7109375" customWidth="true"/>
-    <col min="74" max="74" width="2.7109375" customWidth="true"/>
-    <col min="75" max="75" width="2.7109375" customWidth="true"/>
-    <col min="76" max="76" width="2.7109375" customWidth="true"/>
-    <col min="77" max="77" width="2.7109375" customWidth="true"/>
-    <col min="78" max="78" width="2.7109375" customWidth="true"/>
-    <col min="79" max="79" width="2.7109375" customWidth="true"/>
-    <col min="80" max="80" width="2.7109375" customWidth="true"/>
-    <col min="81" max="81" width="2.7109375" customWidth="true"/>
+    <col min="70" max="70" width="16.7109375" customWidth="true"/>
+    <col min="71" max="71" width="16.7109375" customWidth="true"/>
+    <col min="72" max="72" width="16.7109375" customWidth="true"/>
+    <col min="73" max="73" width="16.7109375" customWidth="true"/>
+    <col min="74" max="74" width="16.7109375" customWidth="true"/>
+    <col min="75" max="75" width="16.7109375" customWidth="true"/>
+    <col min="76" max="76" width="16.7109375" customWidth="true"/>
+    <col min="77" max="77" width="16.7109375" customWidth="true"/>
+    <col min="78" max="78" width="16.7109375" customWidth="true"/>
+    <col min="79" max="79" width="16.7109375" customWidth="true"/>
+    <col min="80" max="80" width="16.7109375" customWidth="true"/>
+    <col min="81" max="81" width="16.7109375" customWidth="true"/>
     <col min="83" max="83" width="16.7109375" customWidth="true"/>
     <col min="84" max="84" width="16.7109375" customWidth="true"/>
     <col min="89" max="89" width="16.7109375" customWidth="true"/>
@@ -635,40 +647,40 @@
     <col min="112" max="112" width="15.7109375" customWidth="true"/>
     <col min="113" max="113" width="15.7109375" customWidth="true"/>
     <col min="114" max="114" width="15.7109375" customWidth="true"/>
-    <col min="116" max="116" width="14.7109375" customWidth="true"/>
-    <col min="117" max="117" width="14.7109375" customWidth="true"/>
-    <col min="118" max="118" width="14.7109375" customWidth="true"/>
-    <col min="119" max="119" width="14.7109375" customWidth="true"/>
-    <col min="120" max="120" width="14.7109375" customWidth="true"/>
-    <col min="121" max="121" width="14.7109375" customWidth="true"/>
-    <col min="122" max="122" width="14.7109375" customWidth="true"/>
-    <col min="123" max="123" width="14.7109375" customWidth="true"/>
-    <col min="124" max="124" width="14.7109375" customWidth="true"/>
-    <col min="125" max="125" width="14.7109375" customWidth="true"/>
-    <col min="126" max="126" width="14.7109375" customWidth="true"/>
-    <col min="127" max="127" width="14.7109375" customWidth="true"/>
-    <col min="128" max="128" width="14.7109375" customWidth="true"/>
-    <col min="134" max="134" width="15.7109375" customWidth="true"/>
-    <col min="135" max="135" width="15.7109375" customWidth="true"/>
-    <col min="136" max="136" width="15.7109375" customWidth="true"/>
+    <col min="116" max="116" width="15.7109375" customWidth="true"/>
+    <col min="117" max="117" width="15.7109375" customWidth="true"/>
+    <col min="118" max="118" width="15.7109375" customWidth="true"/>
+    <col min="119" max="119" width="15.7109375" customWidth="true"/>
+    <col min="120" max="120" width="15.7109375" customWidth="true"/>
+    <col min="121" max="121" width="15.7109375" customWidth="true"/>
+    <col min="122" max="122" width="15.7109375" customWidth="true"/>
+    <col min="123" max="123" width="15.7109375" customWidth="true"/>
+    <col min="124" max="124" width="15.7109375" customWidth="true"/>
+    <col min="125" max="125" width="15.7109375" customWidth="true"/>
+    <col min="126" max="126" width="15.7109375" customWidth="true"/>
+    <col min="127" max="127" width="15.7109375" customWidth="true"/>
+    <col min="128" max="128" width="15.7109375" customWidth="true"/>
+    <col min="134" max="134" width="16.7109375" customWidth="true"/>
+    <col min="135" max="135" width="16.7109375" customWidth="true"/>
+    <col min="136" max="136" width="16.7109375" customWidth="true"/>
     <col min="138" max="138" width="16.7109375" customWidth="true"/>
-    <col min="140" max="140" width="2.7109375" customWidth="true"/>
+    <col min="140" max="140" width="15.7109375" customWidth="true"/>
     <col min="143" max="143" width="16.7109375" customWidth="true"/>
     <col min="144" max="144" width="16.7109375" customWidth="true"/>
     <col min="145" max="145" width="16.7109375" customWidth="true"/>
     <col min="146" max="146" width="16.7109375" customWidth="true"/>
     <col min="147" max="147" width="16.7109375" customWidth="true"/>
     <col min="148" max="148" width="16.7109375" customWidth="true"/>
-    <col min="152" max="152" width="15.7109375" customWidth="true"/>
-    <col min="153" max="153" width="15.7109375" customWidth="true"/>
-    <col min="154" max="154" width="15.7109375" customWidth="true"/>
+    <col min="152" max="152" width="16.7109375" customWidth="true"/>
+    <col min="153" max="153" width="16.7109375" customWidth="true"/>
+    <col min="154" max="154" width="16.7109375" customWidth="true"/>
     <col min="156" max="156" width="16.7109375" customWidth="true"/>
     <col min="157" max="157" width="16.7109375" customWidth="true"/>
     <col min="158" max="158" width="16.7109375" customWidth="true"/>
     <col min="159" max="159" width="16.7109375" customWidth="true"/>
-    <col min="161" max="161" width="15.7109375" customWidth="true"/>
-    <col min="162" max="162" width="15.7109375" customWidth="true"/>
-    <col min="163" max="163" width="15.7109375" customWidth="true"/>
+    <col min="161" max="161" width="16.7109375" customWidth="true"/>
+    <col min="162" max="162" width="16.7109375" customWidth="true"/>
+    <col min="163" max="163" width="16.7109375" customWidth="true"/>
     <col min="165" max="165" width="16.7109375" customWidth="true"/>
     <col min="166" max="166" width="16.7109375" customWidth="true"/>
     <col min="168" max="168" width="15.7109375" customWidth="true"/>
@@ -678,26 +690,26 @@
     <col min="172" max="172" width="15.7109375" customWidth="true"/>
     <col min="174" max="174" width="14.7109375" customWidth="true"/>
     <col min="175" max="175" width="14.7109375" customWidth="true"/>
-    <col min="176" max="176" width="15.7109375" customWidth="true"/>
-    <col min="177" max="177" width="15.7109375" customWidth="true"/>
-    <col min="178" max="178" width="14.7109375" customWidth="true"/>
-    <col min="179" max="179" width="14.7109375" customWidth="true"/>
+    <col min="176" max="176" width="16.7109375" customWidth="true"/>
+    <col min="177" max="177" width="16.7109375" customWidth="true"/>
+    <col min="178" max="178" width="16.7109375" customWidth="true"/>
+    <col min="179" max="179" width="16.7109375" customWidth="true"/>
     <col min="181" max="181" width="16.7109375" customWidth="true"/>
     <col min="182" max="182" width="16.7109375" customWidth="true"/>
     <col min="183" max="183" width="16.7109375" customWidth="true"/>
-    <col min="185" max="185" width="15.7109375" customWidth="true"/>
-    <col min="186" max="186" width="15.7109375" customWidth="true"/>
-    <col min="187" max="187" width="15.7109375" customWidth="true"/>
-    <col min="188" max="188" width="15.7109375" customWidth="true"/>
+    <col min="185" max="185" width="16.7109375" customWidth="true"/>
+    <col min="186" max="186" width="16.7109375" customWidth="true"/>
+    <col min="187" max="187" width="16.7109375" customWidth="true"/>
+    <col min="188" max="188" width="16.7109375" customWidth="true"/>
     <col min="190" max="190" width="16.7109375" customWidth="true"/>
-    <col min="192" max="192" width="15.7109375" customWidth="true"/>
-    <col min="193" max="193" width="15.7109375" customWidth="true"/>
-    <col min="194" max="194" width="15.7109375" customWidth="true"/>
-    <col min="195" max="195" width="15.7109375" customWidth="true"/>
-    <col min="196" max="196" width="15.7109375" customWidth="true"/>
-    <col min="197" max="197" width="15.7109375" customWidth="true"/>
-    <col min="200" max="200" width="15.7109375" customWidth="true"/>
-    <col min="201" max="201" width="15.7109375" customWidth="true"/>
+    <col min="192" max="192" width="16.7109375" customWidth="true"/>
+    <col min="193" max="193" width="16.7109375" customWidth="true"/>
+    <col min="194" max="194" width="16.7109375" customWidth="true"/>
+    <col min="195" max="195" width="16.7109375" customWidth="true"/>
+    <col min="196" max="196" width="16.7109375" customWidth="true"/>
+    <col min="197" max="197" width="16.7109375" customWidth="true"/>
+    <col min="200" max="200" width="16.7109375" customWidth="true"/>
+    <col min="201" max="201" width="16.7109375" customWidth="true"/>
     <col min="202" max="202" width="15.7109375" customWidth="true"/>
     <col min="203" max="203" width="15.7109375" customWidth="true"/>
     <col min="204" max="204" width="15.7109375" customWidth="true"/>
@@ -756,30 +768,30 @@
     <col min="267" max="267" width="15.7109375" customWidth="true"/>
     <col min="268" max="268" width="15.7109375" customWidth="true"/>
     <col min="269" max="269" width="15.7109375" customWidth="true"/>
-    <col min="270" max="270" width="15.7109375" customWidth="true"/>
+    <col min="270" max="270" width="16.7109375" customWidth="true"/>
     <col min="271" max="271" width="15.7109375" customWidth="true"/>
-    <col min="272" max="272" width="15.7109375" customWidth="true"/>
-    <col min="273" max="273" width="15.7109375" customWidth="true"/>
-    <col min="274" max="274" width="15.7109375" customWidth="true"/>
-    <col min="275" max="275" width="15.7109375" customWidth="true"/>
-    <col min="276" max="276" width="15.7109375" customWidth="true"/>
-    <col min="277" max="277" width="15.7109375" customWidth="true"/>
-    <col min="278" max="278" width="15.7109375" customWidth="true"/>
+    <col min="272" max="272" width="16.7109375" customWidth="true"/>
+    <col min="273" max="273" width="16.7109375" customWidth="true"/>
+    <col min="274" max="274" width="16.7109375" customWidth="true"/>
+    <col min="275" max="275" width="16.7109375" customWidth="true"/>
+    <col min="276" max="276" width="16.7109375" customWidth="true"/>
+    <col min="277" max="277" width="16.7109375" customWidth="true"/>
+    <col min="278" max="278" width="16.7109375" customWidth="true"/>
     <col min="279" max="279" width="16.7109375" customWidth="true"/>
-    <col min="280" max="280" width="15.7109375" customWidth="true"/>
-    <col min="281" max="281" width="15.7109375" customWidth="true"/>
-    <col min="282" max="282" width="15.7109375" customWidth="true"/>
-    <col min="283" max="283" width="15.7109375" customWidth="true"/>
-    <col min="284" max="284" width="15.7109375" customWidth="true"/>
-    <col min="285" max="285" width="15.7109375" customWidth="true"/>
-    <col min="286" max="286" width="15.7109375" customWidth="true"/>
-    <col min="287" max="287" width="15.7109375" customWidth="true"/>
-    <col min="288" max="288" width="15.7109375" customWidth="true"/>
-    <col min="289" max="289" width="15.7109375" customWidth="true"/>
-    <col min="290" max="290" width="15.7109375" customWidth="true"/>
-    <col min="291" max="291" width="15.7109375" customWidth="true"/>
-    <col min="292" max="292" width="15.7109375" customWidth="true"/>
-    <col min="293" max="293" width="15.7109375" customWidth="true"/>
+    <col min="280" max="280" width="16.7109375" customWidth="true"/>
+    <col min="281" max="281" width="16.7109375" customWidth="true"/>
+    <col min="282" max="282" width="16.7109375" customWidth="true"/>
+    <col min="283" max="283" width="16.7109375" customWidth="true"/>
+    <col min="284" max="284" width="16.7109375" customWidth="true"/>
+    <col min="285" max="285" width="16.7109375" customWidth="true"/>
+    <col min="286" max="286" width="16.7109375" customWidth="true"/>
+    <col min="287" max="287" width="16.7109375" customWidth="true"/>
+    <col min="288" max="288" width="16.7109375" customWidth="true"/>
+    <col min="289" max="289" width="16.7109375" customWidth="true"/>
+    <col min="290" max="290" width="16.7109375" customWidth="true"/>
+    <col min="291" max="291" width="16.7109375" customWidth="true"/>
+    <col min="292" max="292" width="16.7109375" customWidth="true"/>
+    <col min="293" max="293" width="16.7109375" customWidth="true"/>
     <col min="295" max="295" width="16.7109375" customWidth="true"/>
     <col min="296" max="296" width="16.7109375" customWidth="true"/>
     <col min="297" max="297" width="16.7109375" customWidth="true"/>
@@ -10148,6 +10160,3734 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.03607438035521611</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.33294340680591067</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.63098221283887312</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0">
+        <v>133.50742117791964</v>
+      </c>
+      <c r="G12" s="0">
+        <v>26.37669831634269</v>
+      </c>
+      <c r="H12" s="0">
+        <v>2.1407367412919558</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0.99999929214412486</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0.00011141332016544323</v>
+      </c>
+      <c r="L12" s="0">
+        <v>0.00022178222173578968</v>
+      </c>
+      <c r="M12" s="0">
+        <v>0.00033013908402017918</v>
+      </c>
+      <c r="N12" s="0">
+        <v>0.00043559256598308305</v>
+      </c>
+      <c r="O12" s="0">
+        <v>0.00053732701331682213</v>
+      </c>
+      <c r="P12" s="0">
+        <v>0.00063460178571918941</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>0.0007267504992699101</v>
+      </c>
+      <c r="R12" s="0">
+        <v>0.00081318017885077809</v>
+      </c>
+      <c r="S12" s="0">
+        <v>0.00089337031564753133</v>
+      </c>
+      <c r="T12" s="0">
+        <v>0.00096687182491085025</v>
+      </c>
+      <c r="U12" s="0">
+        <v>0.0010333058993416918</v>
+      </c>
+      <c r="V12" s="0">
+        <v>0.0010923627537018934</v>
+      </c>
+      <c r="W12" s="0">
+        <v>0.0011438002565397217</v>
+      </c>
+      <c r="X12" s="0">
+        <v>0.0011874424452592086</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>0.0012231779211550186</v>
+      </c>
+      <c r="Z12" s="0">
+        <v>0.0012509581214790572</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>0.0012707954661024575</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>0.0012827613768841035</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>0.0012869841684540878</v>
+      </c>
+      <c r="AD12" s="0">
+        <v>0.0012836468097646666</v>
+      </c>
+      <c r="AE12" s="0">
+        <v>0.0012729845564495676</v>
+      </c>
+      <c r="AF12" s="0">
+        <v>0.0012552824547617037</v>
+      </c>
+      <c r="AG12" s="0">
+        <v>0.0012308727186253665</v>
+      </c>
+      <c r="AH12" s="0">
+        <v>0.001200131982137666</v>
+      </c>
+      <c r="AI12" s="0">
+        <v>0.0011634784306798938</v>
+      </c>
+      <c r="AJ12" s="0">
+        <v>0.00112136881464784</v>
+      </c>
+      <c r="AK12" s="0">
+        <v>0.0010742953506743768</v>
+      </c>
+      <c r="AL12" s="0">
+        <v>0.0010227825160923291</v>
+      </c>
+      <c r="AM12" s="0">
+        <v>0.00096738374326369814</v>
+      </c>
+      <c r="AN12" s="0">
+        <v>0.00090867802127640588</v>
+      </c>
+      <c r="AO12" s="0">
+        <v>0.00084726641337437168</v>
+      </c>
+      <c r="AP12" s="0">
+        <v>0.0007837684993344475</v>
+      </c>
+      <c r="AQ12" s="0">
+        <v>0.00071881875282682451</v>
+      </c>
+      <c r="AR12" s="0">
+        <v>0.00065306286458717544</v>
+      </c>
+      <c r="AS12" s="0">
+        <v>0.00058715402298169911</v>
+      </c>
+      <c r="AT12" s="0">
+        <v>0.00052174916425348165</v>
+      </c>
+      <c r="AU12" s="0">
+        <v>0.00045750520539370772</v>
+      </c>
+      <c r="AV12" s="0">
+        <v>0.00039507527317702494</v>
+      </c>
+      <c r="AW12" s="0">
+        <v>0.00033510494343173895</v>
+      </c>
+      <c r="AX12" s="0">
+        <v>0.00027822850507556595</v>
+      </c>
+      <c r="AY12" s="0">
+        <v>0.00022506526383192897</v>
+      </c>
+      <c r="AZ12" s="0">
+        <v>0.00017621590084489173</v>
+      </c>
+      <c r="BA12" s="0">
+        <v>0.00013225890162889956</v>
+      </c>
+      <c r="BB12" s="0">
+        <v>9.3747070918404499e-05</v>
+      </c>
+      <c r="BC12" s="0">
+        <v>6.1204149019613685e-05</v>
+      </c>
+      <c r="BD12" s="0">
+        <v>3.5121545208801701e-05</v>
+      </c>
+      <c r="BE12" s="0">
+        <v>1.5955203568095718e-05</v>
+      </c>
+      <c r="BF12" s="0">
+        <v>4.1226163983664863e-06</v>
+      </c>
+      <c r="BG12" s="0">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="0">
+        <v>3.9196471659432318e-06</v>
+      </c>
+      <c r="BI12" s="0">
+        <v>1.6312382726061468e-05</v>
+      </c>
+      <c r="BJ12" s="0">
+        <v>3.7560397695297693e-05</v>
+      </c>
+      <c r="BK12" s="0">
+        <v>6.7995212072276368e-05</v>
+      </c>
+      <c r="BL12" s="0">
+        <v>0.0001078958653671313</v>
+      </c>
+      <c r="BM12" s="0">
+        <v>0.00015748734557064647</v>
+      </c>
+      <c r="BN12" s="0">
+        <v>0.00021693926629191111</v>
+      </c>
+      <c r="BO12" s="0">
+        <v>0.00028636480073087001</v>
+      </c>
+      <c r="BP12" s="0">
+        <v>0.0003658198800211603</v>
+      </c>
+      <c r="BQ12" s="0">
+        <v>0.00045530266228335255</v>
+      </c>
+      <c r="BR12" s="0">
+        <v>0.00055475327747605706</v>
+      </c>
+      <c r="BS12" s="0">
+        <v>0.00066405385182915491</v>
+      </c>
+      <c r="BT12" s="0">
+        <v>0.00078302881429731183</v>
+      </c>
+      <c r="BU12" s="0">
+        <v>0.00091144548609072202</v>
+      </c>
+      <c r="BV12" s="0">
+        <v>0.0010490149529316093</v>
+      </c>
+      <c r="BW12" s="0">
+        <v>0.0011953932182582837</v>
+      </c>
+      <c r="BX12" s="0">
+        <v>0.0013501826341612104</v>
+      </c>
+      <c r="BY12" s="0">
+        <v>0.00151293360539727</v>
+      </c>
+      <c r="BZ12" s="0">
+        <v>0.0016831465603967572</v>
+      </c>
+      <c r="CA12" s="0">
+        <v>0.0018602741817625268</v>
+      </c>
+      <c r="CB12" s="0">
+        <v>0.0020437238873698069</v>
+      </c>
+      <c r="CC12" s="0">
+        <v>0.0022328605518173693</v>
+      </c>
+      <c r="CD12" s="0">
+        <v>0.0024270094566645898</v>
+      </c>
+      <c r="CE12" s="0">
+        <v>0.0026254594566220489</v>
+      </c>
+      <c r="CF12" s="0">
+        <v>0.0028274663476537719</v>
+      </c>
+      <c r="CG12" s="0">
+        <v>0.003032256421804404</v>
+      </c>
+      <c r="CH12" s="0">
+        <v>0.0032390301924912247</v>
+      </c>
+      <c r="CI12" s="0">
+        <v>0.0034469662730059192</v>
+      </c>
+      <c r="CJ12" s="0">
+        <v>0.0036552253900603293</v>
+      </c>
+      <c r="CK12" s="0">
+        <v>0.0038629545133887643</v>
+      </c>
+      <c r="CL12" s="0">
+        <v>0.0040692910816931783</v>
+      </c>
+      <c r="CM12" s="0">
+        <v>0.0042733673045892038</v>
+      </c>
+      <c r="CN12" s="0">
+        <v>0.0044743145196854397</v>
+      </c>
+      <c r="CO12" s="0">
+        <v>0.0046712675835079501</v>
+      </c>
+      <c r="CP12" s="0">
+        <v>0.0048633692746687992</v>
+      </c>
+      <c r="CQ12" s="0">
+        <v>0.0050497746874734939</v>
+      </c>
+      <c r="CR12" s="0">
+        <v>0.0052296555940677591</v>
+      </c>
+      <c r="CS12" s="0">
+        <v>0.0054022047532395825</v>
+      </c>
+      <c r="CT12" s="0">
+        <v>0.0055666401441173165</v>
+      </c>
+      <c r="CU12" s="0">
+        <v>0.0057222091032372259</v>
+      </c>
+      <c r="CV12" s="0">
+        <v>0.0058681923437928496</v>
+      </c>
+      <c r="CW12" s="0">
+        <v>0.0060039078363207012</v>
+      </c>
+      <c r="CX12" s="0">
+        <v>0.0061287145306193769</v>
+      </c>
+      <c r="CY12" s="0">
+        <v>0.0062420158993383608</v>
+      </c>
+      <c r="CZ12" s="0">
+        <v>0.0063432632844041235</v>
+      </c>
+      <c r="DA12" s="0">
+        <v>0.006431959028269844</v>
+      </c>
+      <c r="DB12" s="0">
+        <v>0.0065076593728763728</v>
+      </c>
+      <c r="DC12" s="0">
+        <v>0.0065699771101898436</v>
+      </c>
+      <c r="DD12" s="0">
+        <v>0.0066185839692297615</v>
+      </c>
+      <c r="DE12" s="0">
+        <v>0.00665321272561426</v>
+      </c>
+      <c r="DF12" s="0">
+        <v>0.0066736590208205313</v>
+      </c>
+      <c r="DG12" s="0">
+        <v>0.0066797828795804341</v>
+      </c>
+      <c r="DH12" s="0">
+        <v>0.006671509915098274</v>
+      </c>
+      <c r="DI12" s="0">
+        <v>0.0066488322130822787</v>
+      </c>
+      <c r="DJ12" s="0">
+        <v>0.0066118088869165795</v>
+      </c>
+      <c r="DK12" s="0">
+        <v>0.0065605662976596915</v>
+      </c>
+      <c r="DL12" s="0">
+        <v>0.0064952979339317346</v>
+      </c>
+      <c r="DM12" s="0">
+        <v>0.0064162639481393337</v>
+      </c>
+      <c r="DN12" s="0">
+        <v>0.0063237903468775798</v>
+      </c>
+      <c r="DO12" s="0">
+        <v>0.0062182678347362129</v>
+      </c>
+      <c r="DP12" s="0">
+        <v>0.0061001503121164632</v>
+      </c>
+      <c r="DQ12" s="0">
+        <v>0.0059699530290292999</v>
+      </c>
+      <c r="DR12" s="0">
+        <v>0.0058282503981902803</v>
+      </c>
+      <c r="DS12" s="0">
+        <v>0.0056756734720445042</v>
+      </c>
+      <c r="DT12" s="0">
+        <v>0.0055129070896430266</v>
+      </c>
+      <c r="DU12" s="0">
+        <v>0.0053406867005447011</v>
+      </c>
+      <c r="DV12" s="0">
+        <v>0.0051597948741296772</v>
+      </c>
+      <c r="DW12" s="0">
+        <v>0.0049710575038795389</v>
+      </c>
+      <c r="DX12" s="0">
+        <v>0.0047753397173001229</v>
+      </c>
+      <c r="DY12" s="0">
+        <v>0.0045735415032328898</v>
+      </c>
+      <c r="DZ12" s="0">
+        <v>0.0043665930693167045</v>
+      </c>
+      <c r="EA12" s="0">
+        <v>0.0041554499433206389</v>
+      </c>
+      <c r="EB12" s="0">
+        <v>0.0039410878329683534</v>
+      </c>
+      <c r="EC12" s="0">
+        <v>0.0037244972597128751</v>
+      </c>
+      <c r="ED12" s="0">
+        <v>0.003506677982695737</v>
+      </c>
+      <c r="EE12" s="0">
+        <v>0.0032886332298349289</v>
+      </c>
+      <c r="EF12" s="0">
+        <v>0.0030713637536304533</v>
+      </c>
+      <c r="EG12" s="0">
+        <v>0.0028558617298537355</v>
+      </c>
+      <c r="EH12" s="0">
+        <v>0.0026431045177969428</v>
+      </c>
+      <c r="EI12" s="0">
+        <v>0.0024340483011994003</v>
+      </c>
+      <c r="EJ12" s="0">
+        <v>0.0022296216293413488</v>
+      </c>
+      <c r="EK12" s="0">
+        <v>0.0020307188780990643</v>
+      </c>
+      <c r="EL12" s="0">
+        <v>0.0018381936509908037</v>
+      </c>
+      <c r="EM12" s="0">
+        <v>0.0016528521404100128</v>
+      </c>
+      <c r="EN12" s="0">
+        <v>0.0014754464693410173</v>
+      </c>
+      <c r="EO12" s="0">
+        <v>0.0013066680338839009</v>
+      </c>
+      <c r="EP12" s="0">
+        <v>0.0011471408668798618</v>
+      </c>
+      <c r="EQ12" s="0">
+        <v>0.00099741504282733172</v>
+      </c>
+      <c r="ER12" s="0">
+        <v>0.00085796014411280758</v>
+      </c>
+      <c r="ES12" s="0">
+        <v>0.0007291588083506807</v>
+      </c>
+      <c r="ET12" s="0">
+        <v>0.0006113003763338462</v>
+      </c>
+      <c r="EU12" s="0">
+        <v>0.00050457465974342497</v>
+      </c>
+      <c r="EV12" s="0">
+        <v>0.00040906584735284692</v>
+      </c>
+      <c r="EW12" s="0">
+        <v>0.00032474656799051546</v>
+      </c>
+      <c r="EX12" s="0">
+        <v>0.00025147212799788679</v>
+      </c>
+      <c r="EY12" s="0">
+        <v>0.00018897494033856711</v>
+      </c>
+      <c r="EZ12" s="0">
+        <v>0.00013685916188004306</v>
+      </c>
+      <c r="FA12" s="0">
+        <v>9.4595554685954542e-05</v>
+      </c>
+      <c r="FB12" s="0">
+        <v>6.1516586425293469e-05</v>
+      </c>
+      <c r="FC12" s="0">
+        <v>3.6811784228020736e-05</v>
+      </c>
+      <c r="FD12" s="0">
+        <v>1.9523355496949948e-05</v>
+      </c>
+      <c r="FE12" s="0">
+        <v>8.542088326469596e-06</v>
+      </c>
+      <c r="FF12" s="0">
+        <v>2.603543281603505e-06</v>
+      </c>
+      <c r="FG12" s="0">
+        <v>2.8454736028832837e-07</v>
+      </c>
+      <c r="FH12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FI12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FJ12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FK12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FL12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FM12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FO12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FP12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FQ12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FR12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FS12" s="0">
+        <v>0</v>
+      </c>
+      <c r="FT12" s="0">
+        <v>1.1463888259873763e-06</v>
+      </c>
+      <c r="FU12" s="0">
+        <v>5.4954078612919379e-06</v>
+      </c>
+      <c r="FV12" s="0">
+        <v>1.4932480008433736e-05</v>
+      </c>
+      <c r="FW12" s="0">
+        <v>3.1174171062141852e-05</v>
+      </c>
+      <c r="FX12" s="0">
+        <v>5.5770478407357515e-05</v>
+      </c>
+      <c r="FY12" s="0">
+        <v>9.0107439263268252e-05</v>
+      </c>
+      <c r="FZ12" s="0">
+        <v>0.0001354100497923102</v>
+      </c>
+      <c r="GA12" s="0">
+        <v>0.00019274548552819585</v>
+      </c>
+      <c r="GB12" s="0">
+        <v>0.00026302661275200124</v>
+      </c>
+      <c r="GC12" s="0">
+        <v>0.00034701577966288747</v>
+      </c>
+      <c r="GD12" s="0">
+        <v>0.00044532887545255706</v>
+      </c>
+      <c r="GE12" s="0">
+        <v>0.00055843964470213574</v>
+      </c>
+      <c r="GF12" s="0">
+        <v>0.00068668424387897302</v>
+      </c>
+      <c r="GG12" s="0">
+        <v>0.0008302660261202548</v>
+      </c>
+      <c r="GH12" s="0">
+        <v>0.00098926053995213666</v>
+      </c>
+      <c r="GI12" s="0">
+        <v>0.0011636207271083544</v>
+      </c>
+      <c r="GJ12" s="0">
+        <v>0.0013531823041816153</v>
+      </c>
+      <c r="GK12" s="0">
+        <v>0.0015576693124656818</v>
+      </c>
+      <c r="GL12" s="0">
+        <v>0.0017766998200258049</v>
+      </c>
+      <c r="GM12" s="0">
+        <v>0.0020097917597706712</v>
+      </c>
+      <c r="GN12" s="0">
+        <v>0.0022563688870896976</v>
+      </c>
+      <c r="GO12" s="0">
+        <v>0.0025157668404652265</v>
+      </c>
+      <c r="GP12" s="0">
+        <v>0.0027872392883693908</v>
+      </c>
+      <c r="GQ12" s="0">
+        <v>0.0030699641457090907</v>
+      </c>
+      <c r="GR12" s="0">
+        <v>0.0033630498430886496</v>
+      </c>
+      <c r="GS12" s="0">
+        <v>0.0036655416322171471</v>
+      </c>
+      <c r="GT12" s="0">
+        <v>0.0039764279108943992</v>
+      </c>
+      <c r="GU12" s="0">
+        <v>0.0042946465511647311</v>
+      </c>
+      <c r="GV12" s="0">
+        <v>0.0046190912144290436</v>
+      </c>
+      <c r="GW12" s="0">
+        <v>0.0049486176375513882</v>
+      </c>
+      <c r="GX12" s="0">
+        <v>0.0052820498742838628</v>
+      </c>
+      <c r="GY12" s="0">
+        <v>0.0056181864766615278</v>
+      </c>
+      <c r="GZ12" s="0">
+        <v>0.0059558066013842455</v>
+      </c>
+      <c r="HA12" s="0">
+        <v>0.0062936760266027363</v>
+      </c>
+      <c r="HB12" s="0">
+        <v>0.0066305530649594813</v>
+      </c>
+      <c r="HC12" s="0">
+        <v>0.0069651943591981401</v>
+      </c>
+      <c r="HD12" s="0">
+        <v>0.0072963605471461305</v>
+      </c>
+      <c r="HE12" s="0">
+        <v>0.007622821783390802</v>
+      </c>
+      <c r="HF12" s="0">
+        <v>0.0079433631055075785</v>
+      </c>
+      <c r="HG12" s="0">
+        <v>0.0082567896332563957</v>
+      </c>
+      <c r="HH12" s="0">
+        <v>0.0085619315897376806</v>
+      </c>
+      <c r="HI12" s="0">
+        <v>0.0088576491340886382</v>
+      </c>
+      <c r="HJ12" s="0">
+        <v>0.0091428369959021018</v>
+      </c>
+      <c r="HK12" s="0">
+        <v>0.0094164289021614923</v>
+      </c>
+      <c r="HL12" s="0">
+        <v>0.009677401788103699</v>
+      </c>
+      <c r="HM12" s="0">
+        <v>0.0099247797840449452</v>
+      </c>
+      <c r="HN12" s="0">
+        <v>0.010157637970830464</v>
+      </c>
+      <c r="HO12" s="0">
+        <v>0.010375105897195144</v>
+      </c>
+      <c r="HP12" s="0">
+        <v>0.010576370852946796</v>
+      </c>
+      <c r="HQ12" s="0">
+        <v>0.010760680892505</v>
+      </c>
+      <c r="HR12" s="0">
+        <v>0.010927347603944058</v>
+      </c>
+      <c r="HS12" s="0">
+        <v>0.011075748619297008</v>
+      </c>
+      <c r="HT12" s="0">
+        <v>0.011205329862477178</v>
+      </c>
+      <c r="HU12" s="0">
+        <v>0.011315607531763113</v>
+      </c>
+      <c r="HV12" s="0">
+        <v>0.011406169814370091</v>
+      </c>
+      <c r="HW12" s="0">
+        <v>0.011476678331195688</v>
+      </c>
+      <c r="HX12" s="0">
+        <v>0.011526869310377216</v>
+      </c>
+      <c r="HY12" s="0">
+        <v>0.01155655448883303</v>
+      </c>
+      <c r="HZ12" s="0">
+        <v>0.011565621741478654</v>
+      </c>
+      <c r="IA12" s="0">
+        <v>0.011554035438309147</v>
+      </c>
+      <c r="IB12" s="0">
+        <v>0.011521836530022825</v>
+      </c>
+      <c r="IC12" s="0">
+        <v>0.011469142363325751</v>
+      </c>
+      <c r="ID12" s="0">
+        <v>0.011396146227502048</v>
+      </c>
+      <c r="IE12" s="0">
+        <v>0.011303116634260726</v>
+      </c>
+      <c r="IF12" s="0">
+        <v>0.011190396333275723</v>
+      </c>
+      <c r="IG12" s="0">
+        <v>0.011058401066221567</v>
+      </c>
+      <c r="IH12" s="0">
+        <v>0.010907618062472252</v>
+      </c>
+      <c r="II12" s="0">
+        <v>0.010738604279975729</v>
+      </c>
+      <c r="IJ12" s="0">
+        <v>0.010551984395140651</v>
+      </c>
+      <c r="IK12" s="0">
+        <v>0.010348448545875926</v>
+      </c>
+      <c r="IL12" s="0">
+        <v>0.010128749832206872</v>
+      </c>
+      <c r="IM12" s="0">
+        <v>0.0098937015791551626</v>
+      </c>
+      <c r="IN12" s="0">
+        <v>0.0096441743668130315</v>
+      </c>
+      <c r="IO12" s="0">
+        <v>0.0093810928327660061</v>
+      </c>
+      <c r="IP12" s="0">
+        <v>0.0091054322522225936</v>
+      </c>
+      <c r="IQ12" s="0">
+        <v>0.0088182149013949739</v>
+      </c>
+      <c r="IR12" s="0">
+        <v>0.0085205062098417488</v>
+      </c>
+      <c r="IS12" s="0">
+        <v>0.0082134107076325385</v>
+      </c>
+      <c r="IT12" s="0">
+        <v>0.007898067773325761</v>
+      </c>
+      <c r="IU12" s="0">
+        <v>0.0075756471888653257</v>
+      </c>
+      <c r="IV12" s="0">
+        <v>0.0072473445075997766</v>
+      </c>
+      <c r="IW12" s="0">
+        <v>0.0069143762417094041</v>
+      </c>
+      <c r="IX12" s="0">
+        <v>0.006577974875393593</v>
+      </c>
+      <c r="IY12" s="0">
+        <v>0.0062393837102225815</v>
+      </c>
+      <c r="IZ12" s="0">
+        <v>0.0058998515490955201</v>
+      </c>
+      <c r="JA12" s="0">
+        <v>0.005560627225271059</v>
+      </c>
+      <c r="JB12" s="0">
+        <v>0.005222953982948168</v>
+      </c>
+      <c r="JC12" s="0">
+        <v>0.0048880637158738097</v>
+      </c>
+      <c r="JD12" s="0">
+        <v>0.0045571710704418074</v>
+      </c>
+      <c r="JE12" s="0">
+        <v>0.0042314674197235285</v>
+      </c>
+      <c r="JF12" s="0">
+        <v>0.0039121147148369131</v>
+      </c>
+      <c r="JG12" s="0">
+        <v>0.0036002392200168965</v>
+      </c>
+      <c r="JH12" s="0">
+        <v>0.0032969251376969537</v>
+      </c>
+      <c r="JI12" s="0">
+        <v>0.0030032081298500854</v>
+      </c>
+      <c r="JJ12" s="0">
+        <v>0.0027200687417677991</v>
+      </c>
+      <c r="JK12" s="0">
+        <v>0.0024484257343784796</v>
+      </c>
+      <c r="JL12" s="0">
+        <v>0.0021891293311224907</v>
+      </c>
+      <c r="JM12" s="0">
+        <v>0.0019429543853109331</v>
+      </c>
+      <c r="JN12" s="0">
+        <v>0.0017105934737986553</v>
+      </c>
+      <c r="JO12" s="0">
+        <v>0.0014926499227004334</v>
+      </c>
+      <c r="JP12" s="0">
+        <v>0.0012896307707728836</v>
+      </c>
+      <c r="JQ12" s="0">
+        <v>0.0011019396759735709</v>
+      </c>
+      <c r="JR12" s="0">
+        <v>0.00092986977059413185</v>
+      </c>
+      <c r="JS12" s="0">
+        <v>0.00077359647024587358</v>
+      </c>
+      <c r="JT12" s="0">
+        <v>0.00063317024185496494</v>
+      </c>
+      <c r="JU12" s="0">
+        <v>0.00050850933570044149</v>
+      </c>
+      <c r="JV12" s="0">
+        <v>0.00039939248640191624</v>
+      </c>
+      <c r="JW12" s="0">
+        <v>0.00030545158763589425</v>
+      </c>
+      <c r="JX12" s="0">
+        <v>0.00022616434522954935</v>
+      </c>
+      <c r="JY12" s="0">
+        <v>0.00016084691315028141</v>
+      </c>
+      <c r="JZ12" s="0">
+        <v>0.00010864651677762722</v>
+      </c>
+      <c r="KA12" s="0">
+        <v>6.8534067711327368e-05</v>
+      </c>
+      <c r="KB12" s="0">
+        <v>3.9296774237130575e-05</v>
+      </c>
+      <c r="KC12" s="0">
+        <v>1.9530751438986872e-05</v>
+      </c>
+      <c r="KD12" s="0">
+        <v>7.6336348136761771e-06</v>
+      </c>
+      <c r="KE12" s="0">
+        <v>1.7972011121198729e-06</v>
+      </c>
+      <c r="KF12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KG12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KH12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KI12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KJ12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KK12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KL12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KM12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KN12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KO12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KP12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KQ12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KR12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KS12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KT12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KU12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KV12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KW12" s="0">
+        <v>0</v>
+      </c>
+      <c r="KX12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.062455925740274788</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.30205462206878797</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.6136811576214356</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.021808294569501906</v>
+      </c>
+      <c r="F13" s="0">
+        <v>101.19185515049787</v>
+      </c>
+      <c r="G13" s="0">
+        <v>24.847718347543552</v>
+      </c>
+      <c r="H13" s="0">
+        <v>2.2376299764456204</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.61739341208124399</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0.99999992278502925</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>0</v>
+      </c>
+      <c r="R13" s="0">
+        <v>0</v>
+      </c>
+      <c r="S13" s="0">
+        <v>0</v>
+      </c>
+      <c r="T13" s="0">
+        <v>0</v>
+      </c>
+      <c r="U13" s="0">
+        <v>0</v>
+      </c>
+      <c r="V13" s="0">
+        <v>0</v>
+      </c>
+      <c r="W13" s="0">
+        <v>0</v>
+      </c>
+      <c r="X13" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="0">
+        <v>5.4254652822582705e-06</v>
+      </c>
+      <c r="AE13" s="0">
+        <v>6.1572375723055613e-05</v>
+      </c>
+      <c r="AF13" s="0">
+        <v>0.00019442461333098971</v>
+      </c>
+      <c r="AG13" s="0">
+        <v>0.00041424595660913705</v>
+      </c>
+      <c r="AH13" s="0">
+        <v>0.00071888606458682728</v>
+      </c>
+      <c r="AI13" s="0">
+        <v>0.0010967964463686241</v>
+      </c>
+      <c r="AJ13" s="0">
+        <v>0.0015297539713212604</v>
+      </c>
+      <c r="AK13" s="0">
+        <v>0.0019952910667990461</v>
+      </c>
+      <c r="AL13" s="0">
+        <v>0.0024688333607551702</v>
+      </c>
+      <c r="AM13" s="0">
+        <v>0.0029255471421016687</v>
+      </c>
+      <c r="AN13" s="0">
+        <v>0.0033419006182301564</v>
+      </c>
+      <c r="AO13" s="0">
+        <v>0.0036969445321074173</v>
+      </c>
+      <c r="AP13" s="0">
+        <v>0.0039733192463950549</v>
+      </c>
+      <c r="AQ13" s="0">
+        <v>0.0041579968955648815</v>
+      </c>
+      <c r="AR13" s="0">
+        <v>0.0042427686348829128</v>
+      </c>
+      <c r="AS13" s="0">
+        <v>0.0042244883640282678</v>
+      </c>
+      <c r="AT13" s="0">
+        <v>0.0041050855614501187</v>
+      </c>
+      <c r="AU13" s="0">
+        <v>0.0038913610207343815</v>
+      </c>
+      <c r="AV13" s="0">
+        <v>0.0035945803225888159</v>
+      </c>
+      <c r="AW13" s="0">
+        <v>0.003229880795673463</v>
+      </c>
+      <c r="AX13" s="0">
+        <v>0.0028155085084970053</v>
+      </c>
+      <c r="AY13" s="0">
+        <v>0.0023719024863645892</v>
+      </c>
+      <c r="AZ13" s="0">
+        <v>0.0019206438564518028</v>
+      </c>
+      <c r="BA13" s="0">
+        <v>0.0014832879871594042</v>
+      </c>
+      <c r="BB13" s="0">
+        <v>0.0010800979023079494</v>
+      </c>
+      <c r="BC13" s="0">
+        <v>0.00072869731646078883</v>
+      </c>
+      <c r="BD13" s="0">
+        <v>0.00044266155530837644</v>
+      </c>
+      <c r="BE13" s="0">
+        <v>0.00023006439769848985</v>
+      </c>
+      <c r="BF13" s="0">
+        <v>9.1998507201990323e-05</v>
+      </c>
+      <c r="BG13" s="0">
+        <v>2.1086617116787878e-05</v>
+      </c>
+      <c r="BH13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="0">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="0">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="0">
+        <v>3.3854856426378997e-05</v>
+      </c>
+      <c r="CN13" s="0">
+        <v>0.0001343753311727677</v>
+      </c>
+      <c r="CO13" s="0">
+        <v>0.00032463039020066455</v>
+      </c>
+      <c r="CP13" s="0">
+        <v>0.00061902106998564714</v>
+      </c>
+      <c r="CQ13" s="0">
+        <v>0.001024333776131764</v>
+      </c>
+      <c r="CR13" s="0">
+        <v>0.0015407661050210008</v>
+      </c>
+      <c r="CS13" s="0">
+        <v>0.0021629188034410938</v>
+      </c>
+      <c r="CT13" s="0">
+        <v>0.0028807480373695738</v>
+      </c>
+      <c r="CU13" s="0">
+        <v>0.003680472722587876</v>
+      </c>
+      <c r="CV13" s="0">
+        <v>0.004545432269819019</v>
+      </c>
+      <c r="CW13" s="0">
+        <v>0.0054568907086396589</v>
+      </c>
+      <c r="CX13" s="0">
+        <v>0.0063947837706033184</v>
+      </c>
+      <c r="CY13" s="0">
+        <v>0.0073384061280632115</v>
+      </c>
+      <c r="CZ13" s="0">
+        <v>0.0082670365937384405</v>
+      </c>
+      <c r="DA13" s="0">
+        <v>0.009160499682847956</v>
+      </c>
+      <c r="DB13" s="0">
+        <v>0.009999662519213243</v>
+      </c>
+      <c r="DC13" s="0">
+        <v>0.01076686662521284</v>
+      </c>
+      <c r="DD13" s="0">
+        <v>0.011446294668078862</v>
+      </c>
+      <c r="DE13" s="0">
+        <v>0.01202427273864551</v>
+      </c>
+      <c r="DF13" s="0">
+        <v>0.012489509211104552</v>
+      </c>
+      <c r="DG13" s="0">
+        <v>0.012833271669572436</v>
+      </c>
+      <c r="DH13" s="0">
+        <v>0.013049503789412166</v>
+      </c>
+      <c r="DI13" s="0">
+        <v>0.013134884424434555</v>
+      </c>
+      <c r="DJ13" s="0">
+        <v>0.013088831476196404</v>
+      </c>
+      <c r="DK13" s="0">
+        <v>0.012913453407422434</v>
+      </c>
+      <c r="DL13" s="0">
+        <v>0.012613451507599202</v>
+      </c>
+      <c r="DM13" s="0">
+        <v>0.012195976225871376</v>
+      </c>
+      <c r="DN13" s="0">
+        <v>0.011670441054646123</v>
+      </c>
+      <c r="DO13" s="0">
+        <v>0.011048297577841756</v>
+      </c>
+      <c r="DP13" s="0">
+        <v>0.010342775391992907</v>
+      </c>
+      <c r="DQ13" s="0">
+        <v>0.0095685906673771554</v>
+      </c>
+      <c r="DR13" s="0">
+        <v>0.0087416271420933077</v>
+      </c>
+      <c r="DS13" s="0">
+        <v>0.0078785933368500198</v>
+      </c>
+      <c r="DT13" s="0">
+        <v>0.0069966597431421768</v>
+      </c>
+      <c r="DU13" s="0">
+        <v>0.0061130796756381422</v>
+      </c>
+      <c r="DV13" s="0">
+        <v>0.0052447973926911251</v>
+      </c>
+      <c r="DW13" s="0">
+        <v>0.0044080469800743217</v>
+      </c>
+      <c r="DX13" s="0">
+        <v>0.0036179453635329854</v>
+      </c>
+      <c r="DY13" s="0">
+        <v>0.002888082668774071</v>
+      </c>
+      <c r="DZ13" s="0">
+        <v>0.0022301129859539992</v>
+      </c>
+      <c r="EA13" s="0">
+        <v>0.0016533484198595579</v>
+      </c>
+      <c r="EB13" s="0">
+        <v>0.0011643591222139243</v>
+      </c>
+      <c r="EC13" s="0">
+        <v>0.00076658180807987549</v>
+      </c>
+      <c r="ED13" s="0">
+        <v>0.00045993905830348793</v>
+      </c>
+      <c r="EE13" s="0">
+        <v>0.00024047150559193534</v>
+      </c>
+      <c r="EF13" s="0">
+        <v>9.9984795400709879e-05</v>
+      </c>
+      <c r="EG13" s="0">
+        <v>2.5713005143421594e-05</v>
+      </c>
+      <c r="EH13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EI13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EJ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EK13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EL13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EM13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EN13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EO13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EP13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EQ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="ER13" s="0">
+        <v>0</v>
+      </c>
+      <c r="ES13" s="0">
+        <v>0</v>
+      </c>
+      <c r="ET13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EU13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EV13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EW13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EX13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EY13" s="0">
+        <v>0</v>
+      </c>
+      <c r="EZ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FA13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FB13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FC13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FD13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FE13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FF13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FG13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FH13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FI13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FJ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FK13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FL13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FM13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FN13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FO13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FP13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FQ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FR13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FS13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FT13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FU13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FV13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FW13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FX13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FY13" s="0">
+        <v>0</v>
+      </c>
+      <c r="FZ13" s="0">
+        <v>0</v>
+      </c>
+      <c r="GA13" s="0">
+        <v>0</v>
+      </c>
+      <c r="GB13" s="0">
+        <v>0</v>
+      </c>
+      <c r="GC13" s="0">
+        <v>0</v>
+      </c>
+      <c r="GD13" s="0">
+        <v>0</v>
+      </c>
+      <c r="GE13" s="0">
+        <v>6.2170595860275022e-06</v>
+      </c>
+      <c r="GF13" s="0">
+        <v>2.7022929541988368e-05</v>
+      </c>
+      <c r="GG13" s="0">
+        <v>6.9250804158910254e-05</v>
+      </c>
+      <c r="GH13" s="0">
+        <v>0.00013832834858153712</v>
+      </c>
+      <c r="GI13" s="0">
+        <v>0.00023840487405248488</v>
+      </c>
+      <c r="GJ13" s="0">
+        <v>0.00037247262952897316</v>
+      </c>
+      <c r="GK13" s="0">
+        <v>0.00054248220374599626</v>
+      </c>
+      <c r="GL13" s="0">
+        <v>0.00074945205438327659</v>
+      </c>
+      <c r="GM13" s="0">
+        <v>0.00099357220178523074</v>
+      </c>
+      <c r="GN13" s="0">
+        <v>0.0012743021445731759</v>
+      </c>
+      <c r="GO13" s="0">
+        <v>0.0015904630725459264</v>
+      </c>
+      <c r="GP13" s="0">
+        <v>0.0019403244677767247</v>
+      </c>
+      <c r="GQ13" s="0">
+        <v>0.0023216852001160639</v>
+      </c>
+      <c r="GR13" s="0">
+        <v>0.0027319492361759052</v>
+      </c>
+      <c r="GS13" s="0">
+        <v>0.0031681960927239668</v>
+      </c>
+      <c r="GT13" s="0">
+        <v>0.0036272461752618222</v>
+      </c>
+      <c r="GU13" s="0">
+        <v>0.0041057211522385114</v>
+      </c>
+      <c r="GV13" s="0">
+        <v>0.0046000995225222042</v>
+      </c>
+      <c r="GW13" s="0">
+        <v>0.0051067675403019663</v>
+      </c>
+      <c r="GX13" s="0">
+        <v>0.0056220656670439217</v>
+      </c>
+      <c r="GY13" s="0">
+        <v>0.0061423307244515436</v>
+      </c>
+      <c r="GZ13" s="0">
+        <v>0.0066639339252469688</v>
+      </c>
+      <c r="HA13" s="0">
+        <v>0.0071833149614803577</v>
+      </c>
+      <c r="HB13" s="0">
+        <v>0.0076970123309228703</v>
+      </c>
+      <c r="HC13" s="0">
+        <v>0.008201690083202845</v>
+      </c>
+      <c r="HD13" s="0">
+        <v>0.0086941611665947993</v>
+      </c>
+      <c r="HE13" s="0">
+        <v>0.0091714075565809371</v>
+      </c>
+      <c r="HF13" s="0">
+        <v>0.0096305973443461292</v>
+      </c>
+      <c r="HG13" s="0">
+        <v>0.010069098962872234</v>
+      </c>
+      <c r="HH13" s="0">
+        <v>0.010484492724692519</v>
+      </c>
+      <c r="HI13" s="0">
+        <v>0.010874579842614564</v>
+      </c>
+      <c r="HJ13" s="0">
+        <v>0.011237389101129236</v>
+      </c>
+      <c r="HK13" s="0">
+        <v>0.01157118134280196</v>
+      </c>
+      <c r="HL13" s="0">
+        <v>0.011874451930106772</v>
+      </c>
+      <c r="HM13" s="0">
+        <v>0.012145931337420873</v>
+      </c>
+      <c r="HN13" s="0">
+        <v>0.012384584024364773</v>
+      </c>
+      <c r="HO13" s="0">
+        <v>0.012589605736525074</v>
+      </c>
+      <c r="HP13" s="0">
+        <v>0.012760419374066584</v>
+      </c>
+      <c r="HQ13" s="0">
+        <v>0.012896669564349109</v>
+      </c>
+      <c r="HR13" s="0">
+        <v>0.012998216069263376</v>
+      </c>
+      <c r="HS13" s="0">
+        <v>0.013065126151994266</v>
+      </c>
+      <c r="HT13" s="0">
+        <v>0.013097666023490648</v>
+      </c>
+      <c r="HU13" s="0">
+        <v>0.01309629148229754</v>
+      </c>
+      <c r="HV13" s="0">
+        <v>0.013061637857540163</v>
+      </c>
+      <c r="HW13" s="0">
+        <v>0.012994509358055463</v>
+      </c>
+      <c r="HX13" s="0">
+        <v>0.01289586792634724</v>
+      </c>
+      <c r="HY13" s="0">
+        <v>0.01276682168989279</v>
+      </c>
+      <c r="HZ13" s="0">
+        <v>0.012608613098227568</v>
+      </c>
+      <c r="IA13" s="0">
+        <v>0.012422606827920145</v>
+      </c>
+      <c r="IB13" s="0">
+        <v>0.012210277533305751</v>
+      </c>
+      <c r="IC13" s="0">
+        <v>0.01197319751610882</v>
+      </c>
+      <c r="ID13" s="0">
+        <v>0.011713024381208798</v>
+      </c>
+      <c r="IE13" s="0">
+        <v>0.011431488742706773</v>
+      </c>
+      <c r="IF13" s="0">
+        <v>0.011130382038505922</v>
+      </c>
+      <c r="IG13" s="0">
+        <v>0.010811544508161904</v>
+      </c>
+      <c r="IH13" s="0">
+        <v>0.01047685338436957</v>
+      </c>
+      <c r="II13" s="0">
+        <v>0.010128211343780318</v>
+      </c>
+      <c r="IJ13" s="0">
+        <v>0.0097675352597255492</v>
+      </c>
+      <c r="IK13" s="0">
+        <v>0.0093967452952685819</v>
+      </c>
+      <c r="IL13" s="0">
+        <v>0.0090177543717493217</v>
+      </c>
+      <c r="IM13" s="0">
+        <v>0.008632458043211045</v>
+      </c>
+      <c r="IN13" s="0">
+        <v>0.0082427248056937772</v>
+      </c>
+      <c r="IO13" s="0">
+        <v>0.0078503868659187681</v>
+      </c>
+      <c r="IP13" s="0">
+        <v>0.0074572313914306274</v>
+      </c>
+      <c r="IQ13" s="0">
+        <v>0.0070649922611660827</v>
+      </c>
+      <c r="IR13" s="0">
+        <v>0.0066753423331670841</v>
+      </c>
+      <c r="IS13" s="0">
+        <v>0.0062898862427713991</v>
+      </c>
+      <c r="IT13" s="0">
+        <v>0.0059101537426767504</v>
+      </c>
+      <c r="IU13" s="0">
+        <v>0.005537593593801818</v>
+      </c>
+      <c r="IV13" s="0">
+        <v>0.0051735680146861862</v>
+      </c>
+      <c r="IW13" s="0">
+        <v>0.004819347693798188</v>
+      </c>
+      <c r="IX13" s="0">
+        <v>0.0044761073679887844</v>
+      </c>
+      <c r="IY13" s="0">
+        <v>0.0041449219682957129</v>
+      </c>
+      <c r="IZ13" s="0">
+        <v>0.003826763332965936</v>
+      </c>
+      <c r="JA13" s="0">
+        <v>0.0035224974854896987</v>
+      </c>
+      <c r="JB13" s="0">
+        <v>0.0032328824747121098</v>
+      </c>
+      <c r="JC13" s="0">
+        <v>0.0029585667725498255</v>
+      </c>
+      <c r="JD13" s="0">
+        <v>0.0027000882237680187</v>
+      </c>
+      <c r="JE13" s="0">
+        <v>0.00245787354063965</v>
+      </c>
+      <c r="JF13" s="0">
+        <v>0.0022322383344051573</v>
+      </c>
+      <c r="JG13" s="0">
+        <v>0.0020233876754113776</v>
+      </c>
+      <c r="JH13" s="0">
+        <v>0.0018314171721171746</v>
+      </c>
+      <c r="JI13" s="0">
+        <v>0.0016563145587958226</v>
+      </c>
+      <c r="JJ13" s="0">
+        <v>0.0014979617806038334</v>
+      </c>
+      <c r="JK13" s="0">
+        <v>0.0013561375648087055</v>
+      </c>
+      <c r="JL13" s="0">
+        <v>0.0012305204656536423</v>
+      </c>
+      <c r="JM13" s="0">
+        <v>0.0011206923710290848</v>
+      </c>
+      <c r="JN13" s="0">
+        <v>0.0010261424577527724</v>
+      </c>
+      <c r="JO13" s="0">
+        <v>0.00094627158139747947</v>
+      </c>
+      <c r="JP13" s="0">
+        <v>0.0008803970884835949</v>
+      </c>
+      <c r="JQ13" s="0">
+        <v>0.00082775803616384454</v>
+      </c>
+      <c r="JR13" s="0">
+        <v>0.00078752080623489536</v>
+      </c>
+      <c r="JS13" s="0">
+        <v>0.00075878509884582345</v>
+      </c>
+      <c r="JT13" s="0">
+        <v>0.00074059029214483291</v>
+      </c>
+      <c r="JU13" s="0">
+        <v>0.00073192215373636292</v>
+      </c>
+      <c r="JV13" s="0">
+        <v>0.00073171988923053006</v>
+      </c>
+      <c r="JW13" s="0">
+        <v>0.00073888351407917275</v>
+      </c>
+      <c r="JX13" s="0">
+        <v>0.00075228153437626052</v>
+      </c>
+      <c r="JY13" s="0">
+        <v>0.00077075892269632199</v>
+      </c>
+      <c r="JZ13" s="0">
+        <v>0.00079314537525433226</v>
+      </c>
+      <c r="KA13" s="0">
+        <v>0.00081826383574181403</v>
+      </c>
+      <c r="KB13" s="0">
+        <v>0.00084493927302030554</v>
+      </c>
+      <c r="KC13" s="0">
+        <v>0.00087200769919885273</v>
+      </c>
+      <c r="KD13" s="0">
+        <v>0.0008983254137589344</v>
+      </c>
+      <c r="KE13" s="0">
+        <v>0.00092277846212555816</v>
+      </c>
+      <c r="KF13" s="0">
+        <v>0.0009442922948978453</v>
+      </c>
+      <c r="KG13" s="0">
+        <v>0.00096184161552086839</v>
+      </c>
+      <c r="KH13" s="0">
+        <v>0.00097446040393873729</v>
+      </c>
+      <c r="KI13" s="0">
+        <v>0.00098125210383510973</v>
+      </c>
+      <c r="KJ13" s="0">
+        <v>0.00098139996228638446</v>
+      </c>
+      <c r="KK13" s="0">
+        <v>0.00097417750970217674</v>
+      </c>
+      <c r="KL13" s="0">
+        <v>0.00095895916876341091</v>
+      </c>
+      <c r="KM13" s="0">
+        <v>0.00093523098192824683</v>
+      </c>
+      <c r="KN13" s="0">
+        <v>0.00090260144653815134</v>
+      </c>
+      <c r="KO13" s="0">
+        <v>0.00086081244745004855</v>
+      </c>
+      <c r="KP13" s="0">
+        <v>0.00080975027640766057</v>
+      </c>
+      <c r="KQ13" s="0">
+        <v>0.00074945672839230742</v>
+      </c>
+      <c r="KR13" s="0">
+        <v>0.00068014026642361362</v>
+      </c>
+      <c r="KS13" s="0">
+        <v>0.00060218724456947807</v>
+      </c>
+      <c r="KT13" s="0">
+        <v>0.00051617318128162131</v>
+      </c>
+      <c r="KU13" s="0">
+        <v>0.0004228740737810267</v>
+      </c>
+      <c r="KV13" s="0">
+        <v>0.00032327774558561507</v>
+      </c>
+      <c r="KW13" s="0">
+        <v>0.00021859521878352637</v>
+      </c>
+      <c r="KX13" s="0">
+        <v>0.00011027210401500259</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.052681382101568336</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.32913631043710606</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.61818230746132574</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0">
+        <v>111.12126743891244</v>
+      </c>
+      <c r="G14" s="0">
+        <v>24.211478833859825</v>
+      </c>
+      <c r="H14" s="0">
+        <v>2.080352246773399</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.99998689717780742</v>
+      </c>
+      <c r="K14" s="0">
+        <v>4.1855557091276408e-05</v>
+      </c>
+      <c r="L14" s="0">
+        <v>8.4729947738168063e-05</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0.00012943978184895506</v>
+      </c>
+      <c r="N14" s="0">
+        <v>0.00017661264778525999</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0.00022670032700460632</v>
+      </c>
+      <c r="P14" s="0">
+        <v>0.00027999199225427565</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>0.00033662735943057855</v>
+      </c>
+      <c r="R14" s="0">
+        <v>0.0003966097624300152</v>
+      </c>
+      <c r="S14" s="0">
+        <v>0.00045981911964778629</v>
+      </c>
+      <c r="T14" s="0">
+        <v>0.00052602476023455276</v>
+      </c>
+      <c r="U14" s="0">
+        <v>0.00059489807781036217</v>
+      </c>
+      <c r="V14" s="0">
+        <v>0.00066602497906668437</v>
+      </c>
+      <c r="W14" s="0">
+        <v>0.00073891809456560619</v>
+      </c>
+      <c r="X14" s="0">
+        <v>0.00081302871908035227</v>
+      </c>
+      <c r="Y14" s="0">
+        <v>0.00088775844901585401</v>
+      </c>
+      <c r="Z14" s="0">
+        <v>0.0009624704848073942</v>
+      </c>
+      <c r="AA14" s="0">
+        <v>0.0010365005667231672</v>
+      </c>
+      <c r="AB14" s="0">
+        <v>0.0011091675131948563</v>
+      </c>
+      <c r="AC14" s="0">
+        <v>0.001179783331670985</v>
+      </c>
+      <c r="AD14" s="0">
+        <v>0.0012476628730304111</v>
+      </c>
+      <c r="AE14" s="0">
+        <v>0.0013121330018079341</v>
+      </c>
+      <c r="AF14" s="0">
+        <v>0.0013725412558677546</v>
+      </c>
+      <c r="AG14" s="0">
+        <v>0.001428263970711134</v>
+      </c>
+      <c r="AH14" s="0">
+        <v>0.0014787138453172305</v>
+      </c>
+      <c r="AI14" s="0">
+        <v>0.0015233469282855446</v>
+      </c>
+      <c r="AJ14" s="0">
+        <v>0.001561669005068479</v>
+      </c>
+      <c r="AK14" s="0">
+        <v>0.0015932413692453249</v>
+      </c>
+      <c r="AL14" s="0">
+        <v>0.0016176859630860005</v>
+      </c>
+      <c r="AM14" s="0">
+        <v>0.0016346898750747004</v>
+      </c>
+      <c r="AN14" s="0">
+        <v>0.0016440091845994489</v>
+      </c>
+      <c r="AO14" s="0">
+        <v>0.0016454721466521837</v>
+      </c>
+      <c r="AP14" s="0">
+        <v>0.0016389817121129459</v>
+      </c>
+      <c r="AQ14" s="0">
+        <v>0.0016245173819979615</v>
+      </c>
+      <c r="AR14" s="0">
+        <v>0.0016021363969213199</v>
+      </c>
+      <c r="AS14" s="0">
+        <v>0.0015719742659386329</v>
+      </c>
+      <c r="AT14" s="0">
+        <v>0.0015342446418942694</v>
+      </c>
+      <c r="AU14" s="0">
+        <v>0.0014892385533649645</v>
+      </c>
+      <c r="AV14" s="0">
+        <v>0.0014373230062670937</v>
+      </c>
+      <c r="AW14" s="0">
+        <v>0.0013789389711553618</v>
+      </c>
+      <c r="AX14" s="0">
+        <v>0.0013145987751715406</v>
+      </c>
+      <c r="AY14" s="0">
+        <v>0.0012448829204858905</v>
+      </c>
+      <c r="AZ14" s="0">
+        <v>0.0011704363538947282</v>
+      </c>
+      <c r="BA14" s="0">
+        <v>0.0010919642149790762</v>
+      </c>
+      <c r="BB14" s="0">
+        <v>0.0010102270928738946</v>
+      </c>
+      <c r="BC14" s="0">
+        <v>0.00092603582423036351</v>
+      </c>
+      <c r="BD14" s="0">
+        <v>0.00084024586735782618</v>
+      </c>
+      <c r="BE14" s="0">
+        <v>0.00075375128979322109</v>
+      </c>
+      <c r="BF14" s="0">
+        <v>0.00066747840864826138</v>
+      </c>
+      <c r="BG14" s="0">
+        <v>0.00058237912501499516</v>
+      </c>
+      <c r="BH14" s="0">
+        <v>0.0004994239954547394</v>
+      </c>
+      <c r="BI14" s="0">
+        <v>0.00041959508514153844</v>
+      </c>
+      <c r="BJ14" s="0">
+        <v>0.00034387864856747559</v>
+      </c>
+      <c r="BK14" s="0">
+        <v>0.00027325768483300834</v>
+      </c>
+      <c r="BL14" s="0">
+        <v>0.00020870441543140161</v>
+      </c>
+      <c r="BM14" s="0">
+        <v>0.00015117273308416838</v>
+      </c>
+      <c r="BN14" s="0">
+        <v>0.00010159067058707036</v>
+      </c>
+      <c r="BO14" s="0">
+        <v>6.0852938777962139e-05</v>
+      </c>
+      <c r="BP14" s="0">
+        <v>2.9813582634542016e-05</v>
+      </c>
+      <c r="BQ14" s="0">
+        <v>9.2788041483371524e-06</v>
+      </c>
+      <c r="BR14" s="0">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="0">
+        <v>2.6670611799165203e-06</v>
+      </c>
+      <c r="BT14" s="0">
+        <v>1.797077045636193e-05</v>
+      </c>
+      <c r="BU14" s="0">
+        <v>4.6527972605416327e-05</v>
+      </c>
+      <c r="BV14" s="0">
+        <v>8.8875930058404524e-05</v>
+      </c>
+      <c r="BW14" s="0">
+        <v>0.00014546711513661149</v>
+      </c>
+      <c r="BX14" s="0">
+        <v>0.00021666447780849992</v>
+      </c>
+      <c r="BY14" s="0">
+        <v>0.00030273722554077656</v>
+      </c>
+      <c r="BZ14" s="0">
+        <v>0.00040385714922913234</v>
+      </c>
+      <c r="CA14" s="0">
+        <v>0.0005200955263978932</v>
+      </c>
+      <c r="CB14" s="0">
+        <v>0.00065142062986183564</v>
+      </c>
+      <c r="CC14" s="0">
+        <v>0.00079769586686080976</v>
+      </c>
+      <c r="CD14" s="0">
+        <v>0.00095867857032233561</v>
+      </c>
+      <c r="CE14" s="0">
+        <v>0.0011340194603936165</v>
+      </c>
+      <c r="CF14" s="0">
+        <v>0.0013232627907277374</v>
+      </c>
+      <c r="CG14" s="0">
+        <v>0.0015258471902253124</v>
+      </c>
+      <c r="CH14" s="0">
+        <v>0.0017411072070393952</v>
+      </c>
+      <c r="CI14" s="0">
+        <v>0.001968275557664944</v>
+      </c>
+      <c r="CJ14" s="0">
+        <v>0.0022064860798725401</v>
+      </c>
+      <c r="CK14" s="0">
+        <v>0.0024547773841275418</v>
+      </c>
+      <c r="CL14" s="0">
+        <v>0.002712097193978111</v>
+      </c>
+      <c r="CM14" s="0">
+        <v>0.0029773073617180377</v>
+      </c>
+      <c r="CN14" s="0">
+        <v>0.0032491895414509201</v>
+      </c>
+      <c r="CO14" s="0">
+        <v>0.00352645149751996</v>
+      </c>
+      <c r="CP14" s="0">
+        <v>0.0038077340221416619</v>
+      </c>
+      <c r="CQ14" s="0">
+        <v>0.0040916184320099044</v>
+      </c>
+      <c r="CR14" s="0">
+        <v>0.0043766346096384325</v>
+      </c>
+      <c r="CS14" s="0">
+        <v>0.0046612695513030397</v>
+      </c>
+      <c r="CT14" s="0">
+        <v>0.0049439763796477526</v>
+      </c>
+      <c r="CU14" s="0">
+        <v>0.0052231837753501549</v>
+      </c>
+      <c r="CV14" s="0">
+        <v>0.0054973057787173814</v>
+      </c>
+      <c r="CW14" s="0">
+        <v>0.0057647519087237458</v>
+      </c>
+      <c r="CX14" s="0">
+        <v>0.0060239375438203221</v>
+      </c>
+      <c r="CY14" s="0">
+        <v>0.0062732945058627037</v>
+      </c>
+      <c r="CZ14" s="0">
+        <v>0.0065112817857322144</v>
+      </c>
+      <c r="DA14" s="0">
+        <v>0.0067363963466831288</v>
+      </c>
+      <c r="DB14" s="0">
+        <v>0.0069471839391501422</v>
+      </c>
+      <c r="DC14" s="0">
+        <v>0.0071422498587102971</v>
+      </c>
+      <c r="DD14" s="0">
+        <v>0.0073202695771264056</v>
+      </c>
+      <c r="DE14" s="0">
+        <v>0.0074799991749183378</v>
+      </c>
+      <c r="DF14" s="0">
+        <v>0.0076202855027266035</v>
+      </c>
+      <c r="DG14" s="0">
+        <v>0.0077400759978620177</v>
+      </c>
+      <c r="DH14" s="0">
+        <v>0.0078384280818868442</v>
+      </c>
+      <c r="DI14" s="0">
+        <v>0.0079145180648568358</v>
+      </c>
+      <c r="DJ14" s="0">
+        <v>0.0079676494819796179</v>
+      </c>
+      <c r="DK14" s="0">
+        <v>0.0079972607889205287</v>
+      </c>
+      <c r="DL14" s="0">
+        <v>0.0080029323428199572</v>
+      </c>
+      <c r="DM14" s="0">
+        <v>0.0079843925972814846</v>
+      </c>
+      <c r="DN14" s="0">
+        <v>0.0079415234411525336</v>
+      </c>
+      <c r="DO14" s="0">
+        <v>0.007874364612851268</v>
+      </c>
+      <c r="DP14" s="0">
+        <v>0.00778311712429641</v>
+      </c>
+      <c r="DQ14" s="0">
+        <v>0.0076681456311704019</v>
+      </c>
+      <c r="DR14" s="0">
+        <v>0.0075299796892876183</v>
+      </c>
+      <c r="DS14" s="0">
+        <v>0.0073693138402452733</v>
+      </c>
+      <c r="DT14" s="0">
+        <v>0.0071870064732981473</v>
+      </c>
+      <c r="DU14" s="0">
+        <v>0.0069840774145113835</v>
+      </c>
+      <c r="DV14" s="0">
+        <v>0.0067617041986982465</v>
+      </c>
+      <c r="DW14" s="0">
+        <v>0.0065212169844290025</v>
+      </c>
+      <c r="DX14" s="0">
+        <v>0.0062640920774886914</v>
+      </c>
+      <c r="DY14" s="0">
+        <v>0.0059919440335482448</v>
+      </c>
+      <c r="DZ14" s="0">
+        <v>0.0057065163164763122</v>
+      </c>
+      <c r="EA14" s="0">
+        <v>0.0054096704946367518</v>
+      </c>
+      <c r="EB14" s="0">
+        <v>0.0051033739636654326</v>
+      </c>
+      <c r="EC14" s="0">
+        <v>0.0047896861905745618</v>
+      </c>
+      <c r="ED14" s="0">
+        <v>0.0044707434805651685</v>
+      </c>
+      <c r="EE14" s="0">
+        <v>0.0041487422746091865</v>
+      </c>
+      <c r="EF14" s="0">
+        <v>0.0038259209926605501</v>
+      </c>
+      <c r="EG14" s="0">
+        <v>0.0035045404442369797</v>
+      </c>
+      <c r="EH14" s="0">
+        <v>0.0031868628350457734</v>
+      </c>
+      <c r="EI14" s="0">
+        <v>0.0028751294052730327</v>
+      </c>
+      <c r="EJ14" s="0">
+        <v>0.0025715367420788586</v>
+      </c>
+      <c r="EK14" s="0">
+        <v>0.0022782118157036887</v>
+      </c>
+      <c r="EL14" s="0">
+        <v>0.0019971857953556826</v>
+      </c>
+      <c r="EM14" s="0">
+        <v>0.0017303667076760325</v>
+      </c>
+      <c r="EN14" s="0">
+        <v>0.0014795110070308102</v>
+      </c>
+      <c r="EO14" s="0">
+        <v>0.0012461941331158002</v>
+      </c>
+      <c r="EP14" s="0">
+        <v>0.0010317801373464154</v>
+      </c>
+      <c r="EQ14" s="0">
+        <v>0.00083739046520157629</v>
+      </c>
+      <c r="ER14" s="0">
+        <v>0.00066387198706225877</v>
+      </c>
+      <c r="ES14" s="0">
+        <v>0.00051176437509739732</v>
+      </c>
+      <c r="ET14" s="0">
+        <v>0.00038126692836899334</v>
+      </c>
+      <c r="EU14" s="0">
+        <v>0.00027220495252356459</v>
+      </c>
+      <c r="EV14" s="0">
+        <v>0.00018399580417939216</v>
+      </c>
+      <c r="EW14" s="0">
+        <v>0.0001156147133819149</v>
+      </c>
+      <c r="EX14" s="0">
+        <v>6.556050025888407e-05</v>
+      </c>
+      <c r="EY14" s="0">
+        <v>3.1821304242002406e-05</v>
+      </c>
+      <c r="EZ14" s="0">
+        <v>1.1840445914238524e-05</v>
+      </c>
+      <c r="FA14" s="0">
+        <v>2.4825426772465256e-06</v>
+      </c>
+      <c r="FB14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FC14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FD14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FE14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FF14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FG14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FH14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FI14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FJ14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FK14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FL14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FM14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FN14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FO14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FP14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FQ14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FR14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FS14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FT14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FU14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FV14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FW14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FX14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FY14" s="0">
+        <v>0</v>
+      </c>
+      <c r="FZ14" s="0">
+        <v>0</v>
+      </c>
+      <c r="GA14" s="0">
+        <v>0</v>
+      </c>
+      <c r="GB14" s="0">
+        <v>0</v>
+      </c>
+      <c r="GC14" s="0">
+        <v>0</v>
+      </c>
+      <c r="GD14" s="0">
+        <v>0</v>
+      </c>
+      <c r="GE14" s="0">
+        <v>0</v>
+      </c>
+      <c r="GF14" s="0">
+        <v>0</v>
+      </c>
+      <c r="GG14" s="0">
+        <v>0</v>
+      </c>
+      <c r="GH14" s="0">
+        <v>0</v>
+      </c>
+      <c r="GI14" s="0">
+        <v>0</v>
+      </c>
+      <c r="GJ14" s="0">
+        <v>1.7947081819013948e-06</v>
+      </c>
+      <c r="GK14" s="0">
+        <v>1.2230587928970785e-05</v>
+      </c>
+      <c r="GL14" s="0">
+        <v>3.7325283022878116e-05</v>
+      </c>
+      <c r="GM14" s="0">
+        <v>8.2295494318710921e-05</v>
+      </c>
+      <c r="GN14" s="0">
+        <v>0.0001515861686926788</v>
+      </c>
+      <c r="GO14" s="0">
+        <v>0.00024890090160737408</v>
+      </c>
+      <c r="GP14" s="0">
+        <v>0.00037723345138430112</v>
+      </c>
+      <c r="GQ14" s="0">
+        <v>0.00053890026045990758</v>
+      </c>
+      <c r="GR14" s="0">
+        <v>0.00073557387652970158</v>
+      </c>
+      <c r="GS14" s="0">
+        <v>0.00096831716455447433</v>
+      </c>
+      <c r="GT14" s="0">
+        <v>0.001237618199108986</v>
+      </c>
+      <c r="GU14" s="0">
+        <v>0.0015434257254909867</v>
+      </c>
+      <c r="GV14" s="0">
+        <v>0.0018851850773691622</v>
+      </c>
+      <c r="GW14" s="0">
+        <v>0.002261874438522556</v>
+      </c>
+      <c r="GX14" s="0">
+        <v>0.0026720413363997123</v>
+      </c>
+      <c r="GY14" s="0">
+        <v>0.003113839255789713</v>
+      </c>
+      <c r="GZ14" s="0">
+        <v>0.003585064261835203</v>
+      </c>
+      <c r="HA14" s="0">
+        <v>0.004083191522912609</v>
+      </c>
+      <c r="HB14" s="0">
+        <v>0.0046054116255405259</v>
+      </c>
+      <c r="HC14" s="0">
+        <v>0.0051486665754354203</v>
+      </c>
+      <c r="HD14" s="0">
+        <v>0.0057096853810949411</v>
+      </c>
+      <c r="HE14" s="0">
+        <v>0.0062850191188339715</v>
+      </c>
+      <c r="HF14" s="0">
+        <v>0.0068710753810067721</v>
+      </c>
+      <c r="HG14" s="0">
+        <v>0.0074641520121993777</v>
+      </c>
+      <c r="HH14" s="0">
+        <v>0.0080604700414490908</v>
+      </c>
+      <c r="HI14" s="0">
+        <v>0.0086562057220215538</v>
+      </c>
+      <c r="HJ14" s="0">
+        <v>0.0092475215939292095</v>
+      </c>
+      <c r="HK14" s="0">
+        <v>0.009830596488187451</v>
+      </c>
+      <c r="HL14" s="0">
+        <v>0.01040165439575538</v>
+      </c>
+      <c r="HM14" s="0">
+        <v>0.010956992128177179</v>
+      </c>
+      <c r="HN14" s="0">
+        <v>0.011493005701106918</v>
+      </c>
+      <c r="HO14" s="0">
+        <v>0.012006215376145509</v>
+      </c>
+      <c r="HP14" s="0">
+        <v>0.012493289300724643</v>
+      </c>
+      <c r="HQ14" s="0">
+        <v>0.012951065690120098</v>
+      </c>
+      <c r="HR14" s="0">
+        <v>0.013376573500049477</v>
+      </c>
+      <c r="HS14" s="0">
+        <v>0.013767051542689418</v>
+      </c>
+      <c r="HT14" s="0">
+        <v>0.014119966003319752</v>
+      </c>
+      <c r="HU14" s="0">
+        <v>0.014433026319151224</v>
+      </c>
+      <c r="HV14" s="0">
+        <v>0.014704199386205883</v>
+      </c>
+      <c r="HW14" s="0">
+        <v>0.014931722064380518</v>
+      </c>
+      <c r="HX14" s="0">
+        <v>0.015114111955022999</v>
+      </c>
+      <c r="HY14" s="0">
+        <v>0.015250176429476098</v>
+      </c>
+      <c r="HZ14" s="0">
+        <v>0.015339019891083718</v>
+      </c>
+      <c r="IA14" s="0">
+        <v>0.015380049257100046</v>
+      </c>
+      <c r="IB14" s="0">
+        <v>0.015372977650785489</v>
+      </c>
+      <c r="IC14" s="0">
+        <v>0.015317826297704671</v>
+      </c>
+      <c r="ID14" s="0">
+        <v>0.015214924623856197</v>
+      </c>
+      <c r="IE14" s="0">
+        <v>0.015064908556753643</v>
+      </c>
+      <c r="IF14" s="0">
+        <v>0.014868717033938342</v>
+      </c>
+      <c r="IG14" s="0">
+        <v>0.014627586726631118</v>
+      </c>
+      <c r="IH14" s="0">
+        <v>0.014343044989319608</v>
+      </c>
+      <c r="II14" s="0">
+        <v>0.014016901049026538</v>
+      </c>
+      <c r="IJ14" s="0">
+        <v>0.013651235450809774</v>
+      </c>
+      <c r="IK14" s="0">
+        <v>0.013248387778706508</v>
+      </c>
+      <c r="IL14" s="0">
+        <v>0.012810942673849255</v>
+      </c>
+      <c r="IM14" s="0">
+        <v>0.012341714173850892</v>
+      </c>
+      <c r="IN14" s="0">
+        <v>0.011843728399779459</v>
+      </c>
+      <c r="IO14" s="0">
+        <v>0.011320204619121815</v>
+      </c>
+      <c r="IP14" s="0">
+        <v>0.010774534715068965</v>
+      </c>
+      <c r="IQ14" s="0">
+        <v>0.01021026109424754</v>
+      </c>
+      <c r="IR14" s="0">
+        <v>0.0096310530666726644</v>
+      </c>
+      <c r="IS14" s="0">
+        <v>0.0090406817332098419</v>
+      </c>
+      <c r="IT14" s="0">
+        <v>0.0084429934172102119</v>
+      </c>
+      <c r="IU14" s="0">
+        <v>0.0078418816782280642</v>
+      </c>
+      <c r="IV14" s="0">
+        <v>0.0072412579468439991</v>
+      </c>
+      <c r="IW14" s="0">
+        <v>0.0066450208206062043</v>
+      </c>
+      <c r="IX14" s="0">
+        <v>0.0060570240619691809</v>
+      </c>
+      <c r="IY14" s="0">
+        <v>0.0054810433398578143</v>
+      </c>
+      <c r="IZ14" s="0">
+        <v>0.0049207417571188999</v>
+      </c>
+      <c r="JA14" s="0">
+        <v>0.0043796342066466506</v>
+      </c>
+      <c r="JB14" s="0">
+        <v>0.0038610505993869871</v>
+      </c>
+      <c r="JC14" s="0">
+        <v>0.0033680980077428441</v>
+      </c>
+      <c r="JD14" s="0">
+        <v>0.0029036217681225819</v>
+      </c>
+      <c r="JE14" s="0">
+        <v>0.0024701655865011557</v>
+      </c>
+      <c r="JF14" s="0">
+        <v>0.0020699306909030971</v>
+      </c>
+      <c r="JG14" s="0">
+        <v>0.0017047340746720848</v>
+      </c>
+      <c r="JH14" s="0">
+        <v>0.0013759658742685968</v>
+      </c>
+      <c r="JI14" s="0">
+        <v>0.0010845459251387945</v>
+      </c>
+      <c r="JJ14" s="0">
+        <v>0.00083087953892912038</v>
+      </c>
+      <c r="JK14" s="0">
+        <v>0.00061481254498650098</v>
+      </c>
+      <c r="JL14" s="0">
+        <v>0.00043558563868724632</v>
+      </c>
+      <c r="JM14" s="0">
+        <v>0.00029178807868329352</v>
+      </c>
+      <c r="JN14" s="0">
+        <v>0.00018131077464656836</v>
+      </c>
+      <c r="JO14" s="0">
+        <v>0.00010129880653447365</v>
+      </c>
+      <c r="JP14" s="0">
+        <v>4.8103415795854856e-05</v>
+      </c>
+      <c r="JQ14" s="0">
+        <v>1.7233508291058473e-05</v>
+      </c>
+      <c r="JR14" s="0">
+        <v>3.3067080158780665e-06</v>
+      </c>
+      <c r="JS14" s="0">
+        <v>0</v>
+      </c>
+      <c r="JT14" s="0">
+        <v>0</v>
+      </c>
+      <c r="JU14" s="0">
+        <v>0</v>
+      </c>
+      <c r="JV14" s="0">
+        <v>0</v>
+      </c>
+      <c r="JW14" s="0">
+        <v>0</v>
+      </c>
+      <c r="JX14" s="0">
+        <v>0</v>
+      </c>
+      <c r="JY14" s="0">
+        <v>0</v>
+      </c>
+      <c r="JZ14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KA14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KB14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KC14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KD14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KE14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KF14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KG14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KH14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KI14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KJ14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KK14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KL14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KM14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KN14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KO14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KP14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KQ14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KR14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KS14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KT14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KU14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KV14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KW14" s="0">
+        <v>0</v>
+      </c>
+      <c r="KX14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.094299108339897811</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.30307514709484235</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.60262574456525986</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0">
+        <v>82.246094178922647</v>
+      </c>
+      <c r="G15" s="0">
+        <v>20.503908481328686</v>
+      </c>
+      <c r="H15" s="0">
+        <v>2.011225096924389</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0.9999997310789932</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0">
+        <v>0</v>
+      </c>
+      <c r="O15" s="0">
+        <v>0</v>
+      </c>
+      <c r="P15" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>0</v>
+      </c>
+      <c r="R15" s="0">
+        <v>0</v>
+      </c>
+      <c r="S15" s="0">
+        <v>0</v>
+      </c>
+      <c r="T15" s="0">
+        <v>0</v>
+      </c>
+      <c r="U15" s="0">
+        <v>0</v>
+      </c>
+      <c r="V15" s="0">
+        <v>0</v>
+      </c>
+      <c r="W15" s="0">
+        <v>0</v>
+      </c>
+      <c r="X15" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="0">
+        <v>1.9841764155643082e-05</v>
+      </c>
+      <c r="AQ15" s="0">
+        <v>0.00016328599911393445</v>
+      </c>
+      <c r="AR15" s="0">
+        <v>0.00048398654705093845</v>
+      </c>
+      <c r="AS15" s="0">
+        <v>0.00099584669196881265</v>
+      </c>
+      <c r="AT15" s="0">
+        <v>0.0016824654383518331</v>
+      </c>
+      <c r="AU15" s="0">
+        <v>0.002505668047180071</v>
+      </c>
+      <c r="AV15" s="0">
+        <v>0.0034131184017630245</v>
+      </c>
+      <c r="AW15" s="0">
+        <v>0.004345014106788384</v>
+      </c>
+      <c r="AX15" s="0">
+        <v>0.0052398685828374909</v>
+      </c>
+      <c r="AY15" s="0">
+        <v>0.0060393877900647786</v>
+      </c>
+      <c r="AZ15" s="0">
+        <v>0.0066924525824767047</v>
+      </c>
+      <c r="BA15" s="0">
+        <v>0.0071582210420777902</v>
+      </c>
+      <c r="BB15" s="0">
+        <v>0.0074083684536920616</v>
+      </c>
+      <c r="BC15" s="0">
+        <v>0.0074284858398168292</v>
+      </c>
+      <c r="BD15" s="0">
+        <v>0.0072186611642212819</v>
+      </c>
+      <c r="BE15" s="0">
+        <v>0.0067932704166207046</v>
+      </c>
+      <c r="BF15" s="0">
+        <v>0.0061800087922983171</v>
+      </c>
+      <c r="BG15" s="0">
+        <v>0.0054181950645853369</v>
+      </c>
+      <c r="BH15" s="0">
+        <v>0.0045563849988779596</v>
+      </c>
+      <c r="BI15" s="0">
+        <v>0.0036493322591966259</v>
+      </c>
+      <c r="BJ15" s="0">
+        <v>0.0027543376982689604</v>
+      </c>
+      <c r="BK15" s="0">
+        <v>0.0019270301856992055</v>
+      </c>
+      <c r="BL15" s="0">
+        <v>0.001216624202908639</v>
+      </c>
+      <c r="BM15" s="0">
+        <v>0.00066070130643922434</v>
+      </c>
+      <c r="BN15" s="0">
+        <v>0.00027956422146679954</v>
+      </c>
+      <c r="BO15" s="0">
+        <v>7.0213764526679066e-05</v>
+      </c>
+      <c r="BP15" s="0">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="0">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="0">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="0">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="0">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="0">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="0">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="0">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="0">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CH15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CL15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CN15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CS15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CT15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CV15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CW15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CX15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CY15" s="0">
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="DA15" s="0">
+        <v>0</v>
+      </c>
+      <c r="DB15" s="0">
+        <v>0</v>
+      </c>
+      <c r="DC15" s="0">
+        <v>0</v>
+      </c>
+      <c r="DD15" s="0">
+        <v>6.1395953494431879e-05</v>
+      </c>
+      <c r="DE15" s="0">
+        <v>0.00034035615417880475</v>
+      </c>
+      <c r="DF15" s="0">
+        <v>0.00093395210741489213</v>
+      </c>
+      <c r="DG15" s="0">
+        <v>0.0018880526921156175</v>
+      </c>
+      <c r="DH15" s="0">
+        <v>0.0032051699497144259</v>
+      </c>
+      <c r="DI15" s="0">
+        <v>0.0048521907002543017</v>
+      </c>
+      <c r="DJ15" s="0">
+        <v>0.0067679268279721349</v>
+      </c>
+      <c r="DK15" s="0">
+        <v>0.0088704160538025118</v>
+      </c>
+      <c r="DL15" s="0">
+        <v>0.011063904333138488</v>
+      </c>
+      <c r="DM15" s="0">
+        <v>0.013245440695668092</v>
+      </c>
+      <c r="DN15" s="0">
+        <v>0.015311015390256855</v>
+      </c>
+      <c r="DO15" s="0">
+        <v>0.017161172619960977</v>
+      </c>
+      <c r="DP15" s="0">
+        <v>0.018706029957440768</v>
+      </c>
+      <c r="DQ15" s="0">
+        <v>0.019869637723439776</v>
+      </c>
+      <c r="DR15" s="0">
+        <v>0.020593613193548937</v>
+      </c>
+      <c r="DS15" s="0">
+        <v>0.020839986472135062</v>
+      </c>
+      <c r="DT15" s="0">
+        <v>0.02059319723483817</v>
+      </c>
+      <c r="DU15" s="0">
+        <v>0.019861184289051113</v>
+      </c>
+      <c r="DV15" s="0">
+        <v>0.018675513028140928</v>
+      </c>
+      <c r="DW15" s="0">
+        <v>0.017090489352422734</v>
+      </c>
+      <c r="DX15" s="0">
+        <v>0.015181212485354988</v>
+      </c>
+      <c r="DY15" s="0">
+        <v>0.013040523314444885</v>
+      </c>
+      <c r="DZ15" s="0">
+        <v>0.01077480941647104</v>
+      </c>
+      <c r="EA15" s="0">
+        <v>0.0084986327670250605</v>
+      </c>
+      <c r="EB15" s="0">
+        <v>0.0063281512648428366</v>
+      </c>
+      <c r="EC15" s="0">
+        <v>0.00437331059750962</v>
+      </c>
+      <c r="ED15" s="0">
+        <v>0.0027287886123595626</v>
+      </c>
+      <c r="EE15" s="0">
+        <v>0.0014636802070747978</v>
+      </c>
+      <c r="EF15" s="0">
+        <v>0.00060991678844133344</v>
+      </c>
+      <c r="EG15" s="0">
+        <v>0.00014942053434686983</v>
+      </c>
+      <c r="EH15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EI15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EJ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EK15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EL15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EM15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EN15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EO15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EP15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EQ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="ER15" s="0">
+        <v>0</v>
+      </c>
+      <c r="ES15" s="0">
+        <v>0</v>
+      </c>
+      <c r="ET15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EU15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EV15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EW15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EX15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EY15" s="0">
+        <v>0</v>
+      </c>
+      <c r="EZ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FA15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FB15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FC15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FD15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FE15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FF15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FG15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FH15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FI15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FJ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FK15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FL15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FM15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FN15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FO15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FP15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FQ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FR15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FS15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FT15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FU15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FV15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FW15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FX15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FY15" s="0">
+        <v>0</v>
+      </c>
+      <c r="FZ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GA15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GB15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GC15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GD15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GE15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GF15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GG15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GH15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GI15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GJ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GK15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GL15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GM15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GN15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GO15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GP15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GQ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GR15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GS15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GT15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GU15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GV15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GW15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GX15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GY15" s="0">
+        <v>0</v>
+      </c>
+      <c r="GZ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HA15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HB15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HC15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HD15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HE15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HF15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HG15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HH15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HI15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HJ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HK15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HL15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HM15" s="0">
+        <v>0</v>
+      </c>
+      <c r="HN15" s="0">
+        <v>0.00024699989410460142</v>
+      </c>
+      <c r="HO15" s="0">
+        <v>0.00099266115331234539</v>
+      </c>
+      <c r="HP15" s="0">
+        <v>0.0023768789229928898</v>
+      </c>
+      <c r="HQ15" s="0">
+        <v>0.0044464347752504116</v>
+      </c>
+      <c r="HR15" s="0">
+        <v>0.0071725425807734255</v>
+      </c>
+      <c r="HS15" s="0">
+        <v>0.010467245795572412</v>
+      </c>
+      <c r="HT15" s="0">
+        <v>0.0141986279443527</v>
+      </c>
+      <c r="HU15" s="0">
+        <v>0.018204801559738741</v>
+      </c>
+      <c r="HV15" s="0">
+        <v>0.022306644295776282</v>
+      </c>
+      <c r="HW15" s="0">
+        <v>0.026319254361148198</v>
+      </c>
+      <c r="HX15" s="0">
+        <v>0.030062100804693168</v>
+      </c>
+      <c r="HY15" s="0">
+        <v>0.033367847520951247</v>
+      </c>
+      <c r="HZ15" s="0">
+        <v>0.036089833118172085</v>
+      </c>
+      <c r="IA15" s="0">
+        <v>0.038108191998027854</v>
+      </c>
+      <c r="IB15" s="0">
+        <v>0.039334605126960964</v>
+      </c>
+      <c r="IC15" s="0">
+        <v>0.039715672026636686</v>
+      </c>
+      <c r="ID15" s="0">
+        <v>0.039234898468179492</v>
+      </c>
+      <c r="IE15" s="0">
+        <v>0.037913297220177278</v>
+      </c>
+      <c r="IF15" s="0">
+        <v>0.035808601964258294</v>
+      </c>
+      <c r="IG15" s="0">
+        <v>0.033013097153018797</v>
+      </c>
+      <c r="IH15" s="0">
+        <v>0.029650069139133067</v>
+      </c>
+      <c r="II15" s="0">
+        <v>0.025868886349079662</v>
+      </c>
+      <c r="IJ15" s="0">
+        <v>0.021838718607332535</v>
+      </c>
+      <c r="IK15" s="0">
+        <v>0.017740907934713522</v>
+      </c>
+      <c r="IL15" s="0">
+        <v>0.013760005248714185</v>
+      </c>
+      <c r="IM15" s="0">
+        <v>0.010073489381763303</v>
+      </c>
+      <c r="IN15" s="0">
+        <v>0.0068401867037567515</v>
+      </c>
+      <c r="IO15" s="0">
+        <v>0.0041874113929448852</v>
+      </c>
+      <c r="IP15" s="0">
+        <v>0.0021968480393891984</v>
+      </c>
+      <c r="IQ15" s="0">
+        <v>0.00088919979201405809</v>
+      </c>
+      <c r="IR15" s="0">
+        <v>0.00020762667482103028</v>
+      </c>
+      <c r="IS15" s="0">
+        <v>0</v>
+      </c>
+      <c r="IT15" s="0">
+        <v>0</v>
+      </c>
+      <c r="IU15" s="0">
+        <v>0</v>
+      </c>
+      <c r="IV15" s="0">
+        <v>0</v>
+      </c>
+      <c r="IW15" s="0">
+        <v>0</v>
+      </c>
+      <c r="IX15" s="0">
+        <v>0</v>
+      </c>
+      <c r="IY15" s="0">
+        <v>0</v>
+      </c>
+      <c r="IZ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JA15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JB15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JC15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JD15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JE15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JF15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JG15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JH15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JI15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JJ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JK15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JL15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JM15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JN15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JO15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JP15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JQ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JR15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JS15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JT15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JU15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JV15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JW15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JX15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JY15" s="0">
+        <v>0</v>
+      </c>
+      <c r="JZ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KA15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KB15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KC15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KD15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KE15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KF15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KG15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KH15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KI15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KJ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KK15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KL15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KM15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KN15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KO15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KP15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KQ15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KR15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KS15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KT15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KU15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KV15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KW15" s="0">
+        <v>0</v>
+      </c>
+      <c r="KX15" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
